--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -465,25 +465,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.2319861257604681</v>
+        <v>0.0505770690751266</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1591421593128235</v>
+        <v>0.03554285442794303</v>
       </c>
       <c r="E2">
-        <v>2.407434584687042</v>
+        <v>1.370889018418601</v>
       </c>
       <c r="F2" s="1">
-        <v>0.08562599143155648</v>
+        <v>0.03490635061470043</v>
       </c>
       <c r="G2" s="1">
-        <v>0.03948882535099574</v>
+        <v>0.01680089100738635</v>
       </c>
       <c r="H2" s="3">
-        <v>38070</v>
+        <v>38124</v>
       </c>
       <c r="I2">
-        <v>52</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -518,13 +518,13 @@
         <v>37805</v>
       </c>
       <c r="B2">
-        <v>993818.5000000001</v>
+        <v>99790.48000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.00618149999999984</v>
+        <v>-0.002095199999999853</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.00618149999999984</v>
+        <v>-0.002095199999999853</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -532,13 +532,13 @@
         <v>37806</v>
       </c>
       <c r="B3">
-        <v>991839.5494444444</v>
+        <v>99790.48000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.001991259526317735</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.008160450555555587</v>
+        <v>-0.002095199999999853</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -546,13 +546,13 @@
         <v>37807</v>
       </c>
       <c r="B4">
-        <v>992038.8105555555</v>
+        <v>99790.48000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0002009005501169003</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.007961189444444461</v>
+        <v>-0.002095199999999853</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -560,13 +560,13 @@
         <v>37808</v>
       </c>
       <c r="B5">
-        <v>991839.5494444445</v>
+        <v>99790.48000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.000200860197192676</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.008160450555555476</v>
+        <v>-0.002095199999999853</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -574,13 +574,13 @@
         <v>37809</v>
       </c>
       <c r="B6">
-        <v>1001815.910555555</v>
+        <v>100278.28</v>
       </c>
       <c r="C6" s="1">
-        <v>0.01005844253407617</v>
+        <v>0.004888241844312136</v>
       </c>
       <c r="D6" s="1">
-        <v>0.001815910555555522</v>
+        <v>0.002782800000000085</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -588,13 +588,13 @@
         <v>37810</v>
       </c>
       <c r="B7">
-        <v>1003211.630095062</v>
+        <v>100376.2</v>
       </c>
       <c r="C7" s="1">
-        <v>0.001393189631748282</v>
+        <v>0.0009764826440978869</v>
       </c>
       <c r="D7" s="1">
-        <v>0.003211630095061979</v>
+        <v>0.003762000000000043</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -602,13 +602,13 @@
         <v>37811</v>
       </c>
       <c r="B8">
-        <v>997228.9589334568</v>
+        <v>100232.2</v>
       </c>
       <c r="C8" s="1">
-        <v>-0.005963518545970437</v>
+        <v>-0.001434603023425907</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.002771041066543134</v>
+        <v>0.002321999999999935</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -616,13 +616,13 @@
         <v>37812</v>
       </c>
       <c r="B9">
-        <v>989414.0280893835</v>
+        <v>99880.30000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.007836646513385892</v>
+        <v>-0.00351084781138189</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.0105859719106165</v>
+        <v>-0.001197000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -630,13 +630,13 @@
         <v>37813</v>
       </c>
       <c r="B10">
-        <v>997527.903152353</v>
+        <v>100127.62</v>
       </c>
       <c r="C10" s="1">
-        <v>0.008200687308464572</v>
+        <v>0.002476163968269995</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.002472096847647043</v>
+        <v>0.00127619999999995</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -644,13 +644,13 @@
         <v>37814</v>
       </c>
       <c r="B11">
-        <v>997833.5472878065</v>
+        <v>100127.62</v>
       </c>
       <c r="C11" s="1">
-        <v>0.000306401589857952</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.002166452712193512</v>
+        <v>0.00127619999999995</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -658,13 +658,13 @@
         <v>37815</v>
       </c>
       <c r="B12">
-        <v>998424.0168985357</v>
+        <v>100127.62</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0005917516126152655</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.00157598310146434</v>
+        <v>0.00127619999999995</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -672,13 +672,13 @@
         <v>37816</v>
       </c>
       <c r="B13">
-        <v>999536.1631014644</v>
+        <v>100277.02</v>
       </c>
       <c r="C13" s="1">
-        <v>0.001113901693173824</v>
+        <v>0.001492095787356096</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.0004638368985356855</v>
+        <v>0.002770199999999834</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -686,13 +686,13 @@
         <v>37817</v>
       </c>
       <c r="B14">
-        <v>996374.6468985355</v>
+        <v>100187.38</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.003162983311298051</v>
+        <v>-0.0008939236526972483</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.003625353101464501</v>
+        <v>0.001873799999999815</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -700,13 +700,13 @@
         <v>37818</v>
       </c>
       <c r="B15">
-        <v>991954.0471710252</v>
+        <v>100022.5</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.004436684274605529</v>
+        <v>-0.001645716256877927</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.008045952828974912</v>
+        <v>0.0002249999999996977</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -714,13 +714,13 @@
         <v>37819</v>
       </c>
       <c r="B16">
-        <v>988670.7804087014</v>
+        <v>99703.00000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.003309898045869564</v>
+        <v>-0.00319428128671051</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.01132921959129873</v>
+        <v>-0.002970000000000361</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -728,13 +728,13 @@
         <v>37820</v>
       </c>
       <c r="B17">
-        <v>998265.6923465614</v>
+        <v>100005.04</v>
       </c>
       <c r="C17" s="1">
-        <v>0.009704860432806051</v>
+        <v>0.00302939731001084</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.001734307653438849</v>
+        <v>5.039999999967293E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -742,13 +742,13 @@
         <v>37821</v>
       </c>
       <c r="B18">
-        <v>998728.0840773424</v>
+        <v>100005.04</v>
       </c>
       <c r="C18" s="1">
-        <v>0.0004631950535074481</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.00127191592265774</v>
+        <v>5.039999999967293E-05</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -756,13 +756,13 @@
         <v>37822</v>
       </c>
       <c r="B19">
-        <v>997855.9959226575</v>
+        <v>100005.04</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.0008731987901297034</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.002144004077342609</v>
+        <v>5.039999999967293E-05</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -770,13 +770,13 @@
         <v>37823</v>
       </c>
       <c r="B20">
-        <v>985793.2240773424</v>
+        <v>99626.86000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>-0.01208869004606361</v>
+        <v>-0.003781609406885988</v>
       </c>
       <c r="D20" s="1">
-        <v>-0.01420677592265773</v>
+        <v>-0.003731400000000384</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -784,13 +784,13 @@
         <v>37824</v>
       </c>
       <c r="B21">
-        <v>992370.403051161</v>
+        <v>99869.32000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>0.006671966101181592</v>
+        <v>0.00243368103742303</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.007629596948839246</v>
+        <v>-0.001306800000000385</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -798,13 +798,13 @@
         <v>37825</v>
       </c>
       <c r="B22">
-        <v>995025.4427837934</v>
+        <v>99882.82000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>0.002675452355762831</v>
+        <v>0.0001351766488446593</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.004974557216206654</v>
+        <v>-0.001171800000000389</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -812,13 +812,13 @@
         <v>37826</v>
       </c>
       <c r="B23">
-        <v>988944.0688509876</v>
+        <v>99700.30000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>-0.006111777318770772</v>
+        <v>-0.001827341278510253</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.01105593114901249</v>
+        <v>-0.002997000000000472</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -826,13 +826,13 @@
         <v>37827</v>
       </c>
       <c r="B24">
-        <v>997858.772121384</v>
+        <v>100145.62</v>
       </c>
       <c r="C24" s="1">
-        <v>0.009014365474433905</v>
+        <v>0.004466586359318958</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.002141227878615926</v>
+        <v>0.001456199999999575</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -840,13 +840,13 @@
         <v>37828</v>
       </c>
       <c r="B25">
-        <v>998108.570090124</v>
+        <v>100145.62</v>
       </c>
       <c r="C25" s="1">
-        <v>0.0002503339908601632</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.001891429909876008</v>
+        <v>0.001456199999999575</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -854,13 +854,13 @@
         <v>37829</v>
       </c>
       <c r="B26">
-        <v>997591.9499098759</v>
+        <v>100145.62</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.0005175991828239024</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.002408050090124236</v>
+        <v>0.001456199999999575</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -868,13 +868,13 @@
         <v>37830</v>
       </c>
       <c r="B27">
-        <v>994995.7800901241</v>
+        <v>100089.46</v>
       </c>
       <c r="C27" s="1">
-        <v>-0.00260243661748305</v>
+        <v>-0.0005607833872315338</v>
       </c>
       <c r="D27" s="1">
-        <v>-0.005004219909875984</v>
+        <v>0.0008945999999996346</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -882,13 +882,13 @@
         <v>37831</v>
       </c>
       <c r="B28">
-        <v>990943.4139369131</v>
+        <v>99904.60000000002</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.004072747075212657</v>
+        <v>-0.001846947720569148</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.009056586063087013</v>
+        <v>-0.0009540000000003435</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -896,13 +896,13 @@
         <v>37832</v>
       </c>
       <c r="B29">
-        <v>991277.576514423</v>
+        <v>99861.40000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>0.0003372166087489692</v>
+        <v>-0.0004324125215455776</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.008722423485577058</v>
+        <v>-0.001386000000000331</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -910,13 +910,13 @@
         <v>37833</v>
       </c>
       <c r="B30">
-        <v>991633.476439904</v>
+        <v>99940.96000000002</v>
       </c>
       <c r="C30" s="1">
-        <v>0.000359031550710931</v>
+        <v>0.0007967042320655704</v>
       </c>
       <c r="D30" s="1">
-        <v>-0.008366523560096151</v>
+        <v>-0.000590400000000435</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -924,13 +924,13 @@
         <v>37834</v>
       </c>
       <c r="B31">
-        <v>984057.054083726</v>
+        <v>99676.54000000002</v>
       </c>
       <c r="C31" s="1">
-        <v>-0.007640345486699673</v>
+        <v>-0.002645762057918999</v>
       </c>
       <c r="D31" s="1">
-        <v>-0.0159429459162741</v>
+        <v>-0.00323460000000042</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -938,13 +938,13 @@
         <v>37835</v>
       </c>
       <c r="B32">
-        <v>984603.8758143857</v>
+        <v>99676.54000000002</v>
       </c>
       <c r="C32" s="1">
-        <v>0.0005556809215385705</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>-0.01539612418561431</v>
+        <v>-0.00323460000000042</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -952,13 +952,13 @@
         <v>37836</v>
       </c>
       <c r="B33">
-        <v>984393.0456582314</v>
+        <v>99676.54000000002</v>
       </c>
       <c r="C33" s="1">
-        <v>-0.0002141268801932883</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.01560695434176862</v>
+        <v>-0.00323460000000042</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -966,13 +966,13 @@
         <v>37837</v>
       </c>
       <c r="B34">
-        <v>987044.6243417687</v>
+        <v>99757.81000000003</v>
       </c>
       <c r="C34" s="1">
-        <v>0.00269361785440525</v>
+        <v>0.0008153372899981637</v>
       </c>
       <c r="D34" s="1">
-        <v>-0.01295537565823124</v>
+        <v>-0.002421900000000532</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -980,13 +980,13 @@
         <v>37838</v>
       </c>
       <c r="B35">
-        <v>972329.6856582313</v>
+        <v>99230.92000000004</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.01490807844007092</v>
+        <v>-0.00528169172919879</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.0276703143417687</v>
+        <v>-0.007690800000000331</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -994,13 +994,13 @@
         <v>37839</v>
       </c>
       <c r="B36">
-        <v>972991.1787884373</v>
+        <v>99285.31000000003</v>
       </c>
       <c r="C36" s="1">
-        <v>0.0006803177358081225</v>
+        <v>0.0005481154462740889</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.02700882121156267</v>
+        <v>-0.0071469000000004</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>37840</v>
       </c>
       <c r="B37">
-        <v>984430.9555115692</v>
+        <v>99500.77000000003</v>
       </c>
       <c r="C37" s="1">
-        <v>0.01175732830114318</v>
+        <v>0.002170109555985844</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.01556904448843077</v>
+        <v>-0.004992300000000283</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>37841</v>
       </c>
       <c r="B38">
-        <v>986636.4677437415</v>
+        <v>99606.40000000004</v>
       </c>
       <c r="C38" s="1">
-        <v>0.002240393010626285</v>
+        <v>0.001061599824805359</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.01336353225625853</v>
+        <v>-0.003936000000000273</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>37842</v>
       </c>
       <c r="B39">
-        <v>985924.5787085056</v>
+        <v>99606.40000000004</v>
       </c>
       <c r="C39" s="1">
-        <v>-0.0007215312412521824</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.01407542129149431</v>
+        <v>-0.003936000000000273</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>37843</v>
       </c>
       <c r="B40">
-        <v>986611.7612914946</v>
+        <v>99606.40000000004</v>
       </c>
       <c r="C40" s="1">
-        <v>0.000696993053859396</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.01338823870850525</v>
+        <v>-0.003936000000000273</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>37844</v>
       </c>
       <c r="B41">
-        <v>987455.0087085055</v>
+        <v>99705.31000000003</v>
       </c>
       <c r="C41" s="1">
-        <v>0.0008546902136126189</v>
+        <v>0.0009930084813825069</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.01254499129149433</v>
+        <v>-0.00294690000000053</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>37845</v>
       </c>
       <c r="B42">
-        <v>993713.7112914943</v>
+        <v>100002.67</v>
       </c>
       <c r="C42" s="1">
-        <v>0.0063382154404934</v>
+        <v>0.002982388801559432</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.006286288708505561</v>
+        <v>2.669999999960204E-05</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>37846</v>
       </c>
       <c r="B43">
-        <v>989696.4332777376</v>
+        <v>99821.65000000004</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.004042691539936194</v>
+        <v>-0.001810151668950488</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.01030356672226229</v>
+        <v>-0.001783500000000493</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>37847</v>
       </c>
       <c r="B44">
-        <v>993803.2518362502</v>
+        <v>100019.26</v>
       </c>
       <c r="C44" s="1">
-        <v>0.004149573970789522</v>
+        <v>0.001979630671302246</v>
       </c>
       <c r="D44" s="1">
-        <v>-0.00619674816374971</v>
+        <v>0.0001925999999994321</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>37848</v>
       </c>
       <c r="B45">
-        <v>996492.3591034182</v>
+        <v>100029.13</v>
       </c>
       <c r="C45" s="1">
-        <v>0.00270587489243912</v>
+        <v>9.868099404042319E-05</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.003507640896581621</v>
+        <v>0.0002912999999993282</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>37849</v>
       </c>
       <c r="B46">
-        <v>995634.2748790156</v>
+        <v>100029.13</v>
       </c>
       <c r="C46" s="1">
-        <v>-0.0008611046703606018</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.00436572512098421</v>
+        <v>0.0002912999999993282</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>37850</v>
       </c>
       <c r="B47">
-        <v>996394.9851209843</v>
+        <v>100029.13</v>
       </c>
       <c r="C47" s="1">
-        <v>0.0007640458561564145</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>-0.003605014879015656</v>
+        <v>0.0002912999999993282</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>37851</v>
       </c>
       <c r="B48">
-        <v>997870.0448790158</v>
+        <v>100306.75</v>
       </c>
       <c r="C48" s="1">
-        <v>0.001480396609836898</v>
+        <v>0.002775391528447635</v>
       </c>
       <c r="D48" s="1">
-        <v>-0.002129955120984017</v>
+        <v>0.003067499999999113</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>37852</v>
       </c>
       <c r="B49">
-        <v>999028.7787866547</v>
+        <v>100386.55</v>
       </c>
       <c r="C49" s="1">
-        <v>0.001161207226918481</v>
+        <v>0.0007955596208630844</v>
       </c>
       <c r="D49" s="1">
-        <v>-0.0009712212133450304</v>
+        <v>0.003865499999999189</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>37853</v>
       </c>
       <c r="B50">
-        <v>1000203.004178923</v>
+        <v>100326.91</v>
       </c>
       <c r="C50" s="1">
-        <v>0.001175366933567901</v>
+        <v>-0.0005941034929479727</v>
       </c>
       <c r="D50" s="1">
-        <v>0.0002030041789236048</v>
+        <v>0.003269099999999137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>37854</v>
       </c>
       <c r="B51">
-        <v>1000874.282590414</v>
+        <v>100418.68</v>
       </c>
       <c r="C51" s="1">
-        <v>0.0006711421668259554</v>
+        <v>0.0009147097224464495</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0008742825904139995</v>
+        <v>0.004186799999999158</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>37855</v>
       </c>
       <c r="B52">
-        <v>994134.6613774416</v>
+        <v>100107.67</v>
       </c>
       <c r="C52" s="1">
-        <v>-0.006733734026544203</v>
+        <v>-0.003097132923874257</v>
       </c>
       <c r="D52" s="1">
-        <v>-0.005865338622558114</v>
+        <v>0.001076699999999153</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>37856</v>
       </c>
       <c r="B53">
-        <v>994338.1583355864</v>
+        <v>100107.67</v>
       </c>
       <c r="C53" s="1">
-        <v>0.0002046975787595162</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>-0.005661841664413192</v>
+        <v>0.001076699999999153</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>37857</v>
       </c>
       <c r="B54">
-        <v>994666.4891650894</v>
+        <v>100107.67</v>
       </c>
       <c r="C54" s="1">
-        <v>0.0003302003717251534</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>-0.005333510834910293</v>
+        <v>0.001076699999999153</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>37858</v>
       </c>
       <c r="B55">
-        <v>997658.2308349104</v>
+        <v>100127.41</v>
       </c>
       <c r="C55" s="1">
-        <v>0.003007783716863832</v>
+        <v>0.0001971876880162426</v>
       </c>
       <c r="D55" s="1">
-        <v>-0.002341769165089436</v>
+        <v>0.001274099999999168</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>37859</v>
       </c>
       <c r="B56">
-        <v>1000283.12916509</v>
+        <v>100219.81</v>
       </c>
       <c r="C56" s="1">
-        <v>0.00263105966457311</v>
+        <v>0.0009228242296488443</v>
       </c>
       <c r="D56" s="1">
-        <v>0.0002831291650897683</v>
+        <v>0.002198099999999092</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>37860</v>
       </c>
       <c r="B57">
-        <v>999545.8708349103</v>
+        <v>100226.74</v>
       </c>
       <c r="C57" s="1">
-        <v>-0.0007370496499272683</v>
+        <v>6.914800576862667E-05</v>
       </c>
       <c r="D57" s="1">
-        <v>-0.0004541291650894674</v>
+        <v>0.002267399999999142</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>37861</v>
       </c>
       <c r="B58">
-        <v>1001723.36916509</v>
+        <v>100412.8</v>
       </c>
       <c r="C58" s="1">
-        <v>0.002178487644954652</v>
+        <v>0.001856390819455989</v>
       </c>
       <c r="D58" s="1">
-        <v>0.00172336916508975</v>
+        <v>0.004127999999999243</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>37862</v>
       </c>
       <c r="B59">
-        <v>1006422.426008431</v>
+        <v>100572.4</v>
       </c>
       <c r="C59" s="1">
-        <v>0.004690972565866813</v>
+        <v>0.001589438796647524</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006422426008430904</v>
+        <v>0.005723999999999396</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>37863</v>
       </c>
       <c r="B60">
-        <v>1007008.570234529</v>
+        <v>100572.4</v>
       </c>
       <c r="C60" s="1">
-        <v>0.0005824037809087912</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>0.007008570234529721</v>
+        <v>0.005723999999999396</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>37864</v>
       </c>
       <c r="B61">
-        <v>1005614.249765471</v>
+        <v>100572.4</v>
       </c>
       <c r="C61" s="1">
-        <v>-0.001384616288552576</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0.00561424976547098</v>
+        <v>0.005723999999999396</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1358,13 +1358,13 @@
         <v>37865</v>
       </c>
       <c r="B62">
-        <v>1007008.570234529</v>
+        <v>100572.4</v>
       </c>
       <c r="C62" s="1">
-        <v>0.001386536109033942</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>0.007008570234529943</v>
+        <v>0.005723999999999396</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>37866</v>
       </c>
       <c r="B63">
-        <v>1017844.31976547</v>
+        <v>100998.91</v>
       </c>
       <c r="C63" s="1">
-        <v>0.01076033496757378</v>
+        <v>0.004240825514753466</v>
       </c>
       <c r="D63" s="1">
-        <v>0.01784431976547096</v>
+        <v>0.009989099999999418</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>37867</v>
       </c>
       <c r="B64">
-        <v>1019986.380285517</v>
+        <v>101138.35</v>
       </c>
       <c r="C64" s="1">
-        <v>0.002104507023765745</v>
+        <v>0.001380608959047125</v>
       </c>
       <c r="D64" s="1">
-        <v>0.01998638028551736</v>
+        <v>0.01138349999999932</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>37868</v>
       </c>
       <c r="B65">
-        <v>1022855.065790166</v>
+        <v>101191.27</v>
       </c>
       <c r="C65" s="1">
-        <v>0.002812474323280467</v>
+        <v>0.0005232436558437747</v>
       </c>
       <c r="D65" s="1">
-        <v>0.02285506579016605</v>
+        <v>0.01191269999999944</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>37869</v>
       </c>
       <c r="B66">
-        <v>1019821.215511672</v>
+        <v>100991.14</v>
       </c>
       <c r="C66" s="1">
-        <v>-0.00296606076458128</v>
+        <v>-0.001977739779330689</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0198212155116726</v>
+        <v>0.009911399999999571</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>37870</v>
       </c>
       <c r="B67">
-        <v>1018483.010377975</v>
+        <v>100991.14</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.001312195817603112</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>0.01848301037797517</v>
+        <v>0.009911399999999571</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>37871</v>
       </c>
       <c r="B68">
-        <v>1019442.429622025</v>
+        <v>100991.14</v>
       </c>
       <c r="C68" s="1">
-        <v>0.0009420080985877988</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>0.01944242962202525</v>
+        <v>0.009911399999999571</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>37872</v>
       </c>
       <c r="B69">
-        <v>1029151.620377975</v>
+        <v>101305.72</v>
       </c>
       <c r="C69" s="1">
-        <v>0.009524020654653187</v>
+        <v>0.003114926715353405</v>
       </c>
       <c r="D69" s="1">
-        <v>0.02915162037797514</v>
+        <v>0.01305719999999955</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>37873</v>
       </c>
       <c r="B70">
-        <v>1025586.505233271</v>
+        <v>101047.63</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.003464130137981747</v>
+        <v>-0.002547635020016648</v>
       </c>
       <c r="D70" s="1">
-        <v>0.02558650523327111</v>
+        <v>0.01047629999999944</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>37874</v>
       </c>
       <c r="B71">
-        <v>1022475.171312956</v>
+        <v>100677.19</v>
       </c>
       <c r="C71" s="1">
-        <v>-0.003033711836532782</v>
+        <v>-0.003665993947606694</v>
       </c>
       <c r="D71" s="1">
-        <v>0.02247517131295673</v>
+        <v>0.006771899999999498</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>37875</v>
       </c>
       <c r="B72">
-        <v>1028355.548911867</v>
+        <v>100854.22</v>
       </c>
       <c r="C72" s="1">
-        <v>0.005751120187456493</v>
+        <v>0.001758392342893211</v>
       </c>
       <c r="D72" s="1">
-        <v>0.02835554891186765</v>
+        <v>0.0085421999999995</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>37876</v>
       </c>
       <c r="B73">
-        <v>1028441.405761693</v>
+        <v>100921.84</v>
       </c>
       <c r="C73" s="1">
-        <v>8.348946034897331E-05</v>
+        <v>0.0006704726882029721</v>
       </c>
       <c r="D73" s="1">
-        <v>0.02844140576169307</v>
+        <v>0.009218399999999738</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>37877</v>
       </c>
       <c r="B74">
-        <v>1029669.474238307</v>
+        <v>100921.84</v>
       </c>
       <c r="C74" s="1">
-        <v>0.001194106411638307</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>0.02966947423830746</v>
+        <v>0.009218399999999738</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>37878</v>
       </c>
       <c r="B75">
-        <v>1030015.558938698</v>
+        <v>100921.84</v>
       </c>
       <c r="C75" s="1">
-        <v>0.0003361124215586209</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.03001555893869878</v>
+        <v>0.009218399999999738</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>37879</v>
       </c>
       <c r="B76">
-        <v>1026434.571061302</v>
+        <v>100806.13</v>
       </c>
       <c r="C76" s="1">
-        <v>-0.00347663474237847</v>
+        <v>-0.001146530820286373</v>
       </c>
       <c r="D76" s="1">
-        <v>0.02643457106130209</v>
+        <v>0.008061299999999605</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1568,13 +1568,13 @@
         <v>37880</v>
       </c>
       <c r="B77">
-        <v>1034760.548938698</v>
+        <v>101248.6</v>
       </c>
       <c r="C77" s="1">
-        <v>0.008111552467282568</v>
+        <v>0.004389316403675014</v>
       </c>
       <c r="D77" s="1">
-        <v>0.03476054893869862</v>
+        <v>0.01248599999999955</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>37881</v>
       </c>
       <c r="B78">
-        <v>1034051.867133111</v>
+        <v>101147.8</v>
       </c>
       <c r="C78" s="1">
-        <v>-0.0006848751687659194</v>
+        <v>-0.0009955693214523942</v>
       </c>
       <c r="D78" s="1">
-        <v>0.03405186713311181</v>
+        <v>0.01147799999999943</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>37882</v>
       </c>
       <c r="B79">
-        <v>1041431.053006822</v>
+        <v>101562.97</v>
       </c>
       <c r="C79" s="1">
-        <v>0.007136185435426157</v>
+        <v>0.004104587544168092</v>
       </c>
       <c r="D79" s="1">
-        <v>0.04143105300682226</v>
+        <v>0.01562969999999941</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>37883</v>
       </c>
       <c r="B80">
-        <v>1038757.535951987</v>
+        <v>101463.64</v>
       </c>
       <c r="C80" s="1">
-        <v>-0.002567157035615386</v>
+        <v>-0.0009780139355907158</v>
       </c>
       <c r="D80" s="1">
-        <v>0.03875753595198739</v>
+        <v>0.01463639999999966</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>37884</v>
       </c>
       <c r="B81">
-        <v>1040531.461138512</v>
+        <v>101463.64</v>
       </c>
       <c r="C81" s="1">
-        <v>0.001707737489383021</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>0.04053146113851169</v>
+        <v>0.01463639999999966</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>37885</v>
       </c>
       <c r="B82">
-        <v>1039847.514427707</v>
+        <v>101463.64</v>
       </c>
       <c r="C82" s="1">
-        <v>-0.0006573051717783107</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>0.03984751442770729</v>
+        <v>0.01463639999999966</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>37886</v>
       </c>
       <c r="B83">
-        <v>1029982.705572293</v>
+        <v>101052.46</v>
       </c>
       <c r="C83" s="1">
-        <v>-0.009486784089534406</v>
+        <v>-0.004052486191112425</v>
       </c>
       <c r="D83" s="1">
-        <v>0.02998270557229255</v>
+        <v>0.01052459999999966</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>37887</v>
       </c>
       <c r="B84">
-        <v>1032711.284427707</v>
+        <v>101242.09</v>
       </c>
       <c r="C84" s="1">
-        <v>0.002649150165971559</v>
+        <v>0.001876550061225668</v>
       </c>
       <c r="D84" s="1">
-        <v>0.03271128442770732</v>
+        <v>0.01242089999999973</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>37888</v>
       </c>
       <c r="B85">
-        <v>1021898.515572293</v>
+        <v>100642.96</v>
       </c>
       <c r="C85" s="1">
-        <v>-0.01047027278433066</v>
+        <v>-0.005917795651986246</v>
       </c>
       <c r="D85" s="1">
-        <v>0.02189851557229283</v>
+        <v>0.006429599999999702</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>37889</v>
       </c>
       <c r="B86">
-        <v>1019234.474975201</v>
+        <v>100462.99</v>
       </c>
       <c r="C86" s="1">
-        <v>-0.002606952213448976</v>
+        <v>-0.001788202572738373</v>
       </c>
       <c r="D86" s="1">
-        <v>0.01923447497520137</v>
+        <v>0.004629899999999632</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1708,13 +1708,13 @@
         <v>37890</v>
       </c>
       <c r="B87">
-        <v>1018666.869246501</v>
+        <v>100272.73</v>
       </c>
       <c r="C87" s="1">
-        <v>-0.0005568941618798728</v>
+        <v>-0.001893831748388086</v>
       </c>
       <c r="D87" s="1">
-        <v>0.01866686924650107</v>
+        <v>0.002727299999999655</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>37891</v>
       </c>
       <c r="B88">
-        <v>1020487.293771451</v>
+        <v>100272.73</v>
       </c>
       <c r="C88" s="1">
-        <v>0.001787065604966998</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>0.02048729377145087</v>
+        <v>0.002727299999999655</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>37892</v>
       </c>
       <c r="B89">
-        <v>1019058.634512563</v>
+        <v>100272.73</v>
       </c>
       <c r="C89" s="1">
-        <v>-0.001399977508399708</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>0.01905863451256318</v>
+        <v>0.002727299999999655</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>37893</v>
       </c>
       <c r="B90">
-        <v>1027532.435487437</v>
+        <v>100570.3</v>
       </c>
       <c r="C90" s="1">
-        <v>0.008315322286560178</v>
+        <v>0.002967606446937276</v>
       </c>
       <c r="D90" s="1">
-        <v>0.02753243548743711</v>
+        <v>0.00570299999999957</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>37894</v>
       </c>
       <c r="B91">
-        <v>1021717.859639263</v>
+        <v>100246.27</v>
       </c>
       <c r="C91" s="1">
-        <v>-0.00565877596400699</v>
+        <v>-0.003221925359673805</v>
       </c>
       <c r="D91" s="1">
-        <v>0.02171785963926331</v>
+        <v>0.002462699999999485</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1778,13 +1778,13 @@
         <v>37895</v>
       </c>
       <c r="B92">
-        <v>1036071.17675245</v>
+        <v>100927.93</v>
       </c>
       <c r="C92" s="1">
-        <v>0.01404821984638183</v>
+        <v>0.006799853999555294</v>
       </c>
       <c r="D92" s="1">
-        <v>0.03607117675245042</v>
+        <v>0.009279299999999546</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1792,13 +1792,13 @@
         <v>37896</v>
       </c>
       <c r="B93">
-        <v>1043077.198333034</v>
+        <v>100993.66</v>
       </c>
       <c r="C93" s="1">
-        <v>0.006762104513460265</v>
+        <v>0.0006512567928420587</v>
       </c>
       <c r="D93" s="1">
-        <v>0.04307719833303425</v>
+        <v>0.009936599999999407</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>37897</v>
       </c>
       <c r="B94">
-        <v>1043006.665748342</v>
+        <v>101286.82</v>
       </c>
       <c r="C94" s="1">
-        <v>-6.761971674229539E-05</v>
+        <v>0.002902756470059664</v>
       </c>
       <c r="D94" s="1">
-        <v>0.04300666574834255</v>
+        <v>0.01286819999999955</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>37898</v>
       </c>
       <c r="B95">
-        <v>1045323.02553925</v>
+        <v>101286.82</v>
       </c>
       <c r="C95" s="1">
-        <v>0.002220848501716999</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
-        <v>0.04532302553925049</v>
+        <v>0.01286819999999955</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>37899</v>
       </c>
       <c r="B96">
-        <v>1044429.9401532</v>
+        <v>101286.82</v>
       </c>
       <c r="C96" s="1">
-        <v>-0.0008543630669470836</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>0.04442994015320045</v>
+        <v>0.01286819999999955</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1848,13 +1848,13 @@
         <v>37900</v>
       </c>
       <c r="B97">
-        <v>1045904.0698468</v>
+        <v>101424.16</v>
       </c>
       <c r="C97" s="1">
-        <v>0.001411420370985628</v>
+        <v>0.001355951346878159</v>
       </c>
       <c r="D97" s="1">
-        <v>0.04590406984680007</v>
+        <v>0.01424159999999963</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1862,13 +1862,13 @@
         <v>37901</v>
       </c>
       <c r="B98">
-        <v>1048177.535292401</v>
+        <v>101575.15</v>
       </c>
       <c r="C98" s="1">
-        <v>0.002173684481344473</v>
+        <v>0.001488698550720091</v>
       </c>
       <c r="D98" s="1">
-        <v>0.04817753529240099</v>
+        <v>0.0157514999999997</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1876,13 +1876,13 @@
         <v>37902</v>
       </c>
       <c r="B99">
-        <v>1044888.257705426</v>
+        <v>101419.75</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.003138092046646168</v>
+        <v>-0.00152990175254486</v>
       </c>
       <c r="D99" s="1">
-        <v>0.04488825770542682</v>
+        <v>0.01419749999999964</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1890,13 +1890,13 @@
         <v>37903</v>
       </c>
       <c r="B100">
-        <v>1047113.477306908</v>
+        <v>101571.16</v>
       </c>
       <c r="C100" s="1">
-        <v>0.002129624469479952</v>
+        <v>0.001492904488524127</v>
       </c>
       <c r="D100" s="1">
-        <v>0.04711347730690862</v>
+        <v>0.01571159999999949</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>37904</v>
       </c>
       <c r="B101">
-        <v>1044479.582693092</v>
+        <v>101553.1</v>
       </c>
       <c r="C101" s="1">
-        <v>-0.002515386031121003</v>
+        <v>-0.0001778063773220095</v>
       </c>
       <c r="D101" s="1">
-        <v>0.04447958269309238</v>
+        <v>0.01553099999999952</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1918,13 +1918,13 @@
         <v>37905</v>
       </c>
       <c r="B102">
-        <v>1045533.297306908</v>
+        <v>101553.1</v>
       </c>
       <c r="C102" s="1">
-        <v>0.001008841753612266</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>0.04553329730690869</v>
+        <v>0.01553099999999952</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1932,13 +1932,13 @@
         <v>37906</v>
       </c>
       <c r="B103">
-        <v>1046414.748705003</v>
+        <v>101553.1</v>
       </c>
       <c r="C103" s="1">
-        <v>0.0008430639180654342</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>0.04641474870500417</v>
+        <v>0.01553099999999952</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1946,13 +1946,13 @@
         <v>37907</v>
       </c>
       <c r="B104">
-        <v>1048838.331294996</v>
+        <v>101775.7</v>
       </c>
       <c r="C104" s="1">
-        <v>0.002316082215959137</v>
+        <v>0.002191956720178911</v>
       </c>
       <c r="D104" s="1">
-        <v>0.04883833129499715</v>
+        <v>0.01775699999999958</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1960,13 +1960,13 @@
         <v>37908</v>
       </c>
       <c r="B105">
-        <v>1050778.308705003</v>
+        <v>101901.7</v>
       </c>
       <c r="C105" s="1">
-        <v>0.001849643888979235</v>
+        <v>0.001238016540294096</v>
       </c>
       <c r="D105" s="1">
-        <v>0.05077830870500422</v>
+        <v>0.01901699999999962</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1974,13 +1974,13 @@
         <v>37909</v>
       </c>
       <c r="B106">
-        <v>1049519.060795864</v>
+        <v>101825.05</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.001198395416718401</v>
+        <v>-0.0007521954982105949</v>
       </c>
       <c r="D106" s="1">
-        <v>0.0495190607958651</v>
+        <v>0.0182504999999995</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1988,13 +1988,13 @@
         <v>37910</v>
       </c>
       <c r="B107">
-        <v>1054348.873687465</v>
+        <v>101926.9</v>
       </c>
       <c r="C107" s="1">
-        <v>0.004601929657131132</v>
+        <v>0.001000245028114355</v>
       </c>
       <c r="D107" s="1">
-        <v>0.05434887368746599</v>
+        <v>0.01926899999999954</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2002,13 +2002,13 @@
         <v>37911</v>
       </c>
       <c r="B108">
-        <v>1046988.062957929</v>
+        <v>101598.88</v>
       </c>
       <c r="C108" s="1">
-        <v>-0.006981380559352157</v>
+        <v>-0.003218188721525017</v>
       </c>
       <c r="D108" s="1">
-        <v>0.04698806295792957</v>
+        <v>0.01598879999999947</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>37912</v>
       </c>
       <c r="B109">
-        <v>1045449.037042071</v>
+        <v>101598.88</v>
       </c>
       <c r="C109" s="1">
-        <v>-0.001469955551842039</v>
+        <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>0.04544903704207215</v>
+        <v>0.01598879999999947</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2030,13 +2030,13 @@
         <v>37913</v>
       </c>
       <c r="B110">
-        <v>1044702.842957929</v>
+        <v>101598.88</v>
       </c>
       <c r="C110" s="1">
-        <v>-0.0007137546238064063</v>
+        <v>0</v>
       </c>
       <c r="D110" s="1">
-        <v>0.04470284295792948</v>
+        <v>0.01598879999999947</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2044,13 +2044,13 @@
         <v>37914</v>
       </c>
       <c r="B111">
-        <v>1049068.387042071</v>
+        <v>101762.47</v>
       </c>
       <c r="C111" s="1">
-        <v>0.004178742418066372</v>
+        <v>0.001610155545021641</v>
       </c>
       <c r="D111" s="1">
-        <v>0.04906838704207228</v>
+        <v>0.01762469999999938</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>37915</v>
       </c>
       <c r="B112">
-        <v>1051814.922957929</v>
+        <v>101803.63</v>
       </c>
       <c r="C112" s="1">
-        <v>0.002618071376262909</v>
+        <v>0.0004044713144246703</v>
       </c>
       <c r="D112" s="1">
-        <v>0.05181492295792944</v>
+        <v>0.01803629999999945</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2072,13 +2072,13 @@
         <v>37916</v>
       </c>
       <c r="B113">
-        <v>1035236.503325077</v>
+        <v>101327.98</v>
       </c>
       <c r="C113" s="1">
-        <v>-0.01576172696450162</v>
+        <v>-0.004672230253479071</v>
       </c>
       <c r="D113" s="1">
-        <v>0.03523650332507833</v>
+        <v>0.01327979999999962</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2086,13 +2086,13 @@
         <v>37917</v>
       </c>
       <c r="B114">
-        <v>1042253.094829109</v>
+        <v>101432.56</v>
       </c>
       <c r="C114" s="1">
-        <v>0.006777766704994637</v>
+        <v>0.001032093998123651</v>
       </c>
       <c r="D114" s="1">
-        <v>0.04225309482911022</v>
+        <v>0.01432559999999961</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2100,13 +2100,13 @@
         <v>37918</v>
       </c>
       <c r="B115">
-        <v>1040455.325804066</v>
+        <v>101284.3</v>
       </c>
       <c r="C115" s="1">
-        <v>-0.001724887202505854</v>
+        <v>-0.001461660831590939</v>
       </c>
       <c r="D115" s="1">
-        <v>0.04045532580406741</v>
+        <v>0.01284299999999972</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>37919</v>
       </c>
       <c r="B116">
-        <v>1041223.052452742</v>
+        <v>101284.3</v>
       </c>
       <c r="C116" s="1">
-        <v>0.0007378756488967131</v>
+        <v>0</v>
       </c>
       <c r="D116" s="1">
-        <v>0.04122305245274305</v>
+        <v>0.01284299999999972</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2128,13 +2128,13 @@
         <v>37920</v>
       </c>
       <c r="B117">
-        <v>1040091.387547258</v>
+        <v>101284.3</v>
       </c>
       <c r="C117" s="1">
-        <v>-0.001086861170445652</v>
+        <v>0</v>
       </c>
       <c r="D117" s="1">
-        <v>0.04009138754725927</v>
+        <v>0.01284299999999972</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2142,13 +2142,13 @@
         <v>37921</v>
       </c>
       <c r="B118">
-        <v>1040955.552452742</v>
+        <v>101352.13</v>
       </c>
       <c r="C118" s="1">
-        <v>0.0008308547843298708</v>
+        <v>0.0006696990550361104</v>
       </c>
       <c r="D118" s="1">
-        <v>0.04095555245274318</v>
+        <v>0.01352129999999963</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2156,13 +2156,13 @@
         <v>37922</v>
       </c>
       <c r="B119">
-        <v>1048442.837547258</v>
+        <v>101830.51</v>
       </c>
       <c r="C119" s="1">
-        <v>0.007192703931377498</v>
+        <v>0.004719979737969116</v>
       </c>
       <c r="D119" s="1">
-        <v>0.0484428375472592</v>
+        <v>0.01830509999999963</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2170,13 +2170,13 @@
         <v>37923</v>
       </c>
       <c r="B120">
-        <v>1051519.613344623</v>
+        <v>101876.71</v>
       </c>
       <c r="C120" s="1">
-        <v>0.002934614732609919</v>
+        <v>0.0004536950664393302</v>
       </c>
       <c r="D120" s="1">
-        <v>0.05151961334462474</v>
+        <v>0.01876709999999959</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2184,13 +2184,13 @@
         <v>37924</v>
       </c>
       <c r="B121">
-        <v>1050998.425099295</v>
+        <v>101849.62</v>
       </c>
       <c r="C121" s="1">
-        <v>-0.0004956524240865567</v>
+        <v>-0.0002659096470627453</v>
       </c>
       <c r="D121" s="1">
-        <v>0.05099842509929586</v>
+        <v>0.01849619999999952</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>37925</v>
       </c>
       <c r="B122">
-        <v>1057465.148322827</v>
+        <v>101965.12</v>
       </c>
       <c r="C122" s="1">
-        <v>0.006152933314740094</v>
+        <v>0.001134024849577253</v>
       </c>
       <c r="D122" s="1">
-        <v>0.05746514832282879</v>
+        <v>0.01965119999999954</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>37926</v>
       </c>
       <c r="B123">
-        <v>1057596.959362925</v>
+        <v>101965.12</v>
       </c>
       <c r="C123" s="1">
-        <v>0.0001246481175347647</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
-        <v>0.05759695936292575</v>
+        <v>0.01965119999999954</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>37927</v>
       </c>
       <c r="B124">
-        <v>1056280.720637075</v>
+        <v>101965.12</v>
       </c>
       <c r="C124" s="1">
-        <v>-0.001244556079890824</v>
+        <v>0</v>
       </c>
       <c r="D124" s="1">
-        <v>0.05628072063707656</v>
+        <v>0.01965119999999954</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2240,13 +2240,13 @@
         <v>37928</v>
       </c>
       <c r="B125">
-        <v>1060798.109362925</v>
+        <v>102219.01</v>
       </c>
       <c r="C125" s="1">
-        <v>0.004276693342584847</v>
+        <v>0.002489969118851798</v>
       </c>
       <c r="D125" s="1">
-        <v>0.06079810936292596</v>
+        <v>0.02219009999999977</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2254,13 +2254,13 @@
         <v>37929</v>
       </c>
       <c r="B126">
-        <v>1057698.938455277</v>
+        <v>102043.24</v>
       </c>
       <c r="C126" s="1">
-        <v>-0.002921546409532239</v>
+        <v>-0.001719543165209725</v>
       </c>
       <c r="D126" s="1">
-        <v>0.05769893845527818</v>
+        <v>0.0204323999999998</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2268,13 +2268,13 @@
         <v>37930</v>
       </c>
       <c r="B127">
-        <v>1060316.409709938</v>
+        <v>102005.44</v>
       </c>
       <c r="C127" s="1">
-        <v>0.002474684581307729</v>
+        <v>-0.0003704312015181399</v>
       </c>
       <c r="D127" s="1">
-        <v>0.0603164097099389</v>
+        <v>0.02005439999999981</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2282,13 +2282,13 @@
         <v>37931</v>
       </c>
       <c r="B128">
-        <v>1060119.400290062</v>
+        <v>102198.85</v>
       </c>
       <c r="C128" s="1">
-        <v>-0.0001858024812886327</v>
+        <v>0.00189607534656977</v>
       </c>
       <c r="D128" s="1">
-        <v>0.0601194002900638</v>
+        <v>0.02198849999999974</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2296,13 +2296,13 @@
         <v>37932</v>
       </c>
       <c r="B129">
-        <v>1058284.559796956</v>
+        <v>102057.52</v>
       </c>
       <c r="C129" s="1">
-        <v>-0.001730786638377002</v>
+        <v>-0.001382892273249614</v>
       </c>
       <c r="D129" s="1">
-        <v>0.05828455979695746</v>
+        <v>0.02057519999999968</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2310,13 +2310,13 @@
         <v>37933</v>
       </c>
       <c r="B130">
-        <v>1060862.976550705</v>
+        <v>102057.52</v>
       </c>
       <c r="C130" s="1">
-        <v>0.002436411577471764</v>
+        <v>0</v>
       </c>
       <c r="D130" s="1">
-        <v>0.06086297655070627</v>
+        <v>0.02057519999999968</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2324,13 +2324,13 @@
         <v>37934</v>
       </c>
       <c r="B131">
-        <v>1060642.378672884</v>
+        <v>102057.52</v>
       </c>
       <c r="C131" s="1">
-        <v>-0.0002079419139858762</v>
+        <v>0</v>
       </c>
       <c r="D131" s="1">
-        <v>0.06064237867288558</v>
+        <v>0.02057519999999968</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>37935</v>
       </c>
       <c r="B132">
-        <v>1056014.731327116</v>
+        <v>101873.56</v>
       </c>
       <c r="C132" s="1">
-        <v>-0.004363060951381947</v>
+        <v>-0.001802512935842548</v>
       </c>
       <c r="D132" s="1">
-        <v>0.0560147313271171</v>
+        <v>0.01873559999999963</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2352,13 +2352,13 @@
         <v>37936</v>
       </c>
       <c r="B133">
-        <v>1057188.093588323</v>
+        <v>101856.97</v>
       </c>
       <c r="C133" s="1">
-        <v>0.001111123004631676</v>
+        <v>-0.0001628489276314093</v>
       </c>
       <c r="D133" s="1">
-        <v>0.05718809358832466</v>
+        <v>0.0185696999999998</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2366,13 +2366,13 @@
         <v>37937</v>
       </c>
       <c r="B134">
-        <v>1064785.716411677</v>
+        <v>102235.39</v>
       </c>
       <c r="C134" s="1">
-        <v>0.007186632983696706</v>
+        <v>0.003715209670973163</v>
       </c>
       <c r="D134" s="1">
-        <v>0.06478571641167785</v>
+        <v>0.02235389999999993</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2380,13 +2380,13 @@
         <v>37938</v>
       </c>
       <c r="B135">
-        <v>1074495.484496371</v>
+        <v>102231.4</v>
       </c>
       <c r="C135" s="1">
-        <v>0.009118987919386923</v>
+        <v>-3.902758134932682E-05</v>
       </c>
       <c r="D135" s="1">
-        <v>0.07449548449637167</v>
+        <v>0.02231399999999994</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2394,13 +2394,13 @@
         <v>37939</v>
       </c>
       <c r="B136">
-        <v>1076155.543466934</v>
+        <v>101990.74</v>
       </c>
       <c r="C136" s="1">
-        <v>0.001544965981258972</v>
+        <v>-0.002354071254037415</v>
       </c>
       <c r="D136" s="1">
-        <v>0.07615554346693498</v>
+        <v>0.01990739999999991</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2408,13 +2408,13 @@
         <v>37940</v>
       </c>
       <c r="B137">
-        <v>1076429.819830528</v>
+        <v>101990.74</v>
       </c>
       <c r="C137" s="1">
-        <v>0.0002548668408195454</v>
+        <v>0</v>
       </c>
       <c r="D137" s="1">
-        <v>0.07642981983052888</v>
+        <v>0.01990739999999991</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2422,13 +2422,13 @@
         <v>37941</v>
       </c>
       <c r="B138">
-        <v>1074762.440169472</v>
+        <v>101990.74</v>
       </c>
       <c r="C138" s="1">
-        <v>-0.001548990589389065</v>
+        <v>0</v>
       </c>
       <c r="D138" s="1">
-        <v>0.07476244016947353</v>
+        <v>0.01990739999999991</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2436,13 +2436,13 @@
         <v>37942</v>
       </c>
       <c r="B139">
-        <v>1070138.209830528</v>
+        <v>101785.57</v>
       </c>
       <c r="C139" s="1">
-        <v>-0.004302560422762447</v>
+        <v>-0.002011653214791798</v>
       </c>
       <c r="D139" s="1">
-        <v>0.07013820983052876</v>
+        <v>0.01785569999999992</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2450,13 +2450,13 @@
         <v>37943</v>
       </c>
       <c r="B140">
-        <v>1063346.443118631</v>
+        <v>101496.82</v>
       </c>
       <c r="C140" s="1">
-        <v>-0.006346625743764989</v>
+        <v>-0.002836846126616943</v>
       </c>
       <c r="D140" s="1">
-        <v>0.06334644311863169</v>
+        <v>0.01496819999999999</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2464,13 +2464,13 @@
         <v>37944</v>
       </c>
       <c r="B141">
-        <v>1069894.939816959</v>
+        <v>101752.81</v>
       </c>
       <c r="C141" s="1">
-        <v>0.006158384918392157</v>
+        <v>0.002522147984537648</v>
       </c>
       <c r="D141" s="1">
-        <v>0.06989493981695949</v>
+        <v>0.01752809999999982</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2478,13 +2478,13 @@
         <v>37945</v>
       </c>
       <c r="B142">
-        <v>1061424.051274329</v>
+        <v>101485.06</v>
       </c>
       <c r="C142" s="1">
-        <v>-0.007917495659974572</v>
+        <v>-0.002631376961481413</v>
       </c>
       <c r="D142" s="1">
-        <v>0.06142405127433004</v>
+        <v>0.01485059999999994</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2492,13 +2492,13 @@
         <v>37946</v>
       </c>
       <c r="B143">
-        <v>1058710.980230898</v>
+        <v>101536.51</v>
       </c>
       <c r="C143" s="1">
-        <v>-0.002556067049897748</v>
+        <v>0.0005069711738852067</v>
       </c>
       <c r="D143" s="1">
-        <v>0.05871098023089871</v>
+        <v>0.01536510000000013</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2506,13 +2506,13 @@
         <v>37947</v>
       </c>
       <c r="B144">
-        <v>1060724.53984431</v>
+        <v>101536.51</v>
       </c>
       <c r="C144" s="1">
-        <v>0.001901897355379045</v>
+        <v>0</v>
       </c>
       <c r="D144" s="1">
-        <v>0.06072453984431059</v>
+        <v>0.01536510000000013</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2520,13 +2520,13 @@
         <v>37948</v>
       </c>
       <c r="B145">
-        <v>1059948.200748916</v>
+        <v>101536.51</v>
       </c>
       <c r="C145" s="1">
-        <v>-0.0007318951021039188</v>
+        <v>0</v>
       </c>
       <c r="D145" s="1">
-        <v>0.05994820074891716</v>
+        <v>0.01536510000000013</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2534,13 +2534,13 @@
         <v>37949</v>
       </c>
       <c r="B146">
-        <v>1073693.009251084</v>
+        <v>102050.59</v>
       </c>
       <c r="C146" s="1">
-        <v>0.01296743415617496</v>
+        <v>0.005063006400357839</v>
       </c>
       <c r="D146" s="1">
-        <v>0.0736930092510848</v>
+        <v>0.02050590000000008</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2548,13 +2548,13 @@
         <v>37950</v>
       </c>
       <c r="B147">
-        <v>1076199.636219297</v>
+        <v>102109.39</v>
       </c>
       <c r="C147" s="1">
-        <v>0.002334584417161611</v>
+        <v>0.000576184811866387</v>
       </c>
       <c r="D147" s="1">
-        <v>0.07619963621929782</v>
+        <v>0.02109390000000011</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2562,13 +2562,13 @@
         <v>37951</v>
       </c>
       <c r="B148">
-        <v>1081119.001419113</v>
+        <v>102254.5</v>
       </c>
       <c r="C148" s="1">
-        <v>0.004571052650694352</v>
+        <v>0.001421122974096578</v>
       </c>
       <c r="D148" s="1">
-        <v>0.08111900141911432</v>
+        <v>0.02254500000000004</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2576,13 +2576,13 @@
         <v>37952</v>
       </c>
       <c r="B149">
-        <v>1082296.336617786</v>
+        <v>102254.5</v>
       </c>
       <c r="C149" s="1">
-        <v>0.001088996860778124</v>
+        <v>0</v>
       </c>
       <c r="D149" s="1">
-        <v>0.08229633661778735</v>
+        <v>0.02254500000000004</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2590,13 +2590,13 @@
         <v>37953</v>
       </c>
       <c r="B150">
-        <v>1081261.863960943</v>
+        <v>102247.57</v>
       </c>
       <c r="C150" s="1">
-        <v>-0.0009558127675789452</v>
+        <v>-6.777207849040234E-05</v>
       </c>
       <c r="D150" s="1">
-        <v>0.08126186396094415</v>
+        <v>0.02247569999999999</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2604,13 +2604,13 @@
         <v>37954</v>
       </c>
       <c r="B151">
-        <v>1080915.936039057</v>
+        <v>102247.57</v>
       </c>
       <c r="C151" s="1">
-        <v>-0.0003199298277464235</v>
+        <v>0</v>
       </c>
       <c r="D151" s="1">
-        <v>0.08091593603905833</v>
+        <v>0.02247569999999999</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2618,13 +2618,13 @@
         <v>37955</v>
       </c>
       <c r="B152">
-        <v>1081261.863960943</v>
+        <v>102247.57</v>
       </c>
       <c r="C152" s="1">
-        <v>0.0003200322155980651</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
-        <v>0.08126186396094415</v>
+        <v>0.02247569999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2632,13 +2632,13 @@
         <v>37956</v>
       </c>
       <c r="B153">
-        <v>1091316.296039057</v>
+        <v>102613.6</v>
       </c>
       <c r="C153" s="1">
-        <v>0.009298794689088785</v>
+        <v>0.003579840577140336</v>
       </c>
       <c r="D153" s="1">
-        <v>0.09131629603905833</v>
+        <v>0.02613599999999994</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2646,13 +2646,13 @@
         <v>37957</v>
       </c>
       <c r="B154">
-        <v>1092615.256080549</v>
+        <v>102512</v>
       </c>
       <c r="C154" s="1">
-        <v>0.00119026907799924</v>
+        <v>-0.0009901221670421956</v>
       </c>
       <c r="D154" s="1">
-        <v>0.09261525608055021</v>
+        <v>0.02512000000000003</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2660,13 +2660,13 @@
         <v>37958</v>
       </c>
       <c r="B155">
-        <v>1091762.420373358</v>
+        <v>102470.06</v>
       </c>
       <c r="C155" s="1">
-        <v>-0.0007805453039807508</v>
+        <v>-0.0004091228343998665</v>
       </c>
       <c r="D155" s="1">
-        <v>0.09176242037335891</v>
+        <v>0.02470060000000007</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2674,13 +2674,13 @@
         <v>37959</v>
       </c>
       <c r="B156">
-        <v>1092721.349626642</v>
+        <v>102602.9</v>
       </c>
       <c r="C156" s="1">
-        <v>0.000878331434925661</v>
+        <v>0.001296378669047193</v>
       </c>
       <c r="D156" s="1">
-        <v>0.09272134962664325</v>
+        <v>0.02602899999999986</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2688,13 +2688,13 @@
         <v>37960</v>
       </c>
       <c r="B157">
-        <v>1090703.450373358</v>
+        <v>102387.8</v>
       </c>
       <c r="C157" s="1">
-        <v>-0.001846673220005979</v>
+        <v>-0.002096431972195667</v>
       </c>
       <c r="D157" s="1">
-        <v>0.09070345037335903</v>
+        <v>0.02387799999999984</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2702,13 +2702,13 @@
         <v>37961</v>
       </c>
       <c r="B158">
-        <v>1089716.745244939</v>
+        <v>102387.8</v>
       </c>
       <c r="C158" s="1">
-        <v>-0.0009046502310791071</v>
+        <v>0</v>
       </c>
       <c r="D158" s="1">
-        <v>0.08971674524493989</v>
+        <v>0.02387799999999984</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2716,13 +2716,13 @@
         <v>37962</v>
       </c>
       <c r="B159">
-        <v>1090086.994755061</v>
+        <v>102387.8</v>
       </c>
       <c r="C159" s="1">
-        <v>0.0003397667437323726</v>
+        <v>0</v>
       </c>
       <c r="D159" s="1">
-        <v>0.09008699475506243</v>
+        <v>0.02387799999999984</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2730,13 +2730,13 @@
         <v>37963</v>
       </c>
       <c r="B160">
-        <v>1096091.015244939</v>
+        <v>102593.72</v>
       </c>
       <c r="C160" s="1">
-        <v>0.005507836089014839</v>
+        <v>0.00201117711289811</v>
       </c>
       <c r="D160" s="1">
-        <v>0.09609101524494013</v>
+        <v>0.02593719999999977</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2744,13 +2744,13 @@
         <v>37964</v>
       </c>
       <c r="B161">
-        <v>1090735.568996618</v>
+        <v>102354.68</v>
       </c>
       <c r="C161" s="1">
-        <v>-0.004885950321492749</v>
+        <v>-0.0023299671753787</v>
       </c>
       <c r="D161" s="1">
-        <v>0.09073556899661872</v>
+        <v>0.02354679999999987</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2758,13 +2758,13 @@
         <v>37965</v>
       </c>
       <c r="B162">
-        <v>1085171.781003382</v>
+        <v>102330.02</v>
       </c>
       <c r="C162" s="1">
-        <v>-0.005100950359905765</v>
+        <v>-0.000240926941494024</v>
       </c>
       <c r="D162" s="1">
-        <v>0.08517178100338341</v>
+        <v>0.02330019999999977</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2772,13 +2772,13 @@
         <v>37966</v>
       </c>
       <c r="B163">
-        <v>1096230.938996618</v>
+        <v>102652.58</v>
       </c>
       <c r="C163" s="1">
-        <v>0.01019115884400335</v>
+        <v>0.003152154177239463</v>
       </c>
       <c r="D163" s="1">
-        <v>0.09623093899661894</v>
+        <v>0.02652579999999971</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2786,13 +2786,13 @@
         <v>37967</v>
       </c>
       <c r="B164">
-        <v>1098190.604028862</v>
+        <v>102729.44</v>
       </c>
       <c r="C164" s="1">
-        <v>0.001787638865618613</v>
+        <v>0.0007487390964746599</v>
       </c>
       <c r="D164" s="1">
-        <v>0.09819060402886293</v>
+        <v>0.02729439999999972</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2800,13 +2800,13 @@
         <v>37968</v>
       </c>
       <c r="B165">
-        <v>1097762.095971139</v>
+        <v>102729.44</v>
       </c>
       <c r="C165" s="1">
-        <v>-0.000390194612985062</v>
+        <v>0</v>
       </c>
       <c r="D165" s="1">
-        <v>0.09776209597114005</v>
+        <v>0.02729439999999972</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2814,13 +2814,13 @@
         <v>37969</v>
       </c>
       <c r="B166">
-        <v>1098190.604028862</v>
+        <v>102729.44</v>
       </c>
       <c r="C166" s="1">
-        <v>0.0003903469242521052</v>
+        <v>0</v>
       </c>
       <c r="D166" s="1">
-        <v>0.09819060402886293</v>
+        <v>0.02729439999999972</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2828,13 +2828,13 @@
         <v>37970</v>
       </c>
       <c r="B167">
-        <v>1094614.555971139</v>
+        <v>102570.32</v>
       </c>
       <c r="C167" s="1">
-        <v>-0.00325630910026331</v>
+        <v>-0.001548923074047637</v>
       </c>
       <c r="D167" s="1">
-        <v>0.09461455597113999</v>
+        <v>0.0257031999999997</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2842,13 +2842,13 @@
         <v>37971</v>
       </c>
       <c r="B168">
-        <v>1101597.113991753</v>
+        <v>102756.8</v>
       </c>
       <c r="C168" s="1">
-        <v>0.006379010750884762</v>
+        <v>0.001818069788609433</v>
       </c>
       <c r="D168" s="1">
-        <v>0.1015971139917549</v>
+        <v>0.02756799999999981</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2856,13 +2856,13 @@
         <v>37972</v>
       </c>
       <c r="B169">
-        <v>1104247.472698685</v>
+        <v>102795.14</v>
       </c>
       <c r="C169" s="1">
-        <v>0.002405923793070919</v>
+        <v>0.0003731139934290972</v>
       </c>
       <c r="D169" s="1">
-        <v>0.104247472698686</v>
+        <v>0.02795139999999985</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2870,13 +2870,13 @@
         <v>37973</v>
       </c>
       <c r="B170">
-        <v>1113172.034382187</v>
+        <v>103132.64</v>
       </c>
       <c r="C170" s="1">
-        <v>0.008082030436249443</v>
+        <v>0.003283229148770994</v>
       </c>
       <c r="D170" s="1">
-        <v>0.1131720343821883</v>
+        <v>0.03132639999999975</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2884,13 +2884,13 @@
         <v>37974</v>
       </c>
       <c r="B171">
-        <v>1114378.775467559</v>
+        <v>103119.86</v>
       </c>
       <c r="C171" s="1">
-        <v>0.001084056235783892</v>
+        <v>-0.0001239180922741889</v>
       </c>
       <c r="D171" s="1">
-        <v>0.1143787754675605</v>
+        <v>0.03119859999999974</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2898,13 +2898,13 @@
         <v>37975</v>
       </c>
       <c r="B172">
-        <v>1113744.490101812</v>
+        <v>103119.86</v>
       </c>
       <c r="C172" s="1">
-        <v>-0.0005691829203057219</v>
+        <v>0</v>
       </c>
       <c r="D172" s="1">
-        <v>0.1137444901018132</v>
+        <v>0.03119859999999974</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2912,13 +2912,13 @@
         <v>37976</v>
       </c>
       <c r="B173">
-        <v>1113546.309898189</v>
+        <v>103119.86</v>
       </c>
       <c r="C173" s="1">
-        <v>-0.0001779404570657617</v>
+        <v>0</v>
       </c>
       <c r="D173" s="1">
-        <v>0.1135463098981899</v>
+        <v>0.03119859999999974</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2926,13 +2926,13 @@
         <v>37977</v>
       </c>
       <c r="B174">
-        <v>1116362.600101812</v>
+        <v>103232.18</v>
       </c>
       <c r="C174" s="1">
-        <v>0.00252911816831447</v>
+        <v>0.001089217925625663</v>
       </c>
       <c r="D174" s="1">
-        <v>0.116362600101813</v>
+        <v>0.03232179999999985</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2940,13 +2940,13 @@
         <v>37978</v>
       </c>
       <c r="B175">
-        <v>1120267.337516302</v>
+        <v>103313.18</v>
       </c>
       <c r="C175" s="1">
-        <v>0.00349773220110916</v>
+        <v>0.0007846390534425041</v>
       </c>
       <c r="D175" s="1">
-        <v>0.120267337516303</v>
+        <v>0.03313179999999982</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2954,13 +2954,13 @@
         <v>37979</v>
       </c>
       <c r="B176">
-        <v>1119759.512100533</v>
+        <v>103261.34</v>
       </c>
       <c r="C176" s="1">
-        <v>-0.0004533073479534577</v>
+        <v>-0.0005017752817211285</v>
       </c>
       <c r="D176" s="1">
-        <v>0.1197595121005346</v>
+        <v>0.03261339999999979</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2968,13 +2968,13 @@
         <v>37980</v>
       </c>
       <c r="B177">
-        <v>1121141.690969244</v>
+        <v>103261.34</v>
       </c>
       <c r="C177" s="1">
-        <v>0.001234353317631998</v>
+        <v>0</v>
       </c>
       <c r="D177" s="1">
-        <v>0.121141690969246</v>
+        <v>0.03261339999999979</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2982,13 +2982,13 @@
         <v>37981</v>
       </c>
       <c r="B178">
-        <v>1120618.329030756</v>
+        <v>103309.94</v>
       </c>
       <c r="C178" s="1">
-        <v>-0.0004668115927757288</v>
+        <v>0.000470650487394364</v>
       </c>
       <c r="D178" s="1">
-        <v>0.1206183290307574</v>
+        <v>0.03309939999999978</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2996,13 +2996,13 @@
         <v>37982</v>
       </c>
       <c r="B179">
-        <v>1122186.990969244</v>
+        <v>103309.94</v>
       </c>
       <c r="C179" s="1">
-        <v>0.001399818205584324</v>
+        <v>0</v>
       </c>
       <c r="D179" s="1">
-        <v>0.1221869909692461</v>
+        <v>0.03309939999999978</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3010,13 +3010,13 @@
         <v>37983</v>
       </c>
       <c r="B180">
-        <v>1120618.329030755</v>
+        <v>103309.94</v>
       </c>
       <c r="C180" s="1">
-        <v>-0.001397861453672822</v>
+        <v>0</v>
       </c>
       <c r="D180" s="1">
-        <v>0.1206183290307572</v>
+        <v>0.03309939999999978</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3024,13 +3024,13 @@
         <v>37984</v>
       </c>
       <c r="B181">
-        <v>1132474.900969245</v>
+        <v>103677.32</v>
       </c>
       <c r="C181" s="1">
-        <v>0.01058038373220649</v>
+        <v>0.003556095376688884</v>
       </c>
       <c r="D181" s="1">
-        <v>0.1324749009692467</v>
+        <v>0.03677319999999984</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3038,13 +3038,13 @@
         <v>37985</v>
       </c>
       <c r="B182">
-        <v>1136546.259815512</v>
+        <v>103684.63</v>
       </c>
       <c r="C182" s="1">
-        <v>0.003595098525170926</v>
+        <v>7.05072237592308E-05</v>
       </c>
       <c r="D182" s="1">
-        <v>0.1365462598155143</v>
+        <v>0.03684629999999989</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3052,13 +3052,13 @@
         <v>37986</v>
       </c>
       <c r="B183">
-        <v>1136596.54029749</v>
+        <v>103741.58</v>
       </c>
       <c r="C183" s="1">
-        <v>4.423971443556773E-05</v>
+        <v>0.0005492617372506725</v>
       </c>
       <c r="D183" s="1">
-        <v>0.1365965402974914</v>
+        <v>0.03741579999999978</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3066,13 +3066,13 @@
         <v>37987</v>
       </c>
       <c r="B184">
-        <v>1139078.721791757</v>
+        <v>103741.58</v>
       </c>
       <c r="C184" s="1">
-        <v>0.002183872118437069</v>
+        <v>0</v>
       </c>
       <c r="D184" s="1">
-        <v>0.1390787217917591</v>
+        <v>0.03741579999999978</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3080,13 +3080,13 @@
         <v>37988</v>
       </c>
       <c r="B185">
-        <v>1138629.890397098</v>
+        <v>103658.45</v>
       </c>
       <c r="C185" s="1">
-        <v>-0.0003940301807702218</v>
+        <v>-0.0008013180443173784</v>
       </c>
       <c r="D185" s="1">
-        <v>0.1386298903970999</v>
+        <v>0.0365844999999998</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3094,13 +3094,13 @@
         <v>37989</v>
       </c>
       <c r="B186">
-        <v>1137010.037940965</v>
+        <v>103658.45</v>
       </c>
       <c r="C186" s="1">
-        <v>-0.001422632999356743</v>
+        <v>0</v>
       </c>
       <c r="D186" s="1">
-        <v>0.1370100379409671</v>
+        <v>0.0365844999999998</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3108,13 +3108,13 @@
         <v>37990</v>
       </c>
       <c r="B187">
-        <v>1138343.262059035</v>
+        <v>103658.45</v>
       </c>
       <c r="C187" s="1">
-        <v>0.001172570226806391</v>
+        <v>0</v>
       </c>
       <c r="D187" s="1">
-        <v>0.1383432620590368</v>
+        <v>0.0365844999999998</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3122,13 +3122,13 @@
         <v>37991</v>
       </c>
       <c r="B188">
-        <v>1142792.707940965</v>
+        <v>104019.35</v>
       </c>
       <c r="C188" s="1">
-        <v>0.003908703139229308</v>
+        <v>0.003481626437593865</v>
       </c>
       <c r="D188" s="1">
-        <v>0.1427927079409674</v>
+        <v>0.04019349999999977</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3136,13 +3136,13 @@
         <v>37992</v>
       </c>
       <c r="B189">
-        <v>1144939.701896152</v>
+        <v>104059.13</v>
       </c>
       <c r="C189" s="1">
-        <v>0.001878725634376188</v>
+        <v>0.0003824288461713454</v>
       </c>
       <c r="D189" s="1">
-        <v>0.1449397018961542</v>
+        <v>0.04059129999999977</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3150,13 +3150,13 @@
         <v>37993</v>
       </c>
       <c r="B190">
-        <v>1150036.549560676</v>
+        <v>104136.35</v>
       </c>
       <c r="C190" s="1">
-        <v>0.004451629772364907</v>
+        <v>0.0007420780857960718</v>
       </c>
       <c r="D190" s="1">
-        <v>0.1500365495606777</v>
+        <v>0.04136349999999989</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3164,13 +3164,13 @@
         <v>37994</v>
       </c>
       <c r="B191">
-        <v>1150644.889804902</v>
+        <v>104284.49</v>
       </c>
       <c r="C191" s="1">
-        <v>0.0005289747047241278</v>
+        <v>0.001422558021286546</v>
       </c>
       <c r="D191" s="1">
-        <v>0.1506448898049035</v>
+        <v>0.04284489999999996</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3178,13 +3178,13 @@
         <v>37995</v>
       </c>
       <c r="B192">
-        <v>1143679.69026411</v>
+        <v>104020.0700000001</v>
       </c>
       <c r="C192" s="1">
-        <v>-0.006053300720757382</v>
+        <v>-0.002535564013402158</v>
       </c>
       <c r="D192" s="1">
-        <v>0.1436796902641118</v>
+        <v>0.04020069999999998</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3192,13 +3192,13 @@
         <v>37996</v>
       </c>
       <c r="B193">
-        <v>1145375.646175269</v>
+        <v>104020.0700000001</v>
       </c>
       <c r="C193" s="1">
-        <v>0.001482894140375723</v>
+        <v>0</v>
       </c>
       <c r="D193" s="1">
-        <v>0.1453756461752711</v>
+        <v>0.04020069999999998</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3206,13 +3206,13 @@
         <v>37997</v>
       </c>
       <c r="B194">
-        <v>1142861.173824731</v>
+        <v>104020.0700000001</v>
       </c>
       <c r="C194" s="1">
-        <v>-0.002195325489008804</v>
+        <v>0</v>
       </c>
       <c r="D194" s="1">
-        <v>0.1428611738247325</v>
+        <v>0.04020069999999998</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3220,13 +3220,13 @@
         <v>37998</v>
       </c>
       <c r="B195">
-        <v>1145485.756175269</v>
+        <v>104162.0900000001</v>
       </c>
       <c r="C195" s="1">
-        <v>0.002296501456738653</v>
+        <v>0.001365313443838279</v>
       </c>
       <c r="D195" s="1">
-        <v>0.1454857561752712</v>
+        <v>0.04162090000000007</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3234,13 +3234,13 @@
         <v>37999</v>
       </c>
       <c r="B196">
-        <v>1142650.380677311</v>
+        <v>104005.49</v>
       </c>
       <c r="C196" s="1">
-        <v>-0.002475260371132992</v>
+        <v>-0.001503426054527135</v>
       </c>
       <c r="D196" s="1">
-        <v>0.1426503806773132</v>
+        <v>0.04005490000000012</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3248,13 +3248,13 @@
         <v>38000</v>
       </c>
       <c r="B197">
-        <v>1151296.947672192</v>
+        <v>104250.83</v>
       </c>
       <c r="C197" s="1">
-        <v>0.007567115139589298</v>
+        <v>0.002358913938100837</v>
       </c>
       <c r="D197" s="1">
-        <v>0.1512969476721939</v>
+        <v>0.04250830000000017</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3262,13 +3262,13 @@
         <v>38001</v>
       </c>
       <c r="B198">
-        <v>1150782.192843822</v>
+        <v>104291.33</v>
       </c>
       <c r="C198" s="1">
-        <v>-0.0004471086537760627</v>
+        <v>0.0003884861156500108</v>
       </c>
       <c r="D198" s="1">
-        <v>0.1507821928438238</v>
+        <v>0.04291330000000015</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3276,13 +3276,13 @@
         <v>38002</v>
       </c>
       <c r="B199">
-        <v>1154886.285009325</v>
+        <v>104495.81</v>
       </c>
       <c r="C199" s="1">
-        <v>0.003566350079992509</v>
+        <v>0.001960661543006559</v>
       </c>
       <c r="D199" s="1">
-        <v>0.1548862850093262</v>
+        <v>0.04495810000000011</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3290,13 +3290,13 @@
         <v>38003</v>
       </c>
       <c r="B200">
-        <v>1152635.821727283</v>
+        <v>104495.81</v>
       </c>
       <c r="C200" s="1">
-        <v>-0.001948644910978237</v>
+        <v>0</v>
       </c>
       <c r="D200" s="1">
-        <v>0.1526358217272843</v>
+        <v>0.04495810000000011</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3304,13 +3304,13 @@
         <v>38004</v>
       </c>
       <c r="B201">
-        <v>1153725.038272717</v>
+        <v>104495.81</v>
       </c>
       <c r="C201" s="1">
-        <v>0.0009449789125957064</v>
+        <v>0</v>
       </c>
       <c r="D201" s="1">
-        <v>0.1537250382727191</v>
+        <v>0.04495810000000011</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3318,13 +3318,13 @@
         <v>38005</v>
       </c>
       <c r="B202">
-        <v>1152635.821727283</v>
+        <v>104495.81</v>
       </c>
       <c r="C202" s="1">
-        <v>-0.0009440867705058364</v>
+        <v>0</v>
       </c>
       <c r="D202" s="1">
-        <v>0.1526358217272845</v>
+        <v>0.04495810000000011</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3332,13 +3332,13 @@
         <v>38006</v>
       </c>
       <c r="B203">
-        <v>1154014.868272717</v>
+        <v>104468.0900000001</v>
       </c>
       <c r="C203" s="1">
-        <v>0.00119642867195302</v>
+        <v>-0.0002652737942314687</v>
       </c>
       <c r="D203" s="1">
-        <v>0.1540148682727192</v>
+        <v>0.04468090000000013</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3346,13 +3346,13 @@
         <v>38007</v>
       </c>
       <c r="B204">
-        <v>1166123.251195961</v>
+        <v>104702.81</v>
       </c>
       <c r="C204" s="1">
-        <v>0.01049239767713517</v>
+        <v>0.002246810485383444</v>
       </c>
       <c r="D204" s="1">
-        <v>0.1661232511959634</v>
+        <v>0.04702809999999991</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3360,13 +3360,13 @@
         <v>38008</v>
       </c>
       <c r="B205">
-        <v>1166520.386972448</v>
+        <v>104606.69</v>
       </c>
       <c r="C205" s="1">
-        <v>0.000340560722101424</v>
+        <v>-0.0009180269373858518</v>
       </c>
       <c r="D205" s="1">
-        <v>0.1665203869724499</v>
+        <v>0.04606690000000002</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3374,13 +3374,13 @@
         <v>38009</v>
       </c>
       <c r="B206">
-        <v>1161475.103027552</v>
+        <v>104544.23</v>
       </c>
       <c r="C206" s="1">
-        <v>-0.004325071384298607</v>
+        <v>-0.000597093742283672</v>
       </c>
       <c r="D206" s="1">
-        <v>0.1614751030275543</v>
+        <v>0.04544229999999994</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3388,13 +3388,13 @@
         <v>38010</v>
       </c>
       <c r="B207">
-        <v>1161982.636972448</v>
+        <v>104544.23</v>
       </c>
       <c r="C207" s="1">
-        <v>0.0004369735895091154</v>
+        <v>0</v>
       </c>
       <c r="D207" s="1">
-        <v>0.1619826369724497</v>
+        <v>0.04544229999999994</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3402,13 +3402,13 @@
         <v>38011</v>
       </c>
       <c r="B208">
-        <v>1161475.103027552</v>
+        <v>104544.23</v>
       </c>
       <c r="C208" s="1">
-        <v>-0.0004367827269931013</v>
+        <v>0</v>
       </c>
       <c r="D208" s="1">
-        <v>0.1614751030275543</v>
+        <v>0.04544229999999994</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3416,13 +3416,13 @@
         <v>38012</v>
       </c>
       <c r="B209">
-        <v>1170898.146972448</v>
+        <v>104907.47</v>
       </c>
       <c r="C209" s="1">
-        <v>0.008112996929794392</v>
+        <v>0.003474510262307273</v>
       </c>
       <c r="D209" s="1">
-        <v>0.1708981469724495</v>
+        <v>0.04907470000000003</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3430,13 +3430,13 @@
         <v>38013</v>
       </c>
       <c r="B210">
-        <v>1166349.306500724</v>
+        <v>104609.9300000001</v>
       </c>
       <c r="C210" s="1">
-        <v>-0.003884915595336436</v>
+        <v>-0.002836213665242227</v>
       </c>
       <c r="D210" s="1">
-        <v>0.1663493065007258</v>
+        <v>0.04609930000000007</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3444,13 +3444,13 @@
         <v>38014</v>
       </c>
       <c r="B211">
-        <v>1157241.485160277</v>
+        <v>104205.47</v>
       </c>
       <c r="C211" s="1">
-        <v>-0.007808828186962713</v>
+        <v>-0.003866363355754188</v>
       </c>
       <c r="D211" s="1">
-        <v>0.1572414851602786</v>
+        <v>0.0420547</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3458,13 +3458,13 @@
         <v>38015</v>
       </c>
       <c r="B212">
-        <v>1166793.090357469</v>
+        <v>104361.17</v>
       </c>
       <c r="C212" s="1">
-        <v>0.008253770124625026</v>
+        <v>0.001494163406201121</v>
       </c>
       <c r="D212" s="1">
-        <v>0.1667930903574713</v>
+        <v>0.04361169999999981</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3472,13 +3472,13 @@
         <v>38016</v>
       </c>
       <c r="B213">
-        <v>1162412.245622976</v>
+        <v>104282.69</v>
       </c>
       <c r="C213" s="1">
-        <v>-0.003754602911773319</v>
+        <v>-0.0007520038343762359</v>
       </c>
       <c r="D213" s="1">
-        <v>0.1624122456229782</v>
+        <v>0.04282689999999989</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3486,13 +3486,13 @@
         <v>38017</v>
       </c>
       <c r="B214">
-        <v>1161082.894377024</v>
+        <v>104282.69</v>
       </c>
       <c r="C214" s="1">
-        <v>-0.001143614282245742</v>
+        <v>0</v>
       </c>
       <c r="D214" s="1">
-        <v>0.1610828943770264</v>
+        <v>0.04282689999999989</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3500,13 +3500,13 @@
         <v>38018</v>
       </c>
       <c r="B215">
-        <v>1161179.525622976</v>
+        <v>104282.69</v>
       </c>
       <c r="C215" s="1">
-        <v>8.322510513214532E-05</v>
+        <v>0</v>
       </c>
       <c r="D215" s="1">
-        <v>0.161179525622978</v>
+        <v>0.04282689999999989</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3514,13 +3514,13 @@
         <v>38019</v>
       </c>
       <c r="B216">
-        <v>1167357.284377024</v>
+        <v>104391.77</v>
       </c>
       <c r="C216" s="1">
-        <v>0.005320244301357357</v>
+        <v>0.001046002936824886</v>
       </c>
       <c r="D216" s="1">
-        <v>0.1673572843770266</v>
+        <v>0.04391769999999995</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3528,13 +3528,13 @@
         <v>38020</v>
       </c>
       <c r="B217">
-        <v>1170570.394117349</v>
+        <v>104414.3700000001</v>
       </c>
       <c r="C217" s="1">
-        <v>0.002752464719522285</v>
+        <v>0.0002164921621694571</v>
       </c>
       <c r="D217" s="1">
-        <v>0.1705703941173518</v>
+        <v>0.04414370000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3542,13 +3542,13 @@
         <v>38021</v>
       </c>
       <c r="B218">
-        <v>1167468.957594964</v>
+        <v>104141.7700000001</v>
       </c>
       <c r="C218" s="1">
-        <v>-0.002649508767666564</v>
+        <v>-0.002610751757636365</v>
       </c>
       <c r="D218" s="1">
-        <v>0.1674689575949668</v>
+        <v>0.0414177</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3556,13 +3556,13 @@
         <v>38022</v>
       </c>
       <c r="B219">
-        <v>1167473.744016873</v>
+        <v>104202.9700000001</v>
       </c>
       <c r="C219" s="1">
-        <v>4.099827988879312E-06</v>
+        <v>0.000587660455550143</v>
       </c>
       <c r="D219" s="1">
-        <v>0.1674737440168754</v>
+        <v>0.04202970000000006</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3570,13 +3570,13 @@
         <v>38023</v>
       </c>
       <c r="B220">
-        <v>1175941.245234112</v>
+        <v>104618.7700000001</v>
       </c>
       <c r="C220" s="1">
-        <v>0.007252840811738936</v>
+        <v>0.003990289336282871</v>
       </c>
       <c r="D220" s="1">
-        <v>0.1759412452341147</v>
+        <v>0.04618770000000016</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3584,13 +3584,13 @@
         <v>38024</v>
       </c>
       <c r="B221">
-        <v>1177943.571981421</v>
+        <v>104618.7700000001</v>
       </c>
       <c r="C221" s="1">
-        <v>0.001702743870430234</v>
+        <v>0</v>
       </c>
       <c r="D221" s="1">
-        <v>0.1779435719814231</v>
+        <v>0.04618770000000016</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3598,13 +3598,13 @@
         <v>38025</v>
       </c>
       <c r="B222">
-        <v>1176644.284403167</v>
+        <v>104618.7700000001</v>
       </c>
       <c r="C222" s="1">
-        <v>-0.001103013428791044</v>
+        <v>0</v>
       </c>
       <c r="D222" s="1">
-        <v>0.1766442844031695</v>
+        <v>0.04618770000000016</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3612,13 +3612,13 @@
         <v>38026</v>
       </c>
       <c r="B223">
-        <v>1174323.235596833</v>
+        <v>104539.1700000001</v>
       </c>
       <c r="C223" s="1">
-        <v>-0.001972600247245881</v>
+        <v>-0.000760857731361142</v>
       </c>
       <c r="D223" s="1">
-        <v>0.1743232355968354</v>
+        <v>0.04539170000000015</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3626,13 +3626,13 @@
         <v>38027</v>
       </c>
       <c r="B224">
-        <v>1183067.842497666</v>
+        <v>104706.9700000001</v>
       </c>
       <c r="C224" s="1">
-        <v>0.007446507601791774</v>
+        <v>0.001605139968109404</v>
       </c>
       <c r="D224" s="1">
-        <v>0.1830678424976679</v>
+        <v>0.04706969999999999</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3640,13 +3640,13 @@
         <v>38028</v>
       </c>
       <c r="B225">
-        <v>1191210.255425081</v>
+        <v>105076.5700000001</v>
       </c>
       <c r="C225" s="1">
-        <v>0.006882456470310938</v>
+        <v>0.003529850973626791</v>
       </c>
       <c r="D225" s="1">
-        <v>0.1912102554250827</v>
+        <v>0.05076570000000014</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3654,13 +3654,13 @@
         <v>38029</v>
       </c>
       <c r="B226">
-        <v>1190269.800662492</v>
+        <v>104914.3700000001</v>
       </c>
       <c r="C226" s="1">
-        <v>-0.0007894951863497424</v>
+        <v>-0.001543636226420508</v>
       </c>
       <c r="D226" s="1">
-        <v>0.1902698006624941</v>
+        <v>0.04914370000000012</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3668,13 +3668,13 @@
         <v>38030</v>
       </c>
       <c r="B227">
-        <v>1184704.62594332</v>
+        <v>104733.1700000001</v>
       </c>
       <c r="C227" s="1">
-        <v>-0.004675557353529647</v>
+        <v>-0.001727122795475933</v>
       </c>
       <c r="D227" s="1">
-        <v>0.1847046259433223</v>
+        <v>0.0473317000000002</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3682,13 +3682,13 @@
         <v>38031</v>
       </c>
       <c r="B228">
-        <v>1183382.39405668</v>
+        <v>104733.1700000001</v>
       </c>
       <c r="C228" s="1">
-        <v>-0.001116085695696323</v>
+        <v>0</v>
       </c>
       <c r="D228" s="1">
-        <v>0.1833823940566817</v>
+        <v>0.0473317000000002</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3696,13 +3696,13 @@
         <v>38032</v>
       </c>
       <c r="B229">
-        <v>1184704.62594332</v>
+        <v>104733.1700000001</v>
       </c>
       <c r="C229" s="1">
-        <v>0.001117332734779097</v>
+        <v>0</v>
       </c>
       <c r="D229" s="1">
-        <v>0.1847046259433225</v>
+        <v>0.0473317000000002</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3710,13 +3710,13 @@
         <v>38033</v>
       </c>
       <c r="B230">
-        <v>1183382.39405668</v>
+        <v>104733.1700000001</v>
       </c>
       <c r="C230" s="1">
-        <v>-0.001116085695696323</v>
+        <v>0</v>
       </c>
       <c r="D230" s="1">
-        <v>0.1833823940566819</v>
+        <v>0.0473317000000002</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3724,13 +3724,13 @@
         <v>38034</v>
       </c>
       <c r="B231">
-        <v>1192611.31594332</v>
+        <v>105060.3700000001</v>
       </c>
       <c r="C231" s="1">
-        <v>0.007798765583290068</v>
+        <v>0.003124129633429451</v>
       </c>
       <c r="D231" s="1">
-        <v>0.1926113159433225</v>
+        <v>0.05060370000000014</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3738,13 +3738,13 @@
         <v>38035</v>
       </c>
       <c r="B232">
-        <v>1190138.868321223</v>
+        <v>104913.9700000001</v>
       </c>
       <c r="C232" s="1">
-        <v>-0.002073137818704329</v>
+        <v>-0.001393484527039024</v>
       </c>
       <c r="D232" s="1">
-        <v>0.1901388683212257</v>
+        <v>0.04913970000000023</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3752,13 +3752,13 @@
         <v>38036</v>
       </c>
       <c r="B233">
-        <v>1188221.567436151</v>
+        <v>104776.1700000001</v>
       </c>
       <c r="C233" s="1">
-        <v>-0.00161098921823899</v>
+        <v>-0.001313457111574379</v>
       </c>
       <c r="D233" s="1">
-        <v>0.1882215674361531</v>
+        <v>0.04776170000000013</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3766,13 +3766,13 @@
         <v>38037</v>
       </c>
       <c r="B234">
-        <v>1185071.853444062</v>
+        <v>104690.1700000001</v>
       </c>
       <c r="C234" s="1">
-        <v>-0.002650780021511312</v>
+        <v>-0.0008207973244297451</v>
       </c>
       <c r="D234" s="1">
-        <v>0.1850718534440645</v>
+        <v>0.04690170000000027</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3780,13 +3780,13 @@
         <v>38038</v>
       </c>
       <c r="B235">
-        <v>1184210.962589157</v>
+        <v>104690.1700000001</v>
       </c>
       <c r="C235" s="1">
-        <v>-0.0007264461242613152</v>
+        <v>0</v>
       </c>
       <c r="D235" s="1">
-        <v>0.1842109625891588</v>
+        <v>0.04690170000000027</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3794,13 +3794,13 @@
         <v>38039</v>
       </c>
       <c r="B236">
-        <v>1185042.437410843</v>
+        <v>104690.1700000001</v>
       </c>
       <c r="C236" s="1">
-        <v>0.0007021340351964778</v>
+        <v>0</v>
       </c>
       <c r="D236" s="1">
-        <v>0.1850424374108455</v>
+        <v>0.04690170000000027</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3808,13 +3808,13 @@
         <v>38040</v>
       </c>
       <c r="B237">
-        <v>1182857.662589157</v>
+        <v>104599.9700000001</v>
       </c>
       <c r="C237" s="1">
-        <v>-0.001843625808422567</v>
+        <v>-0.0008615899658964699</v>
       </c>
       <c r="D237" s="1">
-        <v>0.1828576625891589</v>
+        <v>0.04599970000000031</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3822,13 +3822,13 @@
         <v>38041</v>
       </c>
       <c r="B238">
-        <v>1181602.966757292</v>
+        <v>104544.3700000001</v>
       </c>
       <c r="C238" s="1">
-        <v>-0.001060732725117974</v>
+        <v>-0.0005315489096221482</v>
       </c>
       <c r="D238" s="1">
-        <v>0.181602966757294</v>
+        <v>0.04544370000000031</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3836,13 +3836,13 @@
         <v>38042</v>
       </c>
       <c r="B239">
-        <v>1183932.803242708</v>
+        <v>104682.77</v>
       </c>
       <c r="C239" s="1">
-        <v>0.001971759170349641</v>
+        <v>0.001323839820355666</v>
       </c>
       <c r="D239" s="1">
-        <v>0.1839328032427101</v>
+        <v>0.04682770000000036</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3850,13 +3850,13 @@
         <v>38043</v>
       </c>
       <c r="B240">
-        <v>1185031.996757292</v>
+        <v>104728.5700000001</v>
       </c>
       <c r="C240" s="1">
-        <v>0.0009284255927137774</v>
+        <v>0.0004375123050337493</v>
       </c>
       <c r="D240" s="1">
-        <v>0.185031996757294</v>
+        <v>0.04728570000000043</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3864,13 +3864,13 @@
         <v>38044</v>
       </c>
       <c r="B241">
-        <v>1184451.093242708</v>
+        <v>104729.9700000001</v>
       </c>
       <c r="C241" s="1">
-        <v>-0.0004902007002117736</v>
+        <v>1.336788996542104E-05</v>
       </c>
       <c r="D241" s="1">
-        <v>0.1844510932427101</v>
+        <v>0.04729970000000039</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3878,13 +3878,13 @@
         <v>38045</v>
       </c>
       <c r="B242">
-        <v>1185420.500716423</v>
+        <v>104729.9700000001</v>
       </c>
       <c r="C242" s="1">
-        <v>0.000818444492343362</v>
+        <v>0</v>
       </c>
       <c r="D242" s="1">
-        <v>0.1854205007164247</v>
+        <v>0.04729970000000039</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3892,13 +3892,13 @@
         <v>38046</v>
       </c>
       <c r="B243">
-        <v>1185046.740279335</v>
+        <v>104729.9700000001</v>
       </c>
       <c r="C243" s="1">
-        <v>-0.0003152977672157276</v>
+        <v>0</v>
       </c>
       <c r="D243" s="1">
-        <v>0.185046740279337</v>
+        <v>0.04729970000000039</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3906,13 +3906,13 @@
         <v>38047</v>
       </c>
       <c r="B244">
-        <v>1193178.839720665</v>
+        <v>105053.9700000001</v>
       </c>
       <c r="C244" s="1">
-        <v>0.006862260504098883</v>
+        <v>0.003093670321876241</v>
       </c>
       <c r="D244" s="1">
-        <v>0.1931788397206671</v>
+        <v>0.0505397000000003</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3920,13 +3920,13 @@
         <v>38048</v>
       </c>
       <c r="B245">
-        <v>1187534.468447924</v>
+        <v>104853.5700000001</v>
       </c>
       <c r="C245" s="1">
-        <v>-0.004730532494242268</v>
+        <v>-0.001907590926835012</v>
       </c>
       <c r="D245" s="1">
-        <v>0.1875344684479261</v>
+        <v>0.0485357000000004</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3934,13 +3934,13 @@
         <v>38049</v>
       </c>
       <c r="B246">
-        <v>1191399.08827619</v>
+        <v>104916.0800000001</v>
       </c>
       <c r="C246" s="1">
-        <v>0.003254322237329577</v>
+        <v>0.0005961647276293558</v>
       </c>
       <c r="D246" s="1">
-        <v>0.1913990882761916</v>
+        <v>0.04916080000000056</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3948,13 +3948,13 @@
         <v>38050</v>
       </c>
       <c r="B247">
-        <v>1192979.43172381</v>
+        <v>105023.6200000001</v>
       </c>
       <c r="C247" s="1">
-        <v>0.001326460178769695</v>
+        <v>0.001025009702992907</v>
       </c>
       <c r="D247" s="1">
-        <v>0.1929794317238125</v>
+        <v>0.05023620000000029</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3962,13 +3962,13 @@
         <v>38051</v>
       </c>
       <c r="B248">
-        <v>1195685.018276189</v>
+        <v>105076.36</v>
       </c>
       <c r="C248" s="1">
-        <v>0.00226792388907282</v>
+        <v>0.0005021727493299544</v>
       </c>
       <c r="D248" s="1">
-        <v>0.1956850182761913</v>
+        <v>0.05076360000000002</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3976,13 +3976,13 @@
         <v>38052</v>
       </c>
       <c r="B249">
-        <v>1196569.053049281</v>
+        <v>105076.36</v>
       </c>
       <c r="C249" s="1">
-        <v>0.000739354227558664</v>
+        <v>0</v>
       </c>
       <c r="D249" s="1">
-        <v>0.1965690530492823</v>
+        <v>0.05076360000000002</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3990,13 +3990,13 @@
         <v>38053</v>
       </c>
       <c r="B250">
-        <v>1194850.646950719</v>
+        <v>105076.36</v>
       </c>
       <c r="C250" s="1">
-        <v>-0.001436111099632709</v>
+        <v>0</v>
       </c>
       <c r="D250" s="1">
-        <v>0.1948506469507212</v>
+        <v>0.05076360000000002</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4004,13 +4004,13 @@
         <v>38054</v>
       </c>
       <c r="B251">
-        <v>1192828.663049281</v>
+        <v>104824.0000000001</v>
       </c>
       <c r="C251" s="1">
-        <v>-0.001692248237550764</v>
+        <v>-0.002401681976802239</v>
       </c>
       <c r="D251" s="1">
-        <v>0.1928286630492824</v>
+        <v>0.04824000000000028</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4018,13 +4018,13 @@
         <v>38055</v>
       </c>
       <c r="B252">
-        <v>1188895.09282334</v>
+        <v>104649.94</v>
       </c>
       <c r="C252" s="1">
-        <v>-0.003297682515345346</v>
+        <v>-0.001660497595970534</v>
       </c>
       <c r="D252" s="1">
-        <v>0.1888950928233419</v>
+        <v>0.04649940000000008</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4032,13 +4032,13 @@
         <v>38056</v>
       </c>
       <c r="B253">
-        <v>1176067.831989224</v>
+        <v>104212.9000000001</v>
       </c>
       <c r="C253" s="1">
-        <v>-0.01078922851271513</v>
+        <v>-0.00417620879667957</v>
       </c>
       <c r="D253" s="1">
-        <v>0.1760678319892253</v>
+        <v>0.04212900000000008</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4046,13 +4046,13 @@
         <v>38057</v>
       </c>
       <c r="B254">
-        <v>1160989.768514035</v>
+        <v>103770.4600000001</v>
       </c>
       <c r="C254" s="1">
-        <v>-0.01282074304309921</v>
+        <v>-0.004245539659677444</v>
       </c>
       <c r="D254" s="1">
-        <v>0.1609897685140367</v>
+        <v>0.03770460000000009</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4060,13 +4060,13 @@
         <v>38058</v>
       </c>
       <c r="B255">
-        <v>1165968.434806255</v>
+        <v>104134.24</v>
       </c>
       <c r="C255" s="1">
-        <v>0.004288294718215013</v>
+        <v>0.00350562192747339</v>
       </c>
       <c r="D255" s="1">
-        <v>0.1659684348062571</v>
+        <v>0.0413424</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4074,13 +4074,13 @@
         <v>38059</v>
       </c>
       <c r="B256">
-        <v>1170184.288202129</v>
+        <v>104134.24</v>
       </c>
       <c r="C256" s="1">
-        <v>0.003615752596745514</v>
+        <v>0</v>
       </c>
       <c r="D256" s="1">
-        <v>0.1701842882021312</v>
+        <v>0.0413424</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4088,13 +4088,13 @@
         <v>38060</v>
       </c>
       <c r="B257">
-        <v>1168872.61229526</v>
+        <v>104134.24</v>
       </c>
       <c r="C257" s="1">
-        <v>-0.001120913962094239</v>
+        <v>0</v>
       </c>
       <c r="D257" s="1">
-        <v>0.1688726122952622</v>
+        <v>0.0413424</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4102,13 +4102,13 @@
         <v>38061</v>
       </c>
       <c r="B258">
-        <v>1159483.12770474</v>
+        <v>103711.0600000001</v>
       </c>
       <c r="C258" s="1">
-        <v>-0.008032940879744488</v>
+        <v>-0.004063793042518915</v>
       </c>
       <c r="D258" s="1">
-        <v>0.1594831277047419</v>
+        <v>0.0371106000000001</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4116,13 +4116,13 @@
         <v>38062</v>
       </c>
       <c r="B259">
-        <v>1163443.086185824</v>
+        <v>103875.2200000001</v>
       </c>
       <c r="C259" s="1">
-        <v>0.003415279089850287</v>
+        <v>0.001582859147327254</v>
       </c>
       <c r="D259" s="1">
-        <v>0.1634430861858263</v>
+        <v>0.03875220000000024</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4130,13 +4130,13 @@
         <v>38063</v>
       </c>
       <c r="B260">
-        <v>1170810.893814176</v>
+        <v>104221.9000000001</v>
       </c>
       <c r="C260" s="1">
-        <v>0.006332761538431875</v>
+        <v>0.003337465855667965</v>
       </c>
       <c r="D260" s="1">
-        <v>0.1708108938141784</v>
+        <v>0.04221900000000023</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4144,13 +4144,13 @@
         <v>38064</v>
       </c>
       <c r="B261">
-        <v>1171707.939213068</v>
+        <v>104184.4600000001</v>
       </c>
       <c r="C261" s="1">
-        <v>0.0007661744553544292</v>
+        <v>-0.0003592335200183205</v>
       </c>
       <c r="D261" s="1">
-        <v>0.1717079392130694</v>
+        <v>0.04184460000000034</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4158,13 +4158,13 @@
         <v>38065</v>
       </c>
       <c r="B262">
-        <v>1162777.936311771</v>
+        <v>103853.8</v>
       </c>
       <c r="C262" s="1">
-        <v>-0.007621355631757365</v>
+        <v>-0.003173793865227204</v>
       </c>
       <c r="D262" s="1">
-        <v>0.162777936311773</v>
+        <v>0.03853800000000018</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4172,13 +4172,13 @@
         <v>38066</v>
       </c>
       <c r="B263">
-        <v>1164778.426777573</v>
+        <v>103853.8</v>
       </c>
       <c r="C263" s="1">
-        <v>0.001720440682033475</v>
+        <v>0</v>
       </c>
       <c r="D263" s="1">
-        <v>0.1647784267775747</v>
+        <v>0.03853800000000018</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4186,13 +4186,13 @@
         <v>38067</v>
       </c>
       <c r="B264">
-        <v>1164007.126564647</v>
+        <v>103853.8</v>
       </c>
       <c r="C264" s="1">
-        <v>-0.0006621862108655563</v>
+        <v>0</v>
       </c>
       <c r="D264" s="1">
-        <v>0.164007126564649</v>
+        <v>0.03853800000000018</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4200,13 +4200,13 @@
         <v>38068</v>
       </c>
       <c r="B265">
-        <v>1152783.023435353</v>
+        <v>103475.08</v>
       </c>
       <c r="C265" s="1">
-        <v>-0.009642641246037642</v>
+        <v>-0.003646664830752488</v>
       </c>
       <c r="D265" s="1">
-        <v>0.1527830234353549</v>
+        <v>0.03475080000000008</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4214,13 +4214,13 @@
         <v>38069</v>
       </c>
       <c r="B266">
-        <v>1154752.923306989</v>
+        <v>103436.74</v>
       </c>
       <c r="C266" s="1">
-        <v>0.001708821028406193</v>
+        <v>-0.0003705239947627836</v>
       </c>
       <c r="D266" s="1">
-        <v>0.1547529233069909</v>
+        <v>0.03436740000000005</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4228,13 +4228,13 @@
         <v>38070</v>
       </c>
       <c r="B267">
-        <v>1149317.946693011</v>
+        <v>103367.9800000001</v>
       </c>
       <c r="C267" s="1">
-        <v>-0.004706614293223166</v>
+        <v>-0.0006647541289487302</v>
       </c>
       <c r="D267" s="1">
-        <v>0.149317946693013</v>
+        <v>0.03367980000000004</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4242,13 +4242,13 @@
         <v>38071</v>
       </c>
       <c r="B268">
-        <v>1160212.773306989</v>
+        <v>103838.86</v>
       </c>
       <c r="C268" s="1">
-        <v>0.009479384399526891</v>
+        <v>0.004555375852367316</v>
       </c>
       <c r="D268" s="1">
-        <v>0.1602127733069911</v>
+        <v>0.03838859999999999</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4256,13 +4256,13 @@
         <v>38072</v>
       </c>
       <c r="B269">
-        <v>1163987.927578189</v>
+        <v>103809.16</v>
       </c>
       <c r="C269" s="1">
-        <v>0.003253846499586377</v>
+        <v>-0.0002860200892035314</v>
       </c>
       <c r="D269" s="1">
-        <v>0.1639879275781915</v>
+        <v>0.0380916</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4270,13 +4270,13 @@
         <v>38073</v>
       </c>
       <c r="B270">
-        <v>1163751.460767986</v>
+        <v>103809.16</v>
       </c>
       <c r="C270" s="1">
-        <v>-0.0002031522875802771</v>
+        <v>0</v>
       </c>
       <c r="D270" s="1">
-        <v>0.1637514607679882</v>
+        <v>0.0380916</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4284,13 +4284,13 @@
         <v>38074</v>
       </c>
       <c r="B271">
-        <v>1162686.419232014</v>
+        <v>103809.16</v>
       </c>
       <c r="C271" s="1">
-        <v>-0.0009151795481049385</v>
+        <v>0</v>
       </c>
       <c r="D271" s="1">
-        <v>0.1626864192320161</v>
+        <v>0.0380916</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4298,13 +4298,13 @@
         <v>38075</v>
       </c>
       <c r="B272">
-        <v>1175973.430767986</v>
+        <v>104194.1800000001</v>
       </c>
       <c r="C272" s="1">
-        <v>0.01142785476478592</v>
+        <v>0.003708921255118458</v>
       </c>
       <c r="D272" s="1">
-        <v>0.1759734307679885</v>
+        <v>0.04194180000000003</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4312,13 +4312,13 @@
         <v>38076</v>
       </c>
       <c r="B273">
-        <v>1182128.716376503</v>
+        <v>104314.4200000001</v>
       </c>
       <c r="C273" s="1">
-        <v>0.005234204657580177</v>
+        <v>0.001153999196500166</v>
       </c>
       <c r="D273" s="1">
-        <v>0.1821287163765049</v>
+        <v>0.04314419999999997</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4326,13 +4326,13 @@
         <v>38077</v>
       </c>
       <c r="B274">
-        <v>1184195.623102587</v>
+        <v>104296.24</v>
       </c>
       <c r="C274" s="1">
-        <v>0.001748461650115329</v>
+        <v>-0.0001742807945440683</v>
       </c>
       <c r="D274" s="1">
-        <v>0.1841956231025892</v>
+        <v>0.04296239999999996</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4340,13 +4340,13 @@
         <v>38078</v>
       </c>
       <c r="B275">
-        <v>1188450.067897877</v>
+        <v>104453.5600000001</v>
       </c>
       <c r="C275" s="1">
-        <v>0.003592687485318935</v>
+        <v>0.00150839570055461</v>
       </c>
       <c r="D275" s="1">
-        <v>0.1884500678978793</v>
+        <v>0.04453560000000012</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4354,13 +4354,13 @@
         <v>38079</v>
       </c>
       <c r="B276">
-        <v>1198965.230049492</v>
+        <v>104710.0600000001</v>
       </c>
       <c r="C276" s="1">
-        <v>0.008847794649222473</v>
+        <v>0.00245563674421434</v>
       </c>
       <c r="D276" s="1">
-        <v>0.1989652300494942</v>
+        <v>0.04710060000000005</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4368,13 +4368,13 @@
         <v>38080</v>
       </c>
       <c r="B277">
-        <v>1200769.324204127</v>
+        <v>104710.0600000001</v>
       </c>
       <c r="C277" s="1">
-        <v>0.001504709318852271</v>
+        <v>0</v>
       </c>
       <c r="D277" s="1">
-        <v>0.2007693242041295</v>
+        <v>0.04710060000000005</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4382,13 +4382,13 @@
         <v>38081</v>
       </c>
       <c r="B278">
-        <v>1199892.38466656</v>
+        <v>104710.0600000001</v>
       </c>
       <c r="C278" s="1">
-        <v>-0.0007303147406337862</v>
+        <v>0</v>
       </c>
       <c r="D278" s="1">
-        <v>0.1998923846665623</v>
+        <v>0.04710060000000005</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4396,13 +4396,13 @@
         <v>38082</v>
       </c>
       <c r="B279">
-        <v>1207422.11533344</v>
+        <v>104915.3400000001</v>
       </c>
       <c r="C279" s="1">
-        <v>0.006275338324588597</v>
+        <v>0.001960461105647404</v>
       </c>
       <c r="D279" s="1">
-        <v>0.2074221153334423</v>
+        <v>0.04915340000000001</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4410,13 +4410,13 @@
         <v>38083</v>
       </c>
       <c r="B280">
-        <v>1207849.039761444</v>
+        <v>104867.1800000001</v>
       </c>
       <c r="C280" s="1">
-        <v>0.0003535834093004731</v>
+        <v>-0.0004590367814659713</v>
       </c>
       <c r="D280" s="1">
-        <v>0.2078490397614468</v>
+        <v>0.04867179999999993</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4424,13 +4424,13 @@
         <v>38084</v>
       </c>
       <c r="B281">
-        <v>1201897.860852662</v>
+        <v>104689.7400000001</v>
       </c>
       <c r="C281" s="1">
-        <v>-0.00492708833047395</v>
+        <v>-0.001692045118405816</v>
       </c>
       <c r="D281" s="1">
-        <v>0.201897860852664</v>
+        <v>0.0468974000000002</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4438,13 +4438,13 @@
         <v>38085</v>
       </c>
       <c r="B282">
-        <v>1199468.017403137</v>
+        <v>104661.2600000001</v>
       </c>
       <c r="C282" s="1">
-        <v>-0.002021672164222443</v>
+        <v>-0.0002720419403087204</v>
       </c>
       <c r="D282" s="1">
-        <v>0.1994680174031398</v>
+        <v>0.0466126</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4452,13 +4452,13 @@
         <v>38086</v>
       </c>
       <c r="B283">
-        <v>1197000.122596863</v>
+        <v>104661.2600000001</v>
       </c>
       <c r="C283" s="1">
-        <v>-0.002057491129790368</v>
+        <v>0</v>
       </c>
       <c r="D283" s="1">
-        <v>0.1970001225968656</v>
+        <v>0.0466126</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4466,13 +4466,13 @@
         <v>38087</v>
       </c>
       <c r="B284">
-        <v>1198235.297403137</v>
+        <v>104661.2600000001</v>
       </c>
       <c r="C284" s="1">
-        <v>0.001031891963047205</v>
+        <v>0</v>
       </c>
       <c r="D284" s="1">
-        <v>0.1982352974031398</v>
+        <v>0.0466126</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4480,13 +4480,13 @@
         <v>38088</v>
       </c>
       <c r="B285">
-        <v>1197000.122596863</v>
+        <v>104661.2600000001</v>
       </c>
       <c r="C285" s="1">
-        <v>-0.00103082825965084</v>
+        <v>0</v>
       </c>
       <c r="D285" s="1">
-        <v>0.1970001225968656</v>
+        <v>0.0466126</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4494,13 +4494,13 @@
         <v>38089</v>
       </c>
       <c r="B286">
-        <v>1199901.527403137</v>
+        <v>104799.8200000001</v>
       </c>
       <c r="C286" s="1">
-        <v>0.002423896833009032</v>
+        <v>0.001323890042982612</v>
       </c>
       <c r="D286" s="1">
-        <v>0.1999015274031395</v>
+        <v>0.0479982000000001</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4508,13 +4508,13 @@
         <v>38090</v>
       </c>
       <c r="B287">
-        <v>1190525.090817804</v>
+        <v>104431.3400000001</v>
       </c>
       <c r="C287" s="1">
-        <v>-0.007814338402939991</v>
+        <v>-0.003516036573345316</v>
       </c>
       <c r="D287" s="1">
-        <v>0.1905250908178069</v>
+        <v>0.04431340000000006</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4522,13 +4522,13 @@
         <v>38091</v>
       </c>
       <c r="B288">
-        <v>1193683.636427537</v>
+        <v>104402.2200000001</v>
       </c>
       <c r="C288" s="1">
-        <v>0.002653069333938607</v>
+        <v>-0.0002788434965977915</v>
       </c>
       <c r="D288" s="1">
-        <v>0.1936836364275401</v>
+        <v>0.04402220000000012</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4536,13 +4536,13 @@
         <v>38092</v>
       </c>
       <c r="B289">
-        <v>1204125.68635256</v>
+        <v>104417.9000000001</v>
       </c>
       <c r="C289" s="1">
-        <v>0.008747753262559499</v>
+        <v>0.0001501883772203616</v>
       </c>
       <c r="D289" s="1">
-        <v>0.2041256863525629</v>
+        <v>0.04417900000000019</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4550,13 +4550,13 @@
         <v>38093</v>
       </c>
       <c r="B290">
-        <v>1209256.3486849</v>
+        <v>104553.4200000001</v>
       </c>
       <c r="C290" s="1">
-        <v>0.004260902653676624</v>
+        <v>0.00129786176508051</v>
       </c>
       <c r="D290" s="1">
-        <v>0.2092563486849026</v>
+        <v>0.0455342000000003</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4564,13 +4564,13 @@
         <v>38094</v>
       </c>
       <c r="B291">
-        <v>1209315.031520021</v>
+        <v>104553.4200000001</v>
       </c>
       <c r="C291" s="1">
-        <v>4.85280355857487E-05</v>
+        <v>0</v>
       </c>
       <c r="D291" s="1">
-        <v>0.2093150315200238</v>
+        <v>0.0455342000000003</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4578,13 +4578,13 @@
         <v>38095</v>
       </c>
       <c r="B292">
-        <v>1208728.688479979</v>
+        <v>104553.4200000001</v>
       </c>
       <c r="C292" s="1">
-        <v>-0.0004848554965074525</v>
+        <v>0</v>
       </c>
       <c r="D292" s="1">
-        <v>0.2087286884799824</v>
+        <v>0.0455342000000003</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4592,13 +4592,13 @@
         <v>38096</v>
       </c>
       <c r="B293">
-        <v>1208932.531520021</v>
+        <v>104581.9000000001</v>
       </c>
       <c r="C293" s="1">
-        <v>0.0001686425100888567</v>
+        <v>0.0002723966370492548</v>
       </c>
       <c r="D293" s="1">
-        <v>0.2089325315200241</v>
+        <v>0.04581900000000028</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4606,13 +4606,13 @@
         <v>38097</v>
       </c>
       <c r="B294">
-        <v>1196038.747935985</v>
+        <v>104167.3400000001</v>
       </c>
       <c r="C294" s="1">
-        <v>-0.01066542858915687</v>
+        <v>-0.003963974645708301</v>
       </c>
       <c r="D294" s="1">
-        <v>0.1960387479359886</v>
+        <v>0.0416734000000003</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4620,13 +4620,13 @@
         <v>38098</v>
       </c>
       <c r="B295">
-        <v>1203750.636653189</v>
+        <v>104308.4600000001</v>
       </c>
       <c r="C295" s="1">
-        <v>0.006447858591966504</v>
+        <v>0.001354743242939715</v>
       </c>
       <c r="D295" s="1">
-        <v>0.2037506366531925</v>
+        <v>0.04308460000000025</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4634,13 +4634,13 @@
         <v>38099</v>
       </c>
       <c r="B296">
-        <v>1212825.087878776</v>
+        <v>104681.5800000001</v>
       </c>
       <c r="C296" s="1">
-        <v>0.007538480935567193</v>
+        <v>0.003577082817635358</v>
       </c>
       <c r="D296" s="1">
-        <v>0.2128250878787794</v>
+        <v>0.0468158000000003</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4648,13 +4648,13 @@
         <v>38100</v>
       </c>
       <c r="B297">
-        <v>1215495.976309772</v>
+        <v>104697.4200000001</v>
       </c>
       <c r="C297" s="1">
-        <v>0.002202204141132258</v>
+        <v>0.0001513160194945851</v>
       </c>
       <c r="D297" s="1">
-        <v>0.2154959763097752</v>
+        <v>0.04697420000000041</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4662,13 +4662,13 @@
         <v>38101</v>
       </c>
       <c r="B298">
-        <v>1217947.316371552</v>
+        <v>104697.4200000001</v>
       </c>
       <c r="C298" s="1">
-        <v>0.002016740581258558</v>
+        <v>0</v>
       </c>
       <c r="D298" s="1">
-        <v>0.2179473163715557</v>
+        <v>0.04697420000000041</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4676,13 +4676,13 @@
         <v>38102</v>
       </c>
       <c r="B299">
-        <v>1216749.165798968</v>
+        <v>104697.4200000001</v>
       </c>
       <c r="C299" s="1">
-        <v>-0.0009837458127118781</v>
+        <v>0</v>
       </c>
       <c r="D299" s="1">
-        <v>0.2167491657989715</v>
+        <v>0.04697420000000041</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4690,13 +4690,13 @@
         <v>38103</v>
       </c>
       <c r="B300">
-        <v>1214932.034201032</v>
+        <v>104578.7000000001</v>
       </c>
       <c r="C300" s="1">
-        <v>-0.001493431554352442</v>
+        <v>-0.001133934341457477</v>
       </c>
       <c r="D300" s="1">
-        <v>0.2149320342010352</v>
+        <v>0.04578700000000047</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4704,13 +4704,13 @@
         <v>38104</v>
       </c>
       <c r="B301">
-        <v>1214827.065798968</v>
+        <v>104639.1800000001</v>
       </c>
       <c r="C301" s="1">
-        <v>-8.639857959868991E-05</v>
+        <v>0.0005783204419254062</v>
       </c>
       <c r="D301" s="1">
-        <v>0.2148270657989713</v>
+        <v>0.04639180000000032</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4718,13 +4718,13 @@
         <v>38105</v>
       </c>
       <c r="B302">
-        <v>1208243.774201032</v>
+        <v>104274.7000000001</v>
       </c>
       <c r="C302" s="1">
-        <v>-0.005419118311795534</v>
+        <v>-0.00348320772391375</v>
       </c>
       <c r="D302" s="1">
-        <v>0.2082437742010352</v>
+        <v>0.04274700000000031</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4732,13 +4732,13 @@
         <v>38106</v>
       </c>
       <c r="B303">
-        <v>1201823.013295504</v>
+        <v>104082.0600000001</v>
       </c>
       <c r="C303" s="1">
-        <v>-0.005314127035145777</v>
+        <v>-0.001847427995477324</v>
       </c>
       <c r="D303" s="1">
-        <v>0.201823013295507</v>
+        <v>0.04082060000000043</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4746,13 +4746,13 @@
         <v>38107</v>
       </c>
       <c r="B304">
-        <v>1199540.994418052</v>
+        <v>103927.6600000001</v>
       </c>
       <c r="C304" s="1">
-        <v>-0.0018987977865349</v>
+        <v>-0.001483444889541885</v>
       </c>
       <c r="D304" s="1">
-        <v>0.1995409944180548</v>
+        <v>0.03927660000000044</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4760,13 +4760,13 @@
         <v>38108</v>
       </c>
       <c r="B305">
-        <v>1201426.042642122</v>
+        <v>103927.6600000001</v>
       </c>
       <c r="C305" s="1">
-        <v>0.001571474616409718</v>
+        <v>0</v>
       </c>
       <c r="D305" s="1">
-        <v>0.2014260426421257</v>
+        <v>0.03927660000000044</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4774,13 +4774,13 @@
         <v>38109</v>
       </c>
       <c r="B306">
-        <v>1198092.617357878</v>
+        <v>103927.6600000001</v>
       </c>
       <c r="C306" s="1">
-        <v>-0.002774557206129735</v>
+        <v>0</v>
       </c>
       <c r="D306" s="1">
-        <v>0.198092617357881</v>
+        <v>0.03927660000000044</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4788,13 +4788,13 @@
         <v>38110</v>
       </c>
       <c r="B307">
-        <v>1211134.972642122</v>
+        <v>104211.7100000001</v>
       </c>
       <c r="C307" s="1">
-        <v>0.01088593243567981</v>
+        <v>0.002733151116844246</v>
       </c>
       <c r="D307" s="1">
-        <v>0.2111349726421257</v>
+        <v>0.04211710000000046</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4802,13 +4802,13 @@
         <v>38111</v>
       </c>
       <c r="B308">
-        <v>1208057.583307778</v>
+        <v>104269.4700000001</v>
       </c>
       <c r="C308" s="1">
-        <v>-0.002540913609018092</v>
+        <v>0.0005542563306943915</v>
       </c>
       <c r="D308" s="1">
-        <v>0.2080575833077816</v>
+        <v>0.04269470000000042</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4816,13 +4816,13 @@
         <v>38112</v>
       </c>
       <c r="B309">
-        <v>1211369.516692222</v>
+        <v>104329.3200000001</v>
       </c>
       <c r="C309" s="1">
-        <v>0.002741536024611468</v>
+        <v>0.0005739935189084111</v>
       </c>
       <c r="D309" s="1">
-        <v>0.2113695166922249</v>
+        <v>0.04329320000000059</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4830,13 +4830,13 @@
         <v>38113</v>
       </c>
       <c r="B310">
-        <v>1210011.371533431</v>
+        <v>104122.2200000001</v>
       </c>
       <c r="C310" s="1">
-        <v>-0.001121165045080197</v>
+        <v>-0.001985060383792425</v>
       </c>
       <c r="D310" s="1">
-        <v>0.210011371533434</v>
+        <v>0.04122220000000065</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4844,13 +4844,13 @@
         <v>38114</v>
       </c>
       <c r="B311">
-        <v>1194863.708466569</v>
+        <v>103695.8600000001</v>
       </c>
       <c r="C311" s="1">
-        <v>-0.01251861215788808</v>
+        <v>-0.004094803203389286</v>
       </c>
       <c r="D311" s="1">
-        <v>0.1948637084665727</v>
+        <v>0.03695860000000062</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4858,13 +4858,13 @@
         <v>38115</v>
       </c>
       <c r="B312">
-        <v>1197423.490532461</v>
+        <v>103695.8600000001</v>
       </c>
       <c r="C312" s="1">
-        <v>0.002142321377537559</v>
+        <v>0</v>
       </c>
       <c r="D312" s="1">
-        <v>0.1974234905324646</v>
+        <v>0.03695860000000062</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4872,13 +4872,13 @@
         <v>38116</v>
       </c>
       <c r="B313">
-        <v>1195137.656627277</v>
+        <v>103695.8600000001</v>
       </c>
       <c r="C313" s="1">
-        <v>-0.00190896029955745</v>
+        <v>0</v>
       </c>
       <c r="D313" s="1">
-        <v>0.1951376566272807</v>
+        <v>0.03695860000000062</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4886,13 +4886,13 @@
         <v>38117</v>
       </c>
       <c r="B314">
-        <v>1185987.393372723</v>
+        <v>103374.1900000001</v>
       </c>
       <c r="C314" s="1">
-        <v>-0.00765624211053384</v>
+        <v>-0.003102052483098139</v>
       </c>
       <c r="D314" s="1">
-        <v>0.1859873933727261</v>
+        <v>0.03374190000000055</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4900,13 +4900,13 @@
         <v>38118</v>
       </c>
       <c r="B315">
-        <v>1187094.789678112</v>
+        <v>103625.3900000001</v>
       </c>
       <c r="C315" s="1">
-        <v>0.0009337336227830395</v>
+        <v>0.002430006948543006</v>
       </c>
       <c r="D315" s="1">
-        <v>0.187094789678115</v>
+        <v>0.03625390000000062</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4914,13 +4914,13 @@
         <v>38119</v>
       </c>
       <c r="B316">
-        <v>1189673.377225322</v>
+        <v>103689.5900000001</v>
       </c>
       <c r="C316" s="1">
-        <v>0.00217218335859215</v>
+        <v>0.0006195392847254677</v>
       </c>
       <c r="D316" s="1">
-        <v>0.1896733772253252</v>
+        <v>0.03689590000000065</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4928,13 +4928,13 @@
         <v>38120</v>
       </c>
       <c r="B317">
-        <v>1187979.505942275</v>
+        <v>103667.5900000001</v>
       </c>
       <c r="C317" s="1">
-        <v>-0.001423812044107464</v>
+        <v>-0.0002121717329579553</v>
       </c>
       <c r="D317" s="1">
-        <v>0.1879795059422777</v>
+        <v>0.03667590000000054</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4942,13 +4942,13 @@
         <v>38121</v>
       </c>
       <c r="B318">
-        <v>1192599.585847953</v>
+        <v>103648.99</v>
       </c>
       <c r="C318" s="1">
-        <v>0.003889023238674572</v>
+        <v>-0.0001794196238188439</v>
       </c>
       <c r="D318" s="1">
-        <v>0.1925995858479563</v>
+        <v>0.03648990000000052</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4956,13 +4956,13 @@
         <v>38122</v>
       </c>
       <c r="B319">
-        <v>1192316.829820793</v>
+        <v>103648.99</v>
       </c>
       <c r="C319" s="1">
-        <v>-0.0002370921728598319</v>
+        <v>0</v>
       </c>
       <c r="D319" s="1">
-        <v>0.192316829820796</v>
+        <v>0.03648990000000052</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4970,13 +4970,13 @@
         <v>38123</v>
       </c>
       <c r="B320">
-        <v>1191204.870179207</v>
+        <v>103648.99</v>
       </c>
       <c r="C320" s="1">
-        <v>-0.0009326041650800088</v>
+        <v>0</v>
       </c>
       <c r="D320" s="1">
-        <v>0.1912048701792102</v>
+        <v>0.03648990000000052</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4984,13 +4984,13 @@
         <v>38124</v>
       </c>
       <c r="B321">
-        <v>1184161.629820793</v>
+        <v>103311.1900000001</v>
       </c>
       <c r="C321" s="1">
-        <v>-0.005912702789197422</v>
+        <v>-0.003259076620042212</v>
       </c>
       <c r="D321" s="1">
-        <v>0.184161629820796</v>
+        <v>0.03311190000000064</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4998,13 +4998,13 @@
         <v>38125</v>
       </c>
       <c r="B322">
-        <v>1185804.950179207</v>
+        <v>103529.3900000001</v>
       </c>
       <c r="C322" s="1">
-        <v>0.001387750047823211</v>
+        <v>0.002112065498422799</v>
       </c>
       <c r="D322" s="1">
-        <v>0.1858049501792103</v>
+        <v>0.03529390000000077</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5012,13 +5012,13 @@
         <v>38126</v>
       </c>
       <c r="B323">
-        <v>1181554.119820793</v>
+        <v>103452.3900000001</v>
       </c>
       <c r="C323" s="1">
-        <v>-0.003584763546291336</v>
+        <v>-0.0007437501563565263</v>
       </c>
       <c r="D323" s="1">
-        <v>0.1815541198207959</v>
+        <v>0.03452390000000083</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5026,13 +5026,13 @@
         <v>38127</v>
       </c>
       <c r="B324">
-        <v>1183199.664913539</v>
+        <v>103467.7900000001</v>
       </c>
       <c r="C324" s="1">
-        <v>0.001392695489052631</v>
+        <v>0.0001488607464747993</v>
       </c>
       <c r="D324" s="1">
-        <v>0.1831996649135419</v>
+        <v>0.03467790000000082</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5040,13 +5040,13 @@
         <v>38128</v>
       </c>
       <c r="B325">
-        <v>1187570.595861113</v>
+        <v>103596.3900000001</v>
       </c>
       <c r="C325" s="1">
-        <v>0.003694161752398673</v>
+        <v>0.001242898877032328</v>
       </c>
       <c r="D325" s="1">
-        <v>0.1875705958611165</v>
+        <v>0.03596390000000094</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5054,13 +5054,13 @@
         <v>38129</v>
       </c>
       <c r="B326">
-        <v>1188441.890587006</v>
+        <v>103596.3900000001</v>
       </c>
       <c r="C326" s="1">
-        <v>0.000733678257889947</v>
+        <v>0</v>
       </c>
       <c r="D326" s="1">
-        <v>0.1884418905870091</v>
+        <v>0.03596390000000094</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5068,13 +5068,13 @@
         <v>38130</v>
       </c>
       <c r="B327">
-        <v>1187238.849412994</v>
+        <v>103596.3900000001</v>
       </c>
       <c r="C327" s="1">
-        <v>-0.001012284389788509</v>
+        <v>0</v>
       </c>
       <c r="D327" s="1">
-        <v>0.1872388494129971</v>
+        <v>0.03596390000000094</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5082,13 +5082,13 @@
         <v>38131</v>
       </c>
       <c r="B328">
-        <v>1188296.570587006</v>
+        <v>103650.99</v>
       </c>
       <c r="C328" s="1">
-        <v>0.0008909084928740985</v>
+        <v>0.0005270453922185947</v>
       </c>
       <c r="D328" s="1">
-        <v>0.1882965705870092</v>
+        <v>0.03650990000000065</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5096,13 +5096,13 @@
         <v>38132</v>
       </c>
       <c r="B329">
-        <v>1203233.655562566</v>
+        <v>104169.3900000001</v>
       </c>
       <c r="C329" s="1">
-        <v>0.01257016585361415</v>
+        <v>0.005001399407762674</v>
       </c>
       <c r="D329" s="1">
-        <v>0.2032336555625689</v>
+        <v>0.04169390000000073</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5110,13 +5110,13 @@
         <v>38133</v>
       </c>
       <c r="B330">
-        <v>1204404.590168291</v>
+        <v>104229.7900000001</v>
       </c>
       <c r="C330" s="1">
-        <v>0.0009731564607688981</v>
+        <v>0.0005798248410593398</v>
       </c>
       <c r="D330" s="1">
-        <v>0.2044045901682943</v>
+        <v>0.04229790000000078</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5124,13 +5124,13 @@
         <v>38134</v>
       </c>
       <c r="B331">
-        <v>1215078.41371302</v>
+        <v>104419.5900000001</v>
       </c>
       <c r="C331" s="1">
-        <v>0.00886232386679775</v>
+        <v>0.001820976517366235</v>
       </c>
       <c r="D331" s="1">
-        <v>0.2150784137130235</v>
+        <v>0.04419590000000095</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5138,13 +5138,13 @@
         <v>38135</v>
       </c>
       <c r="B332">
-        <v>1214874.148212885</v>
+        <v>104402.5900000001</v>
       </c>
       <c r="C332" s="1">
-        <v>-0.0001681089037793848</v>
+        <v>-0.000162804699769481</v>
       </c>
       <c r="D332" s="1">
-        <v>0.2148741482128882</v>
+        <v>0.04402590000000095</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5152,13 +5152,13 @@
         <v>38136</v>
       </c>
       <c r="B333">
-        <v>1214551.462582459</v>
+        <v>104402.5900000001</v>
       </c>
       <c r="C333" s="1">
-        <v>-0.0002656123935972365</v>
+        <v>0</v>
       </c>
       <c r="D333" s="1">
-        <v>0.214551462582462</v>
+        <v>0.04402590000000095</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5166,13 +5166,13 @@
         <v>38137</v>
       </c>
       <c r="B334">
-        <v>1214851.577417541</v>
+        <v>104402.5900000001</v>
       </c>
       <c r="C334" s="1">
-        <v>0.0002470993155321288</v>
+        <v>0</v>
       </c>
       <c r="D334" s="1">
-        <v>0.2148515774175448</v>
+        <v>0.04402590000000095</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5180,13 +5180,13 @@
         <v>38138</v>
       </c>
       <c r="B335">
-        <v>1214551.462582459</v>
+        <v>104402.5900000001</v>
       </c>
       <c r="C335" s="1">
-        <v>-0.0002470382725440201</v>
+        <v>0</v>
       </c>
       <c r="D335" s="1">
-        <v>0.2145514625824623</v>
+        <v>0.04402590000000095</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5194,13 +5194,13 @@
         <v>38139</v>
       </c>
       <c r="B336">
-        <v>1216995.597417541</v>
+        <v>104417.99</v>
       </c>
       <c r="C336" s="1">
-        <v>0.002012376511313585</v>
+        <v>0.0001475059191538008</v>
       </c>
       <c r="D336" s="1">
-        <v>0.2169955974175448</v>
+        <v>0.04417990000000072</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5208,13 +5208,13 @@
         <v>38140</v>
       </c>
       <c r="B337">
-        <v>1218830.581807721</v>
+        <v>104539.99</v>
       </c>
       <c r="C337" s="1">
-        <v>0.001507798708617836</v>
+        <v>0.00116838104238548</v>
       </c>
       <c r="D337" s="1">
-        <v>0.2188305818077245</v>
+        <v>0.04539990000000071</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5222,13 +5222,13 @@
         <v>38141</v>
       </c>
       <c r="B338">
-        <v>1215638.34802699</v>
+        <v>104295.1900000001</v>
       </c>
       <c r="C338" s="1">
-        <v>-0.002619095572738761</v>
+        <v>-0.002341687616384758</v>
       </c>
       <c r="D338" s="1">
-        <v>0.2156383480269932</v>
+        <v>0.04295190000000093</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5236,13 +5236,13 @@
         <v>38142</v>
       </c>
       <c r="B339">
-        <v>1220725.043008655</v>
+        <v>104468.1900000001</v>
       </c>
       <c r="C339" s="1">
-        <v>0.004184381802302406</v>
+        <v>0.001658753390257006</v>
       </c>
       <c r="D339" s="1">
-        <v>0.2207250430086583</v>
+        <v>0.04468190000000094</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5250,13 +5250,13 @@
         <v>38143</v>
       </c>
       <c r="B340">
-        <v>1219965.149893942</v>
+        <v>104468.1900000001</v>
       </c>
       <c r="C340" s="1">
-        <v>-0.0006224932625619184</v>
+        <v>0</v>
       </c>
       <c r="D340" s="1">
-        <v>0.2199651498939448</v>
+        <v>0.04468190000000094</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5264,13 +5264,13 @@
         <v>38144</v>
       </c>
       <c r="B341">
-        <v>1219973.070106059</v>
+        <v>104468.1900000001</v>
       </c>
       <c r="C341" s="1">
-        <v>6.492162597959705E-06</v>
+        <v>0</v>
       </c>
       <c r="D341" s="1">
-        <v>0.2199730701060618</v>
+        <v>0.04468190000000094</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5278,13 +5278,13 @@
         <v>38145</v>
       </c>
       <c r="B342">
-        <v>1231603.609893942</v>
+        <v>104996.1900000001</v>
       </c>
       <c r="C342" s="1">
-        <v>0.009533439772463126</v>
+        <v>0.005054170077992248</v>
       </c>
       <c r="D342" s="1">
-        <v>0.2316036098939449</v>
+        <v>0.04996190000000111</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5292,13 +5292,13 @@
         <v>38146</v>
       </c>
       <c r="B343">
-        <v>1233267.592024376</v>
+        <v>105050.7900000001</v>
       </c>
       <c r="C343" s="1">
-        <v>0.001351069546294603</v>
+        <v>0.0005200188692560115</v>
       </c>
       <c r="D343" s="1">
-        <v>0.2332675920243792</v>
+        <v>0.05050790000000105</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5306,13 +5306,13 @@
         <v>38147</v>
       </c>
       <c r="B344">
-        <v>1226868.82011594</v>
+        <v>104734.1900000001</v>
       </c>
       <c r="C344" s="1">
-        <v>-0.00518847000425271</v>
+        <v>-0.003013780286659329</v>
       </c>
       <c r="D344" s="1">
-        <v>0.2268688201159437</v>
+        <v>0.04734190000000105</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5320,13 +5320,13 @@
         <v>38148</v>
       </c>
       <c r="B345">
-        <v>1230175.206501192</v>
+        <v>104886.99</v>
       </c>
       <c r="C345" s="1">
-        <v>0.00269497955367326</v>
+        <v>0.001458931414851206</v>
       </c>
       <c r="D345" s="1">
-        <v>0.2301752065011953</v>
+        <v>0.04886990000000102</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5334,13 +5334,13 @@
         <v>38149</v>
       </c>
       <c r="B346">
-        <v>1230799.854826763</v>
+        <v>104886.99</v>
       </c>
       <c r="C346" s="1">
-        <v>0.0005077718379218332</v>
+        <v>0</v>
       </c>
       <c r="D346" s="1">
-        <v>0.2307998548267662</v>
+        <v>0.04886990000000102</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5348,13 +5348,13 @@
         <v>38150</v>
       </c>
       <c r="B347">
-        <v>1229565.285173237</v>
+        <v>104886.99</v>
       </c>
       <c r="C347" s="1">
-        <v>-0.001003062885231887</v>
+        <v>0</v>
       </c>
       <c r="D347" s="1">
-        <v>0.2295652851732408</v>
+        <v>0.04886990000000102</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5362,13 +5362,13 @@
         <v>38151</v>
       </c>
       <c r="B348">
-        <v>1230799.854826763</v>
+        <v>104886.99</v>
       </c>
       <c r="C348" s="1">
-        <v>0.001004070030613757</v>
+        <v>0</v>
       </c>
       <c r="D348" s="1">
-        <v>0.2307998548267662</v>
+        <v>0.04886990000000102</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5376,13 +5376,13 @@
         <v>38152</v>
       </c>
       <c r="B349">
-        <v>1222438.745173237</v>
+        <v>104566.5900000001</v>
       </c>
       <c r="C349" s="1">
-        <v>-0.006793232563959473</v>
+        <v>-0.003054716318963813</v>
       </c>
       <c r="D349" s="1">
-        <v>0.2224387451732404</v>
+        <v>0.04566590000000104</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5390,13 +5390,13 @@
         <v>38153</v>
       </c>
       <c r="B350">
-        <v>1224964.594826763</v>
+        <v>104764.99</v>
       </c>
       <c r="C350" s="1">
-        <v>0.002066238217251604</v>
+        <v>0.001897355551137236</v>
       </c>
       <c r="D350" s="1">
-        <v>0.2249645948267665</v>
+        <v>0.04764990000000102</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5404,13 +5404,13 @@
         <v>38154</v>
       </c>
       <c r="B351">
-        <v>1228552.605105682</v>
+        <v>104811.1900000001</v>
       </c>
       <c r="C351" s="1">
-        <v>0.002929072639382024</v>
+        <v>0.0004409870129324922</v>
       </c>
       <c r="D351" s="1">
-        <v>0.2285526051056852</v>
+        <v>0.04811190000000098</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5418,13 +5418,13 @@
         <v>38155</v>
       </c>
       <c r="B352">
-        <v>1226541.994894318</v>
+        <v>104766.99</v>
       </c>
       <c r="C352" s="1">
-        <v>-0.001636568269854921</v>
+        <v>-0.0004217106971117213</v>
       </c>
       <c r="D352" s="1">
-        <v>0.2265419948943217</v>
+        <v>0.04766990000000093</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5432,13 +5432,13 @@
         <v>38156</v>
       </c>
       <c r="B353">
-        <v>1226815.345105682</v>
+        <v>104854.3900000001</v>
       </c>
       <c r="C353" s="1">
-        <v>0.0002228624967604009</v>
+        <v>0.0008342322328818152</v>
       </c>
       <c r="D353" s="1">
-        <v>0.2268153451056854</v>
+        <v>0.04854390000000097</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5446,13 +5446,13 @@
         <v>38157</v>
       </c>
       <c r="B354">
-        <v>1226995.834894318</v>
+        <v>104854.3900000001</v>
       </c>
       <c r="C354" s="1">
-        <v>0.000147120582862037</v>
+        <v>0</v>
       </c>
       <c r="D354" s="1">
-        <v>0.2269958348943213</v>
+        <v>0.04854390000000097</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5460,13 +5460,13 @@
         <v>38158</v>
       </c>
       <c r="B355">
-        <v>1226815.345105682</v>
+        <v>104854.3900000001</v>
       </c>
       <c r="C355" s="1">
-        <v>-0.0001470989415800483</v>
+        <v>0</v>
       </c>
       <c r="D355" s="1">
-        <v>0.2268153451056851</v>
+        <v>0.04854390000000097</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5474,13 +5474,13 @@
         <v>38159</v>
       </c>
       <c r="B356">
-        <v>1223910.794894318</v>
+        <v>104715.7900000001</v>
       </c>
       <c r="C356" s="1">
-        <v>-0.002367552886383018</v>
+        <v>-0.001321833067742806</v>
       </c>
       <c r="D356" s="1">
-        <v>0.2239107948943211</v>
+        <v>0.04715790000000086</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5488,13 +5488,13 @@
         <v>38160</v>
       </c>
       <c r="B357">
-        <v>1224370.60352408</v>
+        <v>104837.5900000001</v>
       </c>
       <c r="C357" s="1">
-        <v>0.0003756880253691364</v>
+        <v>0.001163148365685762</v>
       </c>
       <c r="D357" s="1">
-        <v>0.2243706035240829</v>
+        <v>0.0483759000000008</v>
       </c>
     </row>
   </sheetData>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Transaction Cost</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio (Ann)</t>
   </si>
   <si>
     <t>Volatility</t>
@@ -417,18 +420,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,8 +460,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -465,25 +472,28 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0505770690751266</v>
+        <v>0.1038105000000007</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03554285442794303</v>
+        <v>0.07220662267557376</v>
       </c>
       <c r="E2">
-        <v>1.370889018418601</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.03490635061470043</v>
+        <v>1.161593006811779</v>
+      </c>
+      <c r="F2">
+        <v>0.9773030635770681</v>
       </c>
       <c r="G2" s="1">
-        <v>0.01680089100738635</v>
-      </c>
-      <c r="H2" s="3">
-        <v>38124</v>
-      </c>
-      <c r="I2">
-        <v>132</v>
+        <v>0.08839460052926004</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.044239754036693</v>
+      </c>
+      <c r="I2" s="3">
+        <v>37838</v>
+      </c>
+      <c r="J2">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:D358"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,4997 +514,5011 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
-        <v>37805</v>
+        <v>37804</v>
       </c>
       <c r="B2">
-        <v>99790.48000000001</v>
+        <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.002095199999999853</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.002095199999999853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4">
-        <v>37806</v>
+        <v>37805</v>
       </c>
       <c r="B3">
-        <v>99790.48000000001</v>
+        <v>99391.97</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>-0.006080300000000038</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.002095199999999853</v>
+        <v>-0.006080300000000038</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4">
-        <v>37807</v>
+        <v>37806</v>
       </c>
       <c r="B4">
-        <v>99790.48000000001</v>
+        <v>99391.97</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.002095199999999853</v>
+        <v>-0.006080300000000038</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4">
-        <v>37808</v>
+        <v>37807</v>
       </c>
       <c r="B5">
-        <v>99790.48000000001</v>
+        <v>99391.97</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.002095199999999853</v>
+        <v>-0.006080300000000038</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4">
-        <v>37809</v>
+        <v>37808</v>
       </c>
       <c r="B6">
-        <v>100278.28</v>
+        <v>99391.97</v>
       </c>
       <c r="C6" s="1">
-        <v>0.004888241844312136</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.002782800000000085</v>
+        <v>-0.006080300000000038</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4">
-        <v>37810</v>
+        <v>37809</v>
       </c>
       <c r="B7">
-        <v>100376.2</v>
+        <v>100353.18</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0009764826440978869</v>
+        <v>0.009670901985341374</v>
       </c>
       <c r="D7" s="1">
-        <v>0.003762000000000043</v>
+        <v>0.003531799999999974</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
-        <v>37811</v>
+        <v>37810</v>
       </c>
       <c r="B8">
-        <v>100232.2</v>
+        <v>100316.15</v>
       </c>
       <c r="C8" s="1">
-        <v>-0.001434603023425907</v>
+        <v>-0.0003689967771823843</v>
       </c>
       <c r="D8" s="1">
-        <v>0.002321999999999935</v>
+        <v>0.003161500000000039</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4">
-        <v>37812</v>
+        <v>37811</v>
       </c>
       <c r="B9">
-        <v>99880.30000000002</v>
+        <v>99732.10000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.00351084781138189</v>
+        <v>-0.005822093451552823</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.001197000000000004</v>
+        <v>-0.002678999999999876</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4">
-        <v>37813</v>
+        <v>37812</v>
       </c>
       <c r="B10">
-        <v>100127.62</v>
+        <v>98809.11999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>0.002476163968269995</v>
+        <v>-0.009254593054794036</v>
       </c>
       <c r="D10" s="1">
-        <v>0.00127619999999995</v>
+        <v>-0.01190880000000016</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4">
-        <v>37814</v>
+        <v>37813</v>
       </c>
       <c r="B11">
-        <v>100127.62</v>
+        <v>99496.46000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>0.006956240476587938</v>
       </c>
       <c r="D11" s="1">
-        <v>0.00127619999999995</v>
+        <v>-0.005035399999999801</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4">
-        <v>37815</v>
+        <v>37814</v>
       </c>
       <c r="B12">
-        <v>100127.62</v>
+        <v>99496.46000000001</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0.00127619999999995</v>
+        <v>-0.005035399999999801</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4">
-        <v>37816</v>
+        <v>37815</v>
       </c>
       <c r="B13">
-        <v>100277.02</v>
+        <v>99496.46000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>0.001492095787356096</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002770199999999834</v>
+        <v>-0.005035399999999801</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4">
-        <v>37817</v>
+        <v>37816</v>
       </c>
       <c r="B14">
-        <v>100187.38</v>
+        <v>99668.23000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.0008939236526972483</v>
+        <v>0.001726393079713562</v>
       </c>
       <c r="D14" s="1">
-        <v>0.001873799999999815</v>
+        <v>-0.003317699999999868</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4">
-        <v>37818</v>
+        <v>37817</v>
       </c>
       <c r="B15">
-        <v>100022.5</v>
+        <v>99294.08</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.001645716256877927</v>
+        <v>-0.003753954494827627</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0002249999999996977</v>
+        <v>-0.007059200000000043</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4">
-        <v>37819</v>
+        <v>37818</v>
       </c>
       <c r="B16">
-        <v>99703.00000000001</v>
+        <v>98530.22</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.00319428128671051</v>
+        <v>-0.007692905760343427</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.002970000000000361</v>
+        <v>-0.01469780000000009</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4">
-        <v>37820</v>
+        <v>37819</v>
       </c>
       <c r="B17">
-        <v>100005.04</v>
+        <v>97966.62</v>
       </c>
       <c r="C17" s="1">
-        <v>0.00302939731001084</v>
+        <v>-0.005720072481315897</v>
       </c>
       <c r="D17" s="1">
-        <v>5.039999999967293E-05</v>
+        <v>-0.02033380000000007</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4">
-        <v>37821</v>
+        <v>37820</v>
       </c>
       <c r="B18">
-        <v>100005.04</v>
+        <v>98873.83000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>0.009260399103286687</v>
       </c>
       <c r="D18" s="1">
-        <v>5.039999999967293E-05</v>
+        <v>-0.01126169999999982</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4">
-        <v>37822</v>
+        <v>37821</v>
       </c>
       <c r="B19">
-        <v>100005.04</v>
+        <v>98873.83000000002</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>5.039999999967293E-05</v>
+        <v>-0.01126169999999982</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4">
-        <v>37823</v>
+        <v>37822</v>
       </c>
       <c r="B20">
-        <v>99626.86000000002</v>
+        <v>98873.83000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>-0.003781609406885988</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>-0.003731400000000384</v>
+        <v>-0.01126169999999982</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4">
-        <v>37824</v>
+        <v>37823</v>
       </c>
       <c r="B21">
-        <v>99869.32000000002</v>
+        <v>97602.06000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>0.00243368103742303</v>
+        <v>-0.01286255422693749</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.001306800000000385</v>
+        <v>-0.02397939999999976</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4">
-        <v>37825</v>
+        <v>37824</v>
       </c>
       <c r="B22">
-        <v>99882.82000000002</v>
+        <v>98194.54000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>0.0001351766488446593</v>
+        <v>0.006070363678799318</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.001171800000000389</v>
+        <v>-0.01805459999999981</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4">
-        <v>37826</v>
+        <v>37825</v>
       </c>
       <c r="B23">
-        <v>99700.30000000002</v>
+        <v>98302.47000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>-0.001827341278510253</v>
+        <v>0.001099144616391268</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.002997000000000472</v>
+        <v>-0.01697529999999969</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4">
-        <v>37827</v>
+        <v>37826</v>
       </c>
       <c r="B24">
-        <v>100145.62</v>
+        <v>97754.42000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>0.004466586359318958</v>
+        <v>-0.005575139668413387</v>
       </c>
       <c r="D24" s="1">
-        <v>0.001456199999999575</v>
+        <v>-0.02245579999999991</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4">
-        <v>37828</v>
+        <v>37827</v>
       </c>
       <c r="B25">
-        <v>100145.62</v>
+        <v>98706.42000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>0.009738690076622536</v>
       </c>
       <c r="D25" s="1">
-        <v>0.001456199999999575</v>
+        <v>-0.01293580000000005</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4">
-        <v>37829</v>
+        <v>37828</v>
       </c>
       <c r="B26">
-        <v>100145.62</v>
+        <v>98706.42000000001</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0.001456199999999575</v>
+        <v>-0.01293580000000005</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4">
-        <v>37830</v>
+        <v>37829</v>
       </c>
       <c r="B27">
-        <v>100089.46</v>
+        <v>98706.42000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>-0.0005607833872315338</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0008945999999996346</v>
+        <v>-0.01293580000000005</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4">
-        <v>37831</v>
+        <v>37830</v>
       </c>
       <c r="B28">
-        <v>99904.60000000002</v>
+        <v>98401.24000000002</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.001846947720569148</v>
+        <v>-0.003091794839687134</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.0009540000000003435</v>
+        <v>-0.01598759999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4">
-        <v>37832</v>
+        <v>37831</v>
       </c>
       <c r="B29">
-        <v>99861.40000000002</v>
+        <v>97935.56000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>-0.0004324125215455776</v>
+        <v>-0.004732460688503637</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.001386000000000331</v>
+        <v>-0.02064440000000012</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4">
-        <v>37833</v>
+        <v>37832</v>
       </c>
       <c r="B30">
-        <v>99940.96000000002</v>
+        <v>98061.73000000003</v>
       </c>
       <c r="C30" s="1">
-        <v>0.0007967042320655704</v>
+        <v>0.001288296100007136</v>
       </c>
       <c r="D30" s="1">
-        <v>-0.000590400000000435</v>
+        <v>-0.01938269999999997</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4">
-        <v>37834</v>
+        <v>37833</v>
       </c>
       <c r="B31">
-        <v>99676.54000000002</v>
+        <v>97951.30000000002</v>
       </c>
       <c r="C31" s="1">
-        <v>-0.002645762057918999</v>
+        <v>-0.001126127389349585</v>
       </c>
       <c r="D31" s="1">
-        <v>-0.00323460000000042</v>
+        <v>-0.02048700000000003</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4">
-        <v>37835</v>
+        <v>37834</v>
       </c>
       <c r="B32">
-        <v>99676.54000000002</v>
+        <v>97063.46000000002</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>-0.009064096137570421</v>
       </c>
       <c r="D32" s="1">
-        <v>-0.00323460000000042</v>
+        <v>-0.0293654000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4">
-        <v>37836</v>
+        <v>37835</v>
       </c>
       <c r="B33">
-        <v>99676.54000000002</v>
+        <v>97063.46000000002</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.00323460000000042</v>
+        <v>-0.0293654000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4">
-        <v>37837</v>
+        <v>37836</v>
       </c>
       <c r="B34">
-        <v>99757.81000000003</v>
+        <v>97063.46000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>0.0008153372899981637</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>-0.002421900000000532</v>
+        <v>-0.0293654000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4">
-        <v>37838</v>
+        <v>37837</v>
       </c>
       <c r="B35">
-        <v>99230.92000000004</v>
+        <v>97344.09000000004</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.00528169172919879</v>
+        <v>0.002891201282130496</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.007690800000000331</v>
+        <v>-0.02655909999999984</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4">
-        <v>37839</v>
+        <v>37838</v>
       </c>
       <c r="B36">
-        <v>99285.31000000003</v>
+        <v>95913.58000000002</v>
       </c>
       <c r="C36" s="1">
-        <v>0.0005481154462740889</v>
+        <v>-0.01469539650532481</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.0071469000000004</v>
+        <v>-0.04086420000000013</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4">
-        <v>37840</v>
+        <v>37839</v>
       </c>
       <c r="B37">
-        <v>99500.77000000003</v>
+        <v>96058.61000000003</v>
       </c>
       <c r="C37" s="1">
-        <v>0.002170109555985844</v>
+        <v>0.001512090363012364</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.004992300000000283</v>
+        <v>-0.0394139</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4">
-        <v>37841</v>
+        <v>37840</v>
       </c>
       <c r="B38">
-        <v>99606.40000000004</v>
+        <v>97037.37000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>0.001061599824805359</v>
+        <v>0.0101891959502638</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.003936000000000273</v>
+        <v>-0.02962630000000033</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4">
-        <v>37842</v>
+        <v>37841</v>
       </c>
       <c r="B39">
-        <v>99606.40000000004</v>
+        <v>97277.70000000003</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>0.002476674707898807</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.003936000000000273</v>
+        <v>-0.02722300000000011</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4">
-        <v>37843</v>
+        <v>37842</v>
       </c>
       <c r="B40">
-        <v>99606.40000000004</v>
+        <v>97277.70000000003</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.003936000000000273</v>
+        <v>-0.02722300000000011</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4">
-        <v>37844</v>
+        <v>37843</v>
       </c>
       <c r="B41">
-        <v>99705.31000000003</v>
+        <v>97277.70000000003</v>
       </c>
       <c r="C41" s="1">
-        <v>0.0009930084813825069</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.00294690000000053</v>
+        <v>-0.02722300000000011</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4">
-        <v>37845</v>
+        <v>37844</v>
       </c>
       <c r="B42">
-        <v>100002.67</v>
+        <v>97443.59000000004</v>
       </c>
       <c r="C42" s="1">
-        <v>0.002982388801559432</v>
+        <v>0.001705324036238576</v>
       </c>
       <c r="D42" s="1">
-        <v>2.669999999960204E-05</v>
+        <v>-0.02556410000000009</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4">
-        <v>37846</v>
+        <v>37845</v>
       </c>
       <c r="B43">
-        <v>99821.65000000004</v>
+        <v>98048.73000000004</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.001810151668950488</v>
+        <v>0.00621015707651984</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.001783500000000493</v>
+        <v>-0.01951270000000016</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4">
-        <v>37847</v>
+        <v>37846</v>
       </c>
       <c r="B44">
-        <v>100019.26</v>
+        <v>97298.87000000002</v>
       </c>
       <c r="C44" s="1">
-        <v>0.001979630671302246</v>
+        <v>-0.007647829808708484</v>
       </c>
       <c r="D44" s="1">
-        <v>0.0001925999999994321</v>
+        <v>-0.02701130000000029</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4">
-        <v>37848</v>
+        <v>37847</v>
       </c>
       <c r="B45">
-        <v>100029.13</v>
+        <v>97496.48000000004</v>
       </c>
       <c r="C45" s="1">
-        <v>9.868099404042319E-05</v>
+        <v>0.002030958838473929</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0002912999999993282</v>
+        <v>-0.02503520000000004</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4">
-        <v>37849</v>
+        <v>37848</v>
       </c>
       <c r="B46">
-        <v>100029.13</v>
+        <v>97626.13000000005</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>0.001329791598630115</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0002912999999993282</v>
+        <v>-0.02373869999999989</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4">
-        <v>37850</v>
+        <v>37849</v>
       </c>
       <c r="B47">
-        <v>100029.13</v>
+        <v>97626.13000000005</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0002912999999993282</v>
+        <v>-0.02373869999999989</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4">
-        <v>37851</v>
+        <v>37850</v>
       </c>
       <c r="B48">
-        <v>100306.75</v>
+        <v>97626.13000000005</v>
       </c>
       <c r="C48" s="1">
-        <v>0.002775391528447635</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>0.003067499999999113</v>
+        <v>-0.02373869999999989</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4">
-        <v>37852</v>
+        <v>37851</v>
       </c>
       <c r="B49">
-        <v>100386.55</v>
+        <v>97886.89000000004</v>
       </c>
       <c r="C49" s="1">
-        <v>0.0007955596208630844</v>
+        <v>0.002671006215241745</v>
       </c>
       <c r="D49" s="1">
-        <v>0.003865499999999189</v>
+        <v>-0.02113109999999996</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4">
-        <v>37853</v>
+        <v>37852</v>
       </c>
       <c r="B50">
-        <v>100326.91</v>
+        <v>97772.05000000003</v>
       </c>
       <c r="C50" s="1">
-        <v>-0.0005941034929479727</v>
+        <v>-0.001173190812375546</v>
       </c>
       <c r="D50" s="1">
-        <v>0.003269099999999137</v>
+        <v>-0.02227950000000012</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4">
-        <v>37854</v>
+        <v>37853</v>
       </c>
       <c r="B51">
-        <v>100418.68</v>
+        <v>97774.55000000003</v>
       </c>
       <c r="C51" s="1">
-        <v>0.0009147097224464495</v>
+        <v>2.556967967848323E-05</v>
       </c>
       <c r="D51" s="1">
-        <v>0.004186799999999158</v>
+        <v>-0.02225450000000007</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4">
-        <v>37855</v>
+        <v>37854</v>
       </c>
       <c r="B52">
-        <v>100107.67</v>
+        <v>97762.79000000004</v>
       </c>
       <c r="C52" s="1">
-        <v>-0.003097132923874257</v>
+        <v>-0.0001202766977704828</v>
       </c>
       <c r="D52" s="1">
-        <v>0.001076699999999153</v>
+        <v>-0.02237210000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4">
-        <v>37856</v>
+        <v>37855</v>
       </c>
       <c r="B53">
-        <v>100107.67</v>
+        <v>96768.67000000004</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>-0.0101686950628147</v>
       </c>
       <c r="D53" s="1">
-        <v>0.001076699999999153</v>
+        <v>-0.03231329999999988</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4">
-        <v>37857</v>
+        <v>37856</v>
       </c>
       <c r="B54">
-        <v>100107.67</v>
+        <v>96768.67000000004</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>0.001076699999999153</v>
+        <v>-0.03231329999999988</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4">
-        <v>37858</v>
+        <v>37857</v>
       </c>
       <c r="B55">
-        <v>100127.41</v>
+        <v>96768.67000000004</v>
       </c>
       <c r="C55" s="1">
-        <v>0.0001971876880162426</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>0.001274099999999168</v>
+        <v>-0.03231329999999988</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4">
-        <v>37859</v>
+        <v>37858</v>
       </c>
       <c r="B56">
-        <v>100219.81</v>
+        <v>97113.16000000002</v>
       </c>
       <c r="C56" s="1">
-        <v>0.0009228242296488443</v>
+        <v>0.003559933189119846</v>
       </c>
       <c r="D56" s="1">
-        <v>0.002198099999999092</v>
+        <v>-0.02886840000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4">
-        <v>37860</v>
+        <v>37859</v>
       </c>
       <c r="B57">
-        <v>100226.74</v>
+        <v>97349.31000000004</v>
       </c>
       <c r="C57" s="1">
-        <v>6.914800576862667E-05</v>
+        <v>0.002431699267123166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.002267399999999142</v>
+        <v>-0.02650689999999989</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4">
-        <v>37861</v>
+        <v>37860</v>
       </c>
       <c r="B58">
-        <v>100412.8</v>
+        <v>97318.91000000003</v>
       </c>
       <c r="C58" s="1">
-        <v>0.001856390819455989</v>
+        <v>-0.0003122775086953355</v>
       </c>
       <c r="D58" s="1">
-        <v>0.004127999999999243</v>
+        <v>-0.02681089999999997</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4">
-        <v>37862</v>
+        <v>37861</v>
       </c>
       <c r="B59">
-        <v>100572.4</v>
+        <v>97628.33000000003</v>
       </c>
       <c r="C59" s="1">
-        <v>0.001589438796647524</v>
+        <v>0.003179443748393851</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005723999999999396</v>
+        <v>-0.02371669999999992</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4">
-        <v>37863</v>
+        <v>37862</v>
       </c>
       <c r="B60">
-        <v>100572.4</v>
+        <v>98010.84000000003</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>0.003918022565785995</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005723999999999396</v>
+        <v>-0.0198915999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4">
-        <v>37864</v>
+        <v>37863</v>
       </c>
       <c r="B61">
-        <v>100572.4</v>
+        <v>98010.84000000003</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005723999999999396</v>
+        <v>-0.0198915999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4">
-        <v>37865</v>
+        <v>37864</v>
       </c>
       <c r="B62">
-        <v>100572.4</v>
+        <v>98010.84000000003</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005723999999999396</v>
+        <v>-0.0198915999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4">
-        <v>37866</v>
+        <v>37865</v>
       </c>
       <c r="B63">
-        <v>100998.91</v>
+        <v>98010.84000000003</v>
       </c>
       <c r="C63" s="1">
-        <v>0.004240825514753466</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>0.009989099999999418</v>
+        <v>-0.0198915999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4">
-        <v>37867</v>
+        <v>37866</v>
       </c>
       <c r="B64">
-        <v>101138.35</v>
+        <v>99290.64000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>0.001380608959047125</v>
+        <v>0.01305773932760901</v>
       </c>
       <c r="D64" s="1">
-        <v>0.01138349999999932</v>
+        <v>-0.007093599999999922</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4">
-        <v>37868</v>
+        <v>37867</v>
       </c>
       <c r="B65">
-        <v>101191.27</v>
+        <v>99482.07000000001</v>
       </c>
       <c r="C65" s="1">
-        <v>0.0005232436558437747</v>
+        <v>0.001927976292629419</v>
       </c>
       <c r="D65" s="1">
-        <v>0.01191269999999944</v>
+        <v>-0.005179299999999887</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4">
-        <v>37869</v>
+        <v>37868</v>
       </c>
       <c r="B66">
-        <v>100991.14</v>
+        <v>99616.92</v>
       </c>
       <c r="C66" s="1">
-        <v>-0.001977739779330689</v>
+        <v>0.001355520648092634</v>
       </c>
       <c r="D66" s="1">
-        <v>0.009911399999999571</v>
+        <v>-0.003830799999999912</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4">
-        <v>37870</v>
+        <v>37869</v>
       </c>
       <c r="B67">
-        <v>100991.14</v>
+        <v>99151.59000000003</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>-0.004671194411551505</v>
       </c>
       <c r="D67" s="1">
-        <v>0.009911399999999571</v>
+        <v>-0.008484099999999661</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4">
-        <v>37871</v>
+        <v>37870</v>
       </c>
       <c r="B68">
-        <v>100991.14</v>
+        <v>99151.59000000003</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>0.009911399999999571</v>
+        <v>-0.008484099999999661</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4">
-        <v>37872</v>
+        <v>37871</v>
       </c>
       <c r="B69">
-        <v>101305.72</v>
+        <v>99151.59000000003</v>
       </c>
       <c r="C69" s="1">
-        <v>0.003114926715353405</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>0.01305719999999955</v>
+        <v>-0.008484099999999661</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4">
-        <v>37873</v>
+        <v>37872</v>
       </c>
       <c r="B70">
-        <v>101047.63</v>
+        <v>100150.29</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.002547635020016648</v>
+        <v>0.01007245572158744</v>
       </c>
       <c r="D70" s="1">
-        <v>0.01047629999999944</v>
+        <v>0.001502900000000196</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4">
-        <v>37874</v>
+        <v>37873</v>
       </c>
       <c r="B71">
-        <v>100677.19</v>
+        <v>99587.88000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>-0.003665993947606694</v>
+        <v>-0.005615660224248864</v>
       </c>
       <c r="D71" s="1">
-        <v>0.006771899999999498</v>
+        <v>-0.004121199999999714</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4">
-        <v>37875</v>
+        <v>37874</v>
       </c>
       <c r="B72">
-        <v>100854.22</v>
+        <v>99358.59000000003</v>
       </c>
       <c r="C72" s="1">
-        <v>0.001758392342893211</v>
+        <v>-0.002302388603914407</v>
       </c>
       <c r="D72" s="1">
-        <v>0.0085421999999995</v>
+        <v>-0.006414099999999645</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4">
-        <v>37876</v>
+        <v>37875</v>
       </c>
       <c r="B73">
-        <v>100921.84</v>
+        <v>99703.89000000001</v>
       </c>
       <c r="C73" s="1">
-        <v>0.0006704726882029721</v>
+        <v>0.003475290863125036</v>
       </c>
       <c r="D73" s="1">
-        <v>0.009218399999999738</v>
+        <v>-0.002961099999999828</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4">
-        <v>37877</v>
+        <v>37876</v>
       </c>
       <c r="B74">
-        <v>100921.84</v>
+        <v>99934.56000000001</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>0.002313550654843954</v>
       </c>
       <c r="D74" s="1">
-        <v>0.009218399999999738</v>
+        <v>-0.0006543999999999439</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4">
-        <v>37878</v>
+        <v>37877</v>
       </c>
       <c r="B75">
-        <v>100921.84</v>
+        <v>99934.56000000001</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.009218399999999738</v>
+        <v>-0.0006543999999999439</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4">
-        <v>37879</v>
+        <v>37878</v>
       </c>
       <c r="B76">
-        <v>100806.13</v>
+        <v>99934.56000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>-0.001146530820286373</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.008061299999999605</v>
+        <v>-0.0006543999999999439</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4">
-        <v>37880</v>
+        <v>37879</v>
       </c>
       <c r="B77">
-        <v>101248.6</v>
+        <v>99635.25000000003</v>
       </c>
       <c r="C77" s="1">
-        <v>0.004389316403675014</v>
+        <v>-0.002995059967242364</v>
       </c>
       <c r="D77" s="1">
-        <v>0.01248599999999955</v>
+        <v>-0.003647499999999693</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4">
-        <v>37881</v>
+        <v>37880</v>
       </c>
       <c r="B78">
-        <v>101147.8</v>
+        <v>100437.51</v>
       </c>
       <c r="C78" s="1">
-        <v>-0.0009955693214523942</v>
+        <v>0.008051969558966032</v>
       </c>
       <c r="D78" s="1">
-        <v>0.01147799999999943</v>
+        <v>0.004375100000000076</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4">
-        <v>37882</v>
+        <v>37881</v>
       </c>
       <c r="B79">
-        <v>101562.97</v>
+        <v>100229.91</v>
       </c>
       <c r="C79" s="1">
-        <v>0.004104587544168092</v>
+        <v>-0.002066956857054603</v>
       </c>
       <c r="D79" s="1">
-        <v>0.01562969999999941</v>
+        <v>0.002299100000000109</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4">
-        <v>37883</v>
+        <v>37882</v>
       </c>
       <c r="B80">
-        <v>101463.64</v>
+        <v>101146.2</v>
       </c>
       <c r="C80" s="1">
-        <v>-0.0009780139355907158</v>
+        <v>0.00914188189932541</v>
       </c>
       <c r="D80" s="1">
-        <v>0.01463639999999966</v>
+        <v>0.01146200000000031</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4">
-        <v>37884</v>
+        <v>37883</v>
       </c>
       <c r="B81">
-        <v>101463.64</v>
+        <v>100741.68</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>-0.003999359343208164</v>
       </c>
       <c r="D81" s="1">
-        <v>0.01463639999999966</v>
+        <v>0.007416800000000334</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4">
-        <v>37885</v>
+        <v>37884</v>
       </c>
       <c r="B82">
-        <v>101463.64</v>
+        <v>100741.68</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>0.01463639999999966</v>
+        <v>0.007416800000000334</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4">
-        <v>37886</v>
+        <v>37885</v>
       </c>
       <c r="B83">
-        <v>101052.46</v>
+        <v>100741.68</v>
       </c>
       <c r="C83" s="1">
-        <v>-0.004052486191112425</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>0.01052459999999966</v>
+        <v>0.007416800000000334</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4">
-        <v>37887</v>
+        <v>37886</v>
       </c>
       <c r="B84">
-        <v>101242.09</v>
+        <v>99752.67000000003</v>
       </c>
       <c r="C84" s="1">
-        <v>0.001876550061225668</v>
+        <v>-0.009817287144705089</v>
       </c>
       <c r="D84" s="1">
-        <v>0.01242089999999973</v>
+        <v>-0.002473299999999568</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4">
-        <v>37888</v>
+        <v>37887</v>
       </c>
       <c r="B85">
-        <v>100642.96</v>
+        <v>100264.65</v>
       </c>
       <c r="C85" s="1">
-        <v>-0.005917795651986246</v>
+        <v>0.005132494197899629</v>
       </c>
       <c r="D85" s="1">
-        <v>0.006429599999999702</v>
+        <v>0.00264650000000044</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4">
-        <v>37889</v>
+        <v>37888</v>
       </c>
       <c r="B86">
-        <v>100462.99</v>
+        <v>98942.61000000003</v>
       </c>
       <c r="C86" s="1">
-        <v>-0.001788202572738373</v>
+        <v>-0.01318550456217615</v>
       </c>
       <c r="D86" s="1">
-        <v>0.004629899999999632</v>
+        <v>-0.01057389999999947</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4">
-        <v>37890</v>
+        <v>37889</v>
       </c>
       <c r="B87">
-        <v>100272.73</v>
+        <v>98558.63000000002</v>
       </c>
       <c r="C87" s="1">
-        <v>-0.001893831748388086</v>
+        <v>-0.003880835567204199</v>
       </c>
       <c r="D87" s="1">
-        <v>0.002727299999999655</v>
+        <v>-0.01441369999999964</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4">
-        <v>37891</v>
+        <v>37890</v>
       </c>
       <c r="B88">
-        <v>100272.73</v>
+        <v>98306.11000000002</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>-0.002562129769863919</v>
       </c>
       <c r="D88" s="1">
-        <v>0.002727299999999655</v>
+        <v>-0.01693889999999965</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4">
-        <v>37892</v>
+        <v>37891</v>
       </c>
       <c r="B89">
-        <v>100272.73</v>
+        <v>98306.11000000002</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>0.002727299999999655</v>
+        <v>-0.01693889999999965</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4">
-        <v>37893</v>
+        <v>37892</v>
       </c>
       <c r="B90">
-        <v>100570.3</v>
+        <v>98306.11000000002</v>
       </c>
       <c r="C90" s="1">
-        <v>0.002967606446937276</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>0.00570299999999957</v>
+        <v>-0.01693889999999965</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4">
-        <v>37894</v>
+        <v>37893</v>
       </c>
       <c r="B91">
-        <v>100246.27</v>
+        <v>99034.00000000001</v>
       </c>
       <c r="C91" s="1">
-        <v>-0.003221925359673805</v>
+        <v>0.007404321053899876</v>
       </c>
       <c r="D91" s="1">
-        <v>0.002462699999999485</v>
+        <v>-0.009659999999999669</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4">
-        <v>37895</v>
+        <v>37894</v>
       </c>
       <c r="B92">
-        <v>100927.93</v>
+        <v>98416.08000000002</v>
       </c>
       <c r="C92" s="1">
-        <v>0.006799853999555294</v>
+        <v>-0.006239473312195765</v>
       </c>
       <c r="D92" s="1">
-        <v>0.009279299999999546</v>
+        <v>-0.01583919999999961</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4">
-        <v>37896</v>
+        <v>37895</v>
       </c>
       <c r="B93">
-        <v>100993.66</v>
+        <v>100004.25</v>
       </c>
       <c r="C93" s="1">
-        <v>0.0006512567928420587</v>
+        <v>0.01613730195309526</v>
       </c>
       <c r="D93" s="1">
-        <v>0.009936599999999407</v>
+        <v>4.25000000001674E-05</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4">
-        <v>37897</v>
+        <v>37896</v>
       </c>
       <c r="B94">
-        <v>101286.82</v>
+        <v>100311.4</v>
       </c>
       <c r="C94" s="1">
-        <v>0.002902756470059664</v>
+        <v>0.003071369466797869</v>
       </c>
       <c r="D94" s="1">
-        <v>0.01286819999999955</v>
+        <v>0.003114000000000283</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4">
-        <v>37898</v>
+        <v>37897</v>
       </c>
       <c r="B95">
-        <v>101286.82</v>
+        <v>100539.45</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>0.002273420568350115</v>
       </c>
       <c r="D95" s="1">
-        <v>0.01286819999999955</v>
+        <v>0.005394500000000191</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4">
-        <v>37899</v>
+        <v>37898</v>
       </c>
       <c r="B96">
-        <v>101286.82</v>
+        <v>100539.45</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>0.01286819999999955</v>
+        <v>0.005394500000000191</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4">
-        <v>37900</v>
+        <v>37899</v>
       </c>
       <c r="B97">
-        <v>101424.16</v>
+        <v>100539.45</v>
       </c>
       <c r="C97" s="1">
-        <v>0.001355951346878159</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>0.01424159999999963</v>
+        <v>0.005394500000000191</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4">
-        <v>37901</v>
+        <v>37900</v>
       </c>
       <c r="B98">
-        <v>101575.15</v>
+        <v>100724.84</v>
       </c>
       <c r="C98" s="1">
-        <v>0.001488698550720091</v>
+        <v>0.001843952796638515</v>
       </c>
       <c r="D98" s="1">
-        <v>0.0157514999999997</v>
+        <v>0.007248400000000155</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4">
-        <v>37902</v>
+        <v>37901</v>
       </c>
       <c r="B99">
-        <v>101419.75</v>
+        <v>100910.19</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.00152990175254486</v>
+        <v>0.001840161771416327</v>
       </c>
       <c r="D99" s="1">
-        <v>0.01419749999999964</v>
+        <v>0.009101900000000329</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4">
-        <v>37903</v>
+        <v>37902</v>
       </c>
       <c r="B100">
-        <v>101571.16</v>
+        <v>100493.67</v>
       </c>
       <c r="C100" s="1">
-        <v>0.001492904488524127</v>
+        <v>-0.004127630717968289</v>
       </c>
       <c r="D100" s="1">
-        <v>0.01571159999999949</v>
+        <v>0.004936700000000238</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4">
-        <v>37904</v>
+        <v>37903</v>
       </c>
       <c r="B101">
-        <v>101553.1</v>
+        <v>100747.12</v>
       </c>
       <c r="C101" s="1">
-        <v>-0.0001778063773220095</v>
+        <v>0.002522049398733239</v>
       </c>
       <c r="D101" s="1">
-        <v>0.01553099999999952</v>
+        <v>0.007471200000000122</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4">
-        <v>37905</v>
+        <v>37904</v>
       </c>
       <c r="B102">
-        <v>101553.1</v>
+        <v>100584.92</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>-0.001609971580328828</v>
       </c>
       <c r="D102" s="1">
-        <v>0.01553099999999952</v>
+        <v>0.005849200000000332</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4">
-        <v>37906</v>
+        <v>37905</v>
       </c>
       <c r="B103">
-        <v>101553.1</v>
+        <v>100584.92</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>0.01553099999999952</v>
+        <v>0.005849200000000332</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4">
-        <v>37907</v>
+        <v>37906</v>
       </c>
       <c r="B104">
-        <v>101775.7</v>
+        <v>100584.92</v>
       </c>
       <c r="C104" s="1">
-        <v>0.002191956720178911</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>0.01775699999999958</v>
+        <v>0.005849200000000332</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4">
-        <v>37908</v>
+        <v>37907</v>
       </c>
       <c r="B105">
-        <v>101901.7</v>
+        <v>100998.07</v>
       </c>
       <c r="C105" s="1">
-        <v>0.001238016540294096</v>
+        <v>0.004107474559804647</v>
       </c>
       <c r="D105" s="1">
-        <v>0.01901699999999962</v>
+        <v>0.009980700000000287</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4">
-        <v>37909</v>
+        <v>37908</v>
       </c>
       <c r="B106">
-        <v>101825.05</v>
+        <v>101374.25</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.0007521954982105949</v>
+        <v>0.003724625628984679</v>
       </c>
       <c r="D106" s="1">
-        <v>0.0182504999999995</v>
+        <v>0.01374250000000021</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4">
-        <v>37910</v>
+        <v>37909</v>
       </c>
       <c r="B107">
-        <v>101926.9</v>
+        <v>100936.69</v>
       </c>
       <c r="C107" s="1">
-        <v>0.001000245028114355</v>
+        <v>-0.004316283474353533</v>
       </c>
       <c r="D107" s="1">
-        <v>0.01926899999999954</v>
+        <v>0.009366900000000289</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4">
-        <v>37911</v>
+        <v>37910</v>
       </c>
       <c r="B108">
-        <v>101598.88</v>
+        <v>101247.28</v>
       </c>
       <c r="C108" s="1">
-        <v>-0.003218188721525017</v>
+        <v>0.003077077324409982</v>
       </c>
       <c r="D108" s="1">
-        <v>0.01598879999999947</v>
+        <v>0.01247280000000028</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4">
-        <v>37912</v>
+        <v>37911</v>
       </c>
       <c r="B109">
-        <v>101598.88</v>
+        <v>100522.49</v>
       </c>
       <c r="C109" s="1">
-        <v>0</v>
+        <v>-0.007158612063455028</v>
       </c>
       <c r="D109" s="1">
-        <v>0.01598879999999947</v>
+        <v>0.005224900000000199</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4">
-        <v>37913</v>
+        <v>37912</v>
       </c>
       <c r="B110">
-        <v>101598.88</v>
+        <v>100522.49</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
       </c>
       <c r="D110" s="1">
-        <v>0.01598879999999947</v>
+        <v>0.005224900000000199</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4">
-        <v>37914</v>
+        <v>37913</v>
       </c>
       <c r="B111">
-        <v>101762.47</v>
+        <v>100522.49</v>
       </c>
       <c r="C111" s="1">
-        <v>0.001610155545021641</v>
+        <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>0.01762469999999938</v>
+        <v>0.005224900000000199</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4">
-        <v>37915</v>
+        <v>37914</v>
       </c>
       <c r="B112">
-        <v>101803.63</v>
+        <v>100889</v>
       </c>
       <c r="C112" s="1">
-        <v>0.0004044713144246703</v>
+        <v>0.003646049754636893</v>
       </c>
       <c r="D112" s="1">
-        <v>0.01803629999999945</v>
+        <v>0.008890000000000065</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4">
-        <v>37916</v>
+        <v>37915</v>
       </c>
       <c r="B113">
-        <v>101327.98</v>
+        <v>101174.89</v>
       </c>
       <c r="C113" s="1">
-        <v>-0.004672230253479071</v>
+        <v>0.002833708332920404</v>
       </c>
       <c r="D113" s="1">
-        <v>0.01327979999999962</v>
+        <v>0.01174890000000017</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4">
-        <v>37917</v>
+        <v>37916</v>
       </c>
       <c r="B114">
-        <v>101432.56</v>
+        <v>99809.42000000003</v>
       </c>
       <c r="C114" s="1">
-        <v>0.001032093998123651</v>
+        <v>-0.01349613525648496</v>
       </c>
       <c r="D114" s="1">
-        <v>0.01432559999999961</v>
+        <v>-0.001905799999999735</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4">
-        <v>37918</v>
+        <v>37917</v>
       </c>
       <c r="B115">
-        <v>101284.3</v>
+        <v>100240.61</v>
       </c>
       <c r="C115" s="1">
-        <v>-0.001461660831590939</v>
+        <v>0.004320133310062202</v>
       </c>
       <c r="D115" s="1">
-        <v>0.01284299999999972</v>
+        <v>0.002406100000000189</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4">
-        <v>37919</v>
+        <v>37918</v>
       </c>
       <c r="B116">
-        <v>101284.3</v>
+        <v>100099.18</v>
       </c>
       <c r="C116" s="1">
-        <v>0</v>
+        <v>-0.001410905220948</v>
       </c>
       <c r="D116" s="1">
-        <v>0.01284299999999972</v>
+        <v>0.0009917999999999871</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4">
-        <v>37920</v>
+        <v>37919</v>
       </c>
       <c r="B117">
-        <v>101284.3</v>
+        <v>100099.18</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
       </c>
       <c r="D117" s="1">
-        <v>0.01284299999999972</v>
+        <v>0.0009917999999999871</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4">
-        <v>37921</v>
+        <v>37920</v>
       </c>
       <c r="B118">
-        <v>101352.13</v>
+        <v>100099.18</v>
       </c>
       <c r="C118" s="1">
-        <v>0.0006696990550361104</v>
+        <v>0</v>
       </c>
       <c r="D118" s="1">
-        <v>0.01352129999999963</v>
+        <v>0.0009917999999999871</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4">
-        <v>37922</v>
+        <v>37921</v>
       </c>
       <c r="B119">
-        <v>101830.51</v>
+        <v>100088.99</v>
       </c>
       <c r="C119" s="1">
-        <v>0.004719979737969116</v>
+        <v>-0.0001017990357162768</v>
       </c>
       <c r="D119" s="1">
-        <v>0.01830509999999963</v>
+        <v>0.000889899999999999</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4">
-        <v>37923</v>
+        <v>37922</v>
       </c>
       <c r="B120">
-        <v>101876.71</v>
+        <v>101015.12</v>
       </c>
       <c r="C120" s="1">
-        <v>0.0004536950664393302</v>
+        <v>0.009253065696836371</v>
       </c>
       <c r="D120" s="1">
-        <v>0.01876709999999959</v>
+        <v>0.01015119999999992</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4">
-        <v>37924</v>
+        <v>37923</v>
       </c>
       <c r="B121">
-        <v>101849.62</v>
+        <v>100978.2</v>
       </c>
       <c r="C121" s="1">
-        <v>-0.0002659096470627453</v>
+        <v>-0.0003654898395408779</v>
       </c>
       <c r="D121" s="1">
-        <v>0.01849619999999952</v>
+        <v>0.009781999999999957</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4">
-        <v>37925</v>
+        <v>37924</v>
       </c>
       <c r="B122">
-        <v>101965.12</v>
+        <v>100818.11</v>
       </c>
       <c r="C122" s="1">
-        <v>0.001134024849577253</v>
+        <v>-0.001585391698406324</v>
       </c>
       <c r="D122" s="1">
-        <v>0.01965119999999954</v>
+        <v>0.00818109999999983</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4">
-        <v>37926</v>
+        <v>37925</v>
       </c>
       <c r="B123">
-        <v>101965.12</v>
+        <v>101252.41</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>0.004307757802640699</v>
       </c>
       <c r="D123" s="1">
-        <v>0.01965119999999954</v>
+        <v>0.01252409999999982</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4">
-        <v>37927</v>
+        <v>37926</v>
       </c>
       <c r="B124">
-        <v>101965.12</v>
+        <v>101252.41</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
       </c>
       <c r="D124" s="1">
-        <v>0.01965119999999954</v>
+        <v>0.01252409999999982</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4">
-        <v>37928</v>
+        <v>37927</v>
       </c>
       <c r="B125">
-        <v>102219.01</v>
+        <v>101252.41</v>
       </c>
       <c r="C125" s="1">
-        <v>0.002489969118851798</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
-        <v>0.02219009999999977</v>
+        <v>0.01252409999999982</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4">
-        <v>37929</v>
+        <v>37928</v>
       </c>
       <c r="B126">
-        <v>102043.24</v>
+        <v>101617.24</v>
       </c>
       <c r="C126" s="1">
-        <v>-0.001719543165209725</v>
+        <v>0.003603173494833412</v>
       </c>
       <c r="D126" s="1">
-        <v>0.0204323999999998</v>
+        <v>0.01617239999999986</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4">
-        <v>37930</v>
+        <v>37929</v>
       </c>
       <c r="B127">
-        <v>102005.44</v>
+        <v>100963.04</v>
       </c>
       <c r="C127" s="1">
-        <v>-0.0003704312015181399</v>
+        <v>-0.006437883965358715</v>
       </c>
       <c r="D127" s="1">
-        <v>0.02005439999999981</v>
+        <v>0.009630399999999817</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4">
-        <v>37931</v>
+        <v>37930</v>
       </c>
       <c r="B128">
-        <v>102198.85</v>
+        <v>100963.77</v>
       </c>
       <c r="C128" s="1">
-        <v>0.00189607534656977</v>
+        <v>7.230368657795694E-06</v>
       </c>
       <c r="D128" s="1">
-        <v>0.02198849999999974</v>
+        <v>0.00963769999999986</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4">
-        <v>37932</v>
+        <v>37931</v>
       </c>
       <c r="B129">
-        <v>102057.52</v>
+        <v>101312.01</v>
       </c>
       <c r="C129" s="1">
-        <v>-0.001382892273249614</v>
+        <v>0.003449158049466661</v>
       </c>
       <c r="D129" s="1">
-        <v>0.02057519999999968</v>
+        <v>0.01312009999999986</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4">
-        <v>37933</v>
+        <v>37932</v>
       </c>
       <c r="B130">
-        <v>102057.52</v>
+        <v>100830.59</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
+        <v>-0.004751855184789822</v>
       </c>
       <c r="D130" s="1">
-        <v>0.02057519999999968</v>
+        <v>0.008305900000000088</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4">
-        <v>37934</v>
+        <v>37933</v>
       </c>
       <c r="B131">
-        <v>102057.52</v>
+        <v>100830.59</v>
       </c>
       <c r="C131" s="1">
         <v>0</v>
       </c>
       <c r="D131" s="1">
-        <v>0.02057519999999968</v>
+        <v>0.008305900000000088</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4">
-        <v>37935</v>
+        <v>37934</v>
       </c>
       <c r="B132">
-        <v>101873.56</v>
+        <v>100830.59</v>
       </c>
       <c r="C132" s="1">
-        <v>-0.001802512935842548</v>
+        <v>0</v>
       </c>
       <c r="D132" s="1">
-        <v>0.01873559999999963</v>
+        <v>0.008305900000000088</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4">
-        <v>37936</v>
+        <v>37935</v>
       </c>
       <c r="B133">
-        <v>101856.97</v>
+        <v>100399.24</v>
       </c>
       <c r="C133" s="1">
-        <v>-0.0001628489276314093</v>
+        <v>-0.004277967628672941</v>
       </c>
       <c r="D133" s="1">
-        <v>0.0185696999999998</v>
+        <v>0.003992400000000229</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4">
-        <v>37937</v>
+        <v>37936</v>
       </c>
       <c r="B134">
-        <v>102235.39</v>
+        <v>100503.16</v>
       </c>
       <c r="C134" s="1">
-        <v>0.003715209670973163</v>
+        <v>0.001035067596129258</v>
       </c>
       <c r="D134" s="1">
-        <v>0.02235389999999993</v>
+        <v>0.005031600000000358</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4">
-        <v>37938</v>
+        <v>37937</v>
       </c>
       <c r="B135">
-        <v>102231.4</v>
+        <v>101450.68</v>
       </c>
       <c r="C135" s="1">
-        <v>-3.902758134932682E-05</v>
+        <v>0.009427763266349087</v>
       </c>
       <c r="D135" s="1">
-        <v>0.02231399999999994</v>
+        <v>0.01450680000000037</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4">
-        <v>37939</v>
+        <v>37938</v>
       </c>
       <c r="B136">
-        <v>101990.74</v>
+        <v>102041.71</v>
       </c>
       <c r="C136" s="1">
-        <v>-0.002354071254037415</v>
+        <v>0.005825786480681883</v>
       </c>
       <c r="D136" s="1">
-        <v>0.01990739999999991</v>
+        <v>0.02041710000000019</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4">
-        <v>37940</v>
+        <v>37939</v>
       </c>
       <c r="B137">
-        <v>101990.74</v>
+        <v>102047.86</v>
       </c>
       <c r="C137" s="1">
-        <v>0</v>
+        <v>6.026947216009049E-05</v>
       </c>
       <c r="D137" s="1">
-        <v>0.01990739999999991</v>
+        <v>0.02047860000000035</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4">
-        <v>37941</v>
+        <v>37940</v>
       </c>
       <c r="B138">
-        <v>101990.74</v>
+        <v>102047.86</v>
       </c>
       <c r="C138" s="1">
         <v>0</v>
       </c>
       <c r="D138" s="1">
-        <v>0.01990739999999991</v>
+        <v>0.02047860000000035</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4">
-        <v>37942</v>
+        <v>37941</v>
       </c>
       <c r="B139">
-        <v>101785.57</v>
+        <v>102047.86</v>
       </c>
       <c r="C139" s="1">
-        <v>-0.002011653214791798</v>
+        <v>0</v>
       </c>
       <c r="D139" s="1">
-        <v>0.01785569999999992</v>
+        <v>0.02047860000000035</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4">
-        <v>37943</v>
+        <v>37942</v>
       </c>
       <c r="B140">
-        <v>101496.82</v>
+        <v>101591.77</v>
       </c>
       <c r="C140" s="1">
-        <v>-0.002836846126616943</v>
+        <v>-0.004469373488086958</v>
       </c>
       <c r="D140" s="1">
-        <v>0.01496819999999999</v>
+        <v>0.01591770000000015</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4">
-        <v>37944</v>
+        <v>37943</v>
       </c>
       <c r="B141">
-        <v>101752.81</v>
+        <v>100917.08</v>
       </c>
       <c r="C141" s="1">
-        <v>0.002522147984537648</v>
+        <v>-0.00664118756863874</v>
       </c>
       <c r="D141" s="1">
-        <v>0.01752809999999982</v>
+        <v>0.009170800000000146</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4">
-        <v>37945</v>
+        <v>37944</v>
       </c>
       <c r="B142">
-        <v>101485.06</v>
+        <v>101684.17</v>
       </c>
       <c r="C142" s="1">
-        <v>-0.002631376961481413</v>
+        <v>0.007601190997599261</v>
       </c>
       <c r="D142" s="1">
-        <v>0.01485059999999994</v>
+        <v>0.01684170000000029</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4">
-        <v>37946</v>
+        <v>37945</v>
       </c>
       <c r="B143">
-        <v>101536.51</v>
+        <v>100882.82</v>
       </c>
       <c r="C143" s="1">
-        <v>0.0005069711738852067</v>
+        <v>-0.007880774362420295</v>
       </c>
       <c r="D143" s="1">
-        <v>0.01536510000000013</v>
+        <v>0.008828200000000397</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4">
-        <v>37947</v>
+        <v>37946</v>
       </c>
       <c r="B144">
-        <v>101536.51</v>
+        <v>100659.06</v>
       </c>
       <c r="C144" s="1">
-        <v>0</v>
+        <v>-0.002218018885673412</v>
       </c>
       <c r="D144" s="1">
-        <v>0.01536510000000013</v>
+        <v>0.006590600000000446</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4">
-        <v>37948</v>
+        <v>37947</v>
       </c>
       <c r="B145">
-        <v>101536.51</v>
+        <v>100659.06</v>
       </c>
       <c r="C145" s="1">
         <v>0</v>
       </c>
       <c r="D145" s="1">
-        <v>0.01536510000000013</v>
+        <v>0.006590600000000446</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4">
-        <v>37949</v>
+        <v>37948</v>
       </c>
       <c r="B146">
-        <v>102050.59</v>
+        <v>100659.06</v>
       </c>
       <c r="C146" s="1">
-        <v>0.005063006400357839</v>
+        <v>0</v>
       </c>
       <c r="D146" s="1">
-        <v>0.02050590000000008</v>
+        <v>0.006590600000000446</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4">
-        <v>37950</v>
+        <v>37949</v>
       </c>
       <c r="B147">
-        <v>102109.39</v>
+        <v>101981.63</v>
       </c>
       <c r="C147" s="1">
-        <v>0.000576184811866387</v>
+        <v>0.01313910541187235</v>
       </c>
       <c r="D147" s="1">
-        <v>0.02109390000000011</v>
+        <v>0.01981630000000023</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4">
-        <v>37951</v>
+        <v>37950</v>
       </c>
       <c r="B148">
-        <v>102254.5</v>
+        <v>101994.73</v>
       </c>
       <c r="C148" s="1">
-        <v>0.001421122974096578</v>
+        <v>0.0001284545069539789</v>
       </c>
       <c r="D148" s="1">
-        <v>0.02254500000000004</v>
+        <v>0.01994730000000033</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4">
-        <v>37952</v>
+        <v>37951</v>
       </c>
       <c r="B149">
-        <v>102254.5</v>
+        <v>102243.87</v>
       </c>
       <c r="C149" s="1">
-        <v>0</v>
+        <v>0.002442675224494373</v>
       </c>
       <c r="D149" s="1">
-        <v>0.02254500000000004</v>
+        <v>0.02243870000000037</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4">
-        <v>37953</v>
+        <v>37952</v>
       </c>
       <c r="B150">
-        <v>102247.57</v>
+        <v>102243.87</v>
       </c>
       <c r="C150" s="1">
-        <v>-6.777207849040234E-05</v>
+        <v>0</v>
       </c>
       <c r="D150" s="1">
-        <v>0.02247569999999999</v>
+        <v>0.02243870000000037</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4">
-        <v>37954</v>
+        <v>37953</v>
       </c>
       <c r="B151">
-        <v>102247.57</v>
+        <v>102159.15</v>
       </c>
       <c r="C151" s="1">
-        <v>0</v>
+        <v>-0.0008286071331219391</v>
       </c>
       <c r="D151" s="1">
-        <v>0.02247569999999999</v>
+        <v>0.02159150000000043</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4">
-        <v>37955</v>
+        <v>37954</v>
       </c>
       <c r="B152">
-        <v>102247.57</v>
+        <v>102159.15</v>
       </c>
       <c r="C152" s="1">
         <v>0</v>
       </c>
       <c r="D152" s="1">
-        <v>0.02247569999999999</v>
+        <v>0.02159150000000043</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4">
-        <v>37956</v>
+        <v>37955</v>
       </c>
       <c r="B153">
-        <v>102613.6</v>
+        <v>102159.15</v>
       </c>
       <c r="C153" s="1">
-        <v>0.003579840577140336</v>
+        <v>0</v>
       </c>
       <c r="D153" s="1">
-        <v>0.02613599999999994</v>
+        <v>0.02159150000000043</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4">
-        <v>37957</v>
+        <v>37956</v>
       </c>
       <c r="B154">
-        <v>102512</v>
+        <v>103137.15</v>
       </c>
       <c r="C154" s="1">
-        <v>-0.0009901221670421956</v>
+        <v>0.009573298133353614</v>
       </c>
       <c r="D154" s="1">
-        <v>0.02512000000000003</v>
+        <v>0.03137150000000033</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4">
-        <v>37958</v>
+        <v>37957</v>
       </c>
       <c r="B155">
-        <v>102470.06</v>
+        <v>102912.45</v>
       </c>
       <c r="C155" s="1">
-        <v>-0.0004091228343998665</v>
+        <v>-0.002178652406043757</v>
       </c>
       <c r="D155" s="1">
-        <v>0.02470060000000007</v>
+        <v>0.02912450000000044</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4">
-        <v>37959</v>
+        <v>37958</v>
       </c>
       <c r="B156">
-        <v>102602.9</v>
+        <v>102896.77</v>
       </c>
       <c r="C156" s="1">
-        <v>0.001296378669047193</v>
+        <v>-0.0001523625178490029</v>
       </c>
       <c r="D156" s="1">
-        <v>0.02602899999999986</v>
+        <v>0.02896770000000037</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4">
-        <v>37960</v>
+        <v>37959</v>
       </c>
       <c r="B157">
-        <v>102387.8</v>
+        <v>103194</v>
       </c>
       <c r="C157" s="1">
-        <v>-0.002096431972195667</v>
+        <v>0.002888623228892273</v>
       </c>
       <c r="D157" s="1">
-        <v>0.02387799999999984</v>
+        <v>0.0319400000000003</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4">
-        <v>37961</v>
+        <v>37960</v>
       </c>
       <c r="B158">
-        <v>102387.8</v>
+        <v>102796.45</v>
       </c>
       <c r="C158" s="1">
-        <v>0</v>
+        <v>-0.003852452661976202</v>
       </c>
       <c r="D158" s="1">
-        <v>0.02387799999999984</v>
+        <v>0.02796450000000061</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4">
-        <v>37962</v>
+        <v>37961</v>
       </c>
       <c r="B159">
-        <v>102387.8</v>
+        <v>102796.45</v>
       </c>
       <c r="C159" s="1">
         <v>0</v>
       </c>
       <c r="D159" s="1">
-        <v>0.02387799999999984</v>
+        <v>0.02796450000000061</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4">
-        <v>37963</v>
+        <v>37962</v>
       </c>
       <c r="B160">
-        <v>102593.72</v>
+        <v>102796.45</v>
       </c>
       <c r="C160" s="1">
-        <v>0.00201117711289811</v>
+        <v>0</v>
       </c>
       <c r="D160" s="1">
-        <v>0.02593719999999977</v>
+        <v>0.02796450000000061</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4">
-        <v>37964</v>
+        <v>37963</v>
       </c>
       <c r="B161">
-        <v>102354.68</v>
+        <v>103403.72</v>
       </c>
       <c r="C161" s="1">
-        <v>-0.0023299671753787</v>
+        <v>0.005907499723968979</v>
       </c>
       <c r="D161" s="1">
-        <v>0.02354679999999987</v>
+        <v>0.03403720000000043</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4">
-        <v>37965</v>
+        <v>37964</v>
       </c>
       <c r="B162">
-        <v>102330.02</v>
+        <v>102816.63</v>
       </c>
       <c r="C162" s="1">
-        <v>-0.000240926941494024</v>
+        <v>-0.005677648734494278</v>
       </c>
       <c r="D162" s="1">
-        <v>0.02330019999999977</v>
+        <v>0.02816630000000053</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4">
-        <v>37966</v>
+        <v>37965</v>
       </c>
       <c r="B163">
-        <v>102652.58</v>
+        <v>102655.53</v>
       </c>
       <c r="C163" s="1">
-        <v>0.003152154177239463</v>
+        <v>-0.001566867149798812</v>
       </c>
       <c r="D163" s="1">
-        <v>0.02652579999999971</v>
+        <v>0.02655530000000028</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4">
-        <v>37967</v>
+        <v>37966</v>
       </c>
       <c r="B164">
-        <v>102729.44</v>
+        <v>103460.88</v>
       </c>
       <c r="C164" s="1">
-        <v>0.0007487390964746599</v>
+        <v>0.007845169178903655</v>
       </c>
       <c r="D164" s="1">
-        <v>0.02729439999999972</v>
+        <v>0.03460880000000044</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4">
-        <v>37968</v>
+        <v>37967</v>
       </c>
       <c r="B165">
-        <v>102729.44</v>
+        <v>103636.39</v>
       </c>
       <c r="C165" s="1">
-        <v>0</v>
+        <v>0.001696389978511625</v>
       </c>
       <c r="D165" s="1">
-        <v>0.02729439999999972</v>
+        <v>0.03636390000000045</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4">
-        <v>37969</v>
+        <v>37968</v>
       </c>
       <c r="B166">
-        <v>102729.44</v>
+        <v>103636.39</v>
       </c>
       <c r="C166" s="1">
         <v>0</v>
       </c>
       <c r="D166" s="1">
-        <v>0.02729439999999972</v>
+        <v>0.03636390000000045</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4">
-        <v>37970</v>
+        <v>37969</v>
       </c>
       <c r="B167">
-        <v>102570.32</v>
+        <v>103636.39</v>
       </c>
       <c r="C167" s="1">
-        <v>-0.001548923074047637</v>
+        <v>0</v>
       </c>
       <c r="D167" s="1">
-        <v>0.0257031999999997</v>
+        <v>0.03636390000000045</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="4">
-        <v>37971</v>
+        <v>37970</v>
       </c>
       <c r="B168">
-        <v>102756.8</v>
+        <v>103333.33</v>
       </c>
       <c r="C168" s="1">
-        <v>0.001818069788609433</v>
+        <v>-0.002924262414003564</v>
       </c>
       <c r="D168" s="1">
-        <v>0.02756799999999981</v>
+        <v>0.03333330000000023</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="4">
-        <v>37972</v>
+        <v>37971</v>
       </c>
       <c r="B169">
-        <v>102795.14</v>
+        <v>103839.49</v>
       </c>
       <c r="C169" s="1">
-        <v>0.0003731139934290972</v>
+        <v>0.004898322738655647</v>
       </c>
       <c r="D169" s="1">
-        <v>0.02795139999999985</v>
+        <v>0.03839490000000034</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="4">
-        <v>37973</v>
+        <v>37972</v>
       </c>
       <c r="B170">
-        <v>103132.64</v>
+        <v>104050.97</v>
       </c>
       <c r="C170" s="1">
-        <v>0.003283229148770994</v>
+        <v>0.002036604763756111</v>
       </c>
       <c r="D170" s="1">
-        <v>0.03132639999999975</v>
+        <v>0.04050970000000031</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="4">
-        <v>37974</v>
+        <v>37973</v>
       </c>
       <c r="B171">
-        <v>103119.86</v>
+        <v>104856.86</v>
       </c>
       <c r="C171" s="1">
-        <v>-0.0001239180922741889</v>
+        <v>0.007745146441210382</v>
       </c>
       <c r="D171" s="1">
-        <v>0.03119859999999974</v>
+        <v>0.04856860000000029</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="4">
-        <v>37975</v>
+        <v>37974</v>
       </c>
       <c r="B172">
-        <v>103119.86</v>
+        <v>104825.57</v>
       </c>
       <c r="C172" s="1">
-        <v>0</v>
+        <v>-0.0002984067995168704</v>
       </c>
       <c r="D172" s="1">
-        <v>0.03119859999999974</v>
+        <v>0.04825570000000035</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="4">
-        <v>37976</v>
+        <v>37975</v>
       </c>
       <c r="B173">
-        <v>103119.86</v>
+        <v>104825.57</v>
       </c>
       <c r="C173" s="1">
         <v>0</v>
       </c>
       <c r="D173" s="1">
-        <v>0.03119859999999974</v>
+        <v>0.04825570000000035</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="4">
-        <v>37977</v>
+        <v>37976</v>
       </c>
       <c r="B174">
-        <v>103232.18</v>
+        <v>104825.57</v>
       </c>
       <c r="C174" s="1">
-        <v>0.001089217925625663</v>
+        <v>0</v>
       </c>
       <c r="D174" s="1">
-        <v>0.03232179999999985</v>
+        <v>0.04825570000000035</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="4">
-        <v>37978</v>
+        <v>37977</v>
       </c>
       <c r="B175">
-        <v>103313.18</v>
+        <v>105079.5</v>
       </c>
       <c r="C175" s="1">
-        <v>0.0007846390534425041</v>
+        <v>0.002422405144088424</v>
       </c>
       <c r="D175" s="1">
-        <v>0.03313179999999982</v>
+        <v>0.05079500000000037</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="4">
-        <v>37979</v>
+        <v>37978</v>
       </c>
       <c r="B176">
-        <v>103261.34</v>
+        <v>105340.68</v>
       </c>
       <c r="C176" s="1">
-        <v>-0.0005017752817211285</v>
+        <v>0.002485546657530646</v>
       </c>
       <c r="D176" s="1">
-        <v>0.03261339999999979</v>
+        <v>0.05340680000000031</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="4">
-        <v>37980</v>
+        <v>37979</v>
       </c>
       <c r="B177">
-        <v>103261.34</v>
+        <v>105293.94</v>
       </c>
       <c r="C177" s="1">
-        <v>0</v>
+        <v>-0.0004437032303189481</v>
       </c>
       <c r="D177" s="1">
-        <v>0.03261339999999979</v>
+        <v>0.0529394000000003</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="4">
-        <v>37981</v>
+        <v>37980</v>
       </c>
       <c r="B178">
-        <v>103309.94</v>
+        <v>105293.94</v>
       </c>
       <c r="C178" s="1">
-        <v>0.000470650487394364</v>
+        <v>0</v>
       </c>
       <c r="D178" s="1">
-        <v>0.03309939999999978</v>
+        <v>0.0529394000000003</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="4">
-        <v>37982</v>
+        <v>37981</v>
       </c>
       <c r="B179">
-        <v>103309.94</v>
+        <v>105394.08</v>
       </c>
       <c r="C179" s="1">
-        <v>0</v>
+        <v>0.0009510518838975468</v>
       </c>
       <c r="D179" s="1">
-        <v>0.03309939999999978</v>
+        <v>0.05394080000000034</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="4">
-        <v>37983</v>
+        <v>37982</v>
       </c>
       <c r="B180">
-        <v>103309.94</v>
+        <v>105394.08</v>
       </c>
       <c r="C180" s="1">
         <v>0</v>
       </c>
       <c r="D180" s="1">
-        <v>0.03309939999999978</v>
+        <v>0.05394080000000034</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="4">
-        <v>37984</v>
+        <v>37983</v>
       </c>
       <c r="B181">
-        <v>103677.32</v>
+        <v>105394.08</v>
       </c>
       <c r="C181" s="1">
-        <v>0.003556095376688884</v>
+        <v>0</v>
       </c>
       <c r="D181" s="1">
-        <v>0.03677319999999984</v>
+        <v>0.05394080000000034</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="4">
-        <v>37985</v>
+        <v>37984</v>
       </c>
       <c r="B182">
-        <v>103684.63</v>
+        <v>106377.18</v>
       </c>
       <c r="C182" s="1">
-        <v>7.05072237592308E-05</v>
+        <v>0.009327848395279892</v>
       </c>
       <c r="D182" s="1">
-        <v>0.03684629999999989</v>
+        <v>0.06377180000000027</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="4">
-        <v>37986</v>
+        <v>37985</v>
       </c>
       <c r="B183">
-        <v>103741.58</v>
+        <v>106496.83</v>
       </c>
       <c r="C183" s="1">
-        <v>0.0005492617372506725</v>
+        <v>0.001124771309034545</v>
       </c>
       <c r="D183" s="1">
-        <v>0.03741579999999978</v>
+        <v>0.06496830000000031</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="4">
-        <v>37987</v>
+        <v>37986</v>
       </c>
       <c r="B184">
-        <v>103741.58</v>
+        <v>106633.08</v>
       </c>
       <c r="C184" s="1">
-        <v>0</v>
+        <v>0.001279380804104724</v>
       </c>
       <c r="D184" s="1">
-        <v>0.03741579999999978</v>
+        <v>0.06633080000000025</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="4">
-        <v>37988</v>
+        <v>37987</v>
       </c>
       <c r="B185">
-        <v>103658.45</v>
+        <v>106633.08</v>
       </c>
       <c r="C185" s="1">
-        <v>-0.0008013180443173784</v>
+        <v>0</v>
       </c>
       <c r="D185" s="1">
-        <v>0.0365844999999998</v>
+        <v>0.06633080000000025</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="4">
-        <v>37989</v>
+        <v>37988</v>
       </c>
       <c r="B186">
-        <v>103658.45</v>
+        <v>106580.8</v>
       </c>
       <c r="C186" s="1">
-        <v>0</v>
+        <v>-0.0004902793767187497</v>
       </c>
       <c r="D186" s="1">
-        <v>0.0365844999999998</v>
+        <v>0.06580800000000031</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="4">
-        <v>37990</v>
+        <v>37989</v>
       </c>
       <c r="B187">
-        <v>103658.45</v>
+        <v>106580.8</v>
       </c>
       <c r="C187" s="1">
         <v>0</v>
       </c>
       <c r="D187" s="1">
-        <v>0.0365844999999998</v>
+        <v>0.06580800000000031</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="4">
-        <v>37991</v>
+        <v>37990</v>
       </c>
       <c r="B188">
-        <v>104019.35</v>
+        <v>106580.8</v>
       </c>
       <c r="C188" s="1">
-        <v>0.003481626437593865</v>
+        <v>0</v>
       </c>
       <c r="D188" s="1">
-        <v>0.04019349999999977</v>
+        <v>0.06580800000000031</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="4">
-        <v>37992</v>
+        <v>37991</v>
       </c>
       <c r="B189">
-        <v>104059.13</v>
+        <v>107162.38</v>
       </c>
       <c r="C189" s="1">
-        <v>0.0003824288461713454</v>
+        <v>0.005456705147643737</v>
       </c>
       <c r="D189" s="1">
-        <v>0.04059129999999977</v>
+        <v>0.07162380000000024</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="4">
-        <v>37993</v>
+        <v>37992</v>
       </c>
       <c r="B190">
-        <v>104136.35</v>
+        <v>107257.38</v>
       </c>
       <c r="C190" s="1">
-        <v>0.0007420780857960718</v>
+        <v>0.0008865051336113261</v>
       </c>
       <c r="D190" s="1">
-        <v>0.04136349999999989</v>
+        <v>0.07257380000000024</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="4">
-        <v>37994</v>
+        <v>37993</v>
       </c>
       <c r="B191">
-        <v>104284.49</v>
+        <v>107569.47</v>
       </c>
       <c r="C191" s="1">
-        <v>0.001422558021286546</v>
+        <v>0.002909729847960119</v>
       </c>
       <c r="D191" s="1">
-        <v>0.04284489999999996</v>
+        <v>0.07569470000000034</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="4">
-        <v>37995</v>
+        <v>37994</v>
       </c>
       <c r="B192">
-        <v>104020.0700000001</v>
+        <v>107598.7</v>
       </c>
       <c r="C192" s="1">
-        <v>-0.002535564013402158</v>
+        <v>0.0002717313750824069</v>
       </c>
       <c r="D192" s="1">
-        <v>0.04020069999999998</v>
+        <v>0.07598700000000025</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="4">
-        <v>37996</v>
+        <v>37995</v>
       </c>
       <c r="B193">
-        <v>104020.0700000001</v>
+        <v>106881.76</v>
       </c>
       <c r="C193" s="1">
-        <v>0</v>
+        <v>-0.006663091654453002</v>
       </c>
       <c r="D193" s="1">
-        <v>0.04020069999999998</v>
+        <v>0.06881760000000026</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="4">
-        <v>37997</v>
+        <v>37996</v>
       </c>
       <c r="B194">
-        <v>104020.0700000001</v>
+        <v>106881.76</v>
       </c>
       <c r="C194" s="1">
         <v>0</v>
       </c>
       <c r="D194" s="1">
-        <v>0.04020069999999998</v>
+        <v>0.06881760000000026</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="4">
-        <v>37998</v>
+        <v>37997</v>
       </c>
       <c r="B195">
-        <v>104162.0900000001</v>
+        <v>106881.76</v>
       </c>
       <c r="C195" s="1">
-        <v>0.001365313443838279</v>
+        <v>0</v>
       </c>
       <c r="D195" s="1">
-        <v>0.04162090000000007</v>
+        <v>0.06881760000000026</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="4">
-        <v>37999</v>
+        <v>37998</v>
       </c>
       <c r="B196">
-        <v>104005.49</v>
+        <v>107060.59</v>
       </c>
       <c r="C196" s="1">
-        <v>-0.001503426054527135</v>
+        <v>0.001673157328247576</v>
       </c>
       <c r="D196" s="1">
-        <v>0.04005490000000012</v>
+        <v>0.07060590000000033</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="4">
-        <v>38000</v>
+        <v>37999</v>
       </c>
       <c r="B197">
-        <v>104250.83</v>
+        <v>106739.24</v>
       </c>
       <c r="C197" s="1">
-        <v>0.002358913938100837</v>
+        <v>-0.003001571353193566</v>
       </c>
       <c r="D197" s="1">
-        <v>0.04250830000000017</v>
+        <v>0.06739240000000035</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="4">
-        <v>38001</v>
+        <v>38000</v>
       </c>
       <c r="B198">
-        <v>104291.33</v>
+        <v>107426.68</v>
       </c>
       <c r="C198" s="1">
-        <v>0.0003884861156500108</v>
+        <v>0.006440368134530638</v>
       </c>
       <c r="D198" s="1">
-        <v>0.04291330000000015</v>
+        <v>0.07426680000000063</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="4">
-        <v>38002</v>
+        <v>38001</v>
       </c>
       <c r="B199">
-        <v>104495.81</v>
+        <v>107401.29</v>
       </c>
       <c r="C199" s="1">
-        <v>0.001960661543006559</v>
+        <v>-0.0002363472463264848</v>
       </c>
       <c r="D199" s="1">
-        <v>0.04495810000000011</v>
+        <v>0.07401290000000071</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="4">
-        <v>38003</v>
+        <v>38002</v>
       </c>
       <c r="B200">
-        <v>104495.81</v>
+        <v>107722.17</v>
       </c>
       <c r="C200" s="1">
-        <v>0</v>
+        <v>0.002987673611741348</v>
       </c>
       <c r="D200" s="1">
-        <v>0.04495810000000011</v>
+        <v>0.07722170000000061</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="4">
-        <v>38004</v>
+        <v>38003</v>
       </c>
       <c r="B201">
-        <v>104495.81</v>
+        <v>107722.17</v>
       </c>
       <c r="C201" s="1">
         <v>0</v>
       </c>
       <c r="D201" s="1">
-        <v>0.04495810000000011</v>
+        <v>0.07722170000000061</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="4">
-        <v>38005</v>
+        <v>38004</v>
       </c>
       <c r="B202">
-        <v>104495.81</v>
+        <v>107722.17</v>
       </c>
       <c r="C202" s="1">
         <v>0</v>
       </c>
       <c r="D202" s="1">
-        <v>0.04495810000000011</v>
+        <v>0.07722170000000061</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="4">
-        <v>38006</v>
+        <v>38005</v>
       </c>
       <c r="B203">
-        <v>104468.0900000001</v>
+        <v>107722.17</v>
       </c>
       <c r="C203" s="1">
-        <v>-0.0002652737942314687</v>
+        <v>0</v>
       </c>
       <c r="D203" s="1">
-        <v>0.04468090000000013</v>
+        <v>0.07722170000000061</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="4">
-        <v>38007</v>
+        <v>38006</v>
       </c>
       <c r="B204">
-        <v>104702.81</v>
+        <v>107690.72</v>
       </c>
       <c r="C204" s="1">
-        <v>0.002246810485383444</v>
+        <v>-0.0002919547573169146</v>
       </c>
       <c r="D204" s="1">
-        <v>0.04702809999999991</v>
+        <v>0.07690720000000062</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="4">
-        <v>38008</v>
+        <v>38007</v>
       </c>
       <c r="B205">
-        <v>104606.69</v>
+        <v>108667.33</v>
       </c>
       <c r="C205" s="1">
-        <v>-0.0009180269373858518</v>
+        <v>0.009068655126458491</v>
       </c>
       <c r="D205" s="1">
-        <v>0.04606690000000002</v>
+        <v>0.08667330000000062</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="4">
-        <v>38009</v>
+        <v>38008</v>
       </c>
       <c r="B206">
-        <v>104544.23</v>
+        <v>108562.41</v>
       </c>
       <c r="C206" s="1">
-        <v>-0.000597093742283672</v>
+        <v>-0.0009655155786013614</v>
       </c>
       <c r="D206" s="1">
-        <v>0.04544229999999994</v>
+        <v>0.08562410000000042</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="4">
-        <v>38010</v>
+        <v>38009</v>
       </c>
       <c r="B207">
-        <v>104544.23</v>
+        <v>108474.16</v>
       </c>
       <c r="C207" s="1">
-        <v>0</v>
+        <v>-0.0008128964712555975</v>
       </c>
       <c r="D207" s="1">
-        <v>0.04544229999999994</v>
+        <v>0.08474160000000031</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="4">
-        <v>38011</v>
+        <v>38010</v>
       </c>
       <c r="B208">
-        <v>104544.23</v>
+        <v>108474.16</v>
       </c>
       <c r="C208" s="1">
         <v>0</v>
       </c>
       <c r="D208" s="1">
-        <v>0.04544229999999994</v>
+        <v>0.08474160000000031</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="4">
-        <v>38012</v>
+        <v>38011</v>
       </c>
       <c r="B209">
-        <v>104907.47</v>
+        <v>108474.16</v>
       </c>
       <c r="C209" s="1">
-        <v>0.003474510262307273</v>
+        <v>0</v>
       </c>
       <c r="D209" s="1">
-        <v>0.04907470000000003</v>
+        <v>0.08474160000000031</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="4">
-        <v>38013</v>
+        <v>38012</v>
       </c>
       <c r="B210">
-        <v>104609.9300000001</v>
+        <v>109376.67</v>
       </c>
       <c r="C210" s="1">
-        <v>-0.002836213665242227</v>
+        <v>0.008320045990676483</v>
       </c>
       <c r="D210" s="1">
-        <v>0.04609930000000007</v>
+        <v>0.0937667000000002</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="4">
-        <v>38014</v>
+        <v>38013</v>
       </c>
       <c r="B211">
-        <v>104205.47</v>
+        <v>108663.19</v>
       </c>
       <c r="C211" s="1">
-        <v>-0.003866363355754188</v>
+        <v>-0.006523146115163247</v>
       </c>
       <c r="D211" s="1">
-        <v>0.0420547</v>
+        <v>0.08663190000000021</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="4">
-        <v>38015</v>
+        <v>38014</v>
       </c>
       <c r="B212">
-        <v>104361.17</v>
+        <v>107883.03</v>
       </c>
       <c r="C212" s="1">
-        <v>0.001494163406201121</v>
+        <v>-0.007179616206739237</v>
       </c>
       <c r="D212" s="1">
-        <v>0.04361169999999981</v>
+        <v>0.07883030000000035</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="4">
-        <v>38016</v>
+        <v>38015</v>
       </c>
       <c r="B213">
-        <v>104282.69</v>
+        <v>108794.39</v>
       </c>
       <c r="C213" s="1">
-        <v>-0.0007520038343762359</v>
+        <v>0.008447667812073734</v>
       </c>
       <c r="D213" s="1">
-        <v>0.04282689999999989</v>
+        <v>0.08794390000000019</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="4">
-        <v>38017</v>
+        <v>38016</v>
       </c>
       <c r="B214">
-        <v>104282.69</v>
+        <v>108385.82</v>
       </c>
       <c r="C214" s="1">
-        <v>0</v>
+        <v>-0.003755432610082265</v>
       </c>
       <c r="D214" s="1">
-        <v>0.04282689999999989</v>
+        <v>0.0838582000000001</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="4">
-        <v>38018</v>
+        <v>38017</v>
       </c>
       <c r="B215">
-        <v>104282.69</v>
+        <v>108385.82</v>
       </c>
       <c r="C215" s="1">
         <v>0</v>
       </c>
       <c r="D215" s="1">
-        <v>0.04282689999999989</v>
+        <v>0.0838582000000001</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="4">
-        <v>38019</v>
+        <v>38018</v>
       </c>
       <c r="B216">
-        <v>104391.77</v>
+        <v>108385.82</v>
       </c>
       <c r="C216" s="1">
-        <v>0.001046002936824886</v>
+        <v>0</v>
       </c>
       <c r="D216" s="1">
-        <v>0.04391769999999995</v>
+        <v>0.0838582000000001</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="4">
-        <v>38020</v>
+        <v>38019</v>
       </c>
       <c r="B217">
-        <v>104414.3700000001</v>
+        <v>108965.48</v>
       </c>
       <c r="C217" s="1">
-        <v>0.0002164921621694571</v>
+        <v>0.005348116570968342</v>
       </c>
       <c r="D217" s="1">
-        <v>0.04414370000000001</v>
+        <v>0.08965479999999992</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="4">
-        <v>38021</v>
+        <v>38020</v>
       </c>
       <c r="B218">
-        <v>104141.7700000001</v>
+        <v>109288.35</v>
       </c>
       <c r="C218" s="1">
-        <v>-0.002610751757636365</v>
+        <v>0.002963048481041675</v>
       </c>
       <c r="D218" s="1">
-        <v>0.0414177</v>
+        <v>0.09288349999999967</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="4">
-        <v>38022</v>
+        <v>38021</v>
       </c>
       <c r="B219">
-        <v>104202.9700000001</v>
+        <v>109134.52</v>
       </c>
       <c r="C219" s="1">
-        <v>0.000587660455550143</v>
+        <v>-0.001407560824186582</v>
       </c>
       <c r="D219" s="1">
-        <v>0.04202970000000006</v>
+        <v>0.09134519999999968</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="4">
-        <v>38023</v>
+        <v>38022</v>
       </c>
       <c r="B220">
-        <v>104618.7700000001</v>
+        <v>109191.27</v>
       </c>
       <c r="C220" s="1">
-        <v>0.003990289336282871</v>
+        <v>0.0005200004544849701</v>
       </c>
       <c r="D220" s="1">
-        <v>0.04618770000000016</v>
+        <v>0.09191269999999974</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="4">
-        <v>38024</v>
+        <v>38023</v>
       </c>
       <c r="B221">
-        <v>104618.7700000001</v>
+        <v>110073.65</v>
       </c>
       <c r="C221" s="1">
-        <v>0</v>
+        <v>0.008081048970306925</v>
       </c>
       <c r="D221" s="1">
-        <v>0.04618770000000016</v>
+        <v>0.1007364999999998</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="4">
-        <v>38025</v>
+        <v>38024</v>
       </c>
       <c r="B222">
-        <v>104618.7700000001</v>
+        <v>110073.65</v>
       </c>
       <c r="C222" s="1">
         <v>0</v>
       </c>
       <c r="D222" s="1">
-        <v>0.04618770000000016</v>
+        <v>0.1007364999999998</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="4">
-        <v>38026</v>
+        <v>38025</v>
       </c>
       <c r="B223">
-        <v>104539.1700000001</v>
+        <v>110073.65</v>
       </c>
       <c r="C223" s="1">
-        <v>-0.000760857731361142</v>
+        <v>0</v>
       </c>
       <c r="D223" s="1">
-        <v>0.04539170000000015</v>
+        <v>0.1007364999999998</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="4">
-        <v>38027</v>
+        <v>38026</v>
       </c>
       <c r="B224">
-        <v>104706.9700000001</v>
+        <v>109813.69</v>
       </c>
       <c r="C224" s="1">
-        <v>0.001605139968109404</v>
+        <v>-0.002361691467485549</v>
       </c>
       <c r="D224" s="1">
-        <v>0.04706969999999999</v>
+        <v>0.09813689999999986</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="4">
-        <v>38028</v>
+        <v>38027</v>
       </c>
       <c r="B225">
-        <v>105076.5700000001</v>
+        <v>110261.77</v>
       </c>
       <c r="C225" s="1">
-        <v>0.003529850973626791</v>
+        <v>0.004080365571906164</v>
       </c>
       <c r="D225" s="1">
-        <v>0.05076570000000014</v>
+        <v>0.1026176999999997</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="4">
-        <v>38029</v>
+        <v>38028</v>
       </c>
       <c r="B226">
-        <v>104914.3700000001</v>
+        <v>110932.12</v>
       </c>
       <c r="C226" s="1">
-        <v>-0.001543636226420508</v>
+        <v>0.006079623064276785</v>
       </c>
       <c r="D226" s="1">
-        <v>0.04914370000000012</v>
+        <v>0.1093211999999995</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="4">
-        <v>38030</v>
+        <v>38029</v>
       </c>
       <c r="B227">
-        <v>104733.1700000001</v>
+        <v>110550.99</v>
       </c>
       <c r="C227" s="1">
-        <v>-0.001727122795475933</v>
+        <v>-0.003435704645327164</v>
       </c>
       <c r="D227" s="1">
-        <v>0.0473317000000002</v>
+        <v>0.1055098999999995</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="4">
-        <v>38031</v>
+        <v>38030</v>
       </c>
       <c r="B228">
-        <v>104733.1700000001</v>
+        <v>110065.59</v>
       </c>
       <c r="C228" s="1">
-        <v>0</v>
+        <v>-0.004390734085692016</v>
       </c>
       <c r="D228" s="1">
-        <v>0.0473317000000002</v>
+        <v>0.1006558999999996</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="4">
-        <v>38032</v>
+        <v>38031</v>
       </c>
       <c r="B229">
-        <v>104733.1700000001</v>
+        <v>110065.59</v>
       </c>
       <c r="C229" s="1">
         <v>0</v>
       </c>
       <c r="D229" s="1">
-        <v>0.0473317000000002</v>
+        <v>0.1006558999999996</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="4">
-        <v>38033</v>
+        <v>38032</v>
       </c>
       <c r="B230">
-        <v>104733.1700000001</v>
+        <v>110065.59</v>
       </c>
       <c r="C230" s="1">
         <v>0</v>
       </c>
       <c r="D230" s="1">
-        <v>0.0473317000000002</v>
+        <v>0.1006558999999996</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="4">
-        <v>38034</v>
+        <v>38033</v>
       </c>
       <c r="B231">
-        <v>105060.3700000001</v>
+        <v>110065.59</v>
       </c>
       <c r="C231" s="1">
-        <v>0.003124129633429451</v>
+        <v>0</v>
       </c>
       <c r="D231" s="1">
-        <v>0.05060370000000014</v>
+        <v>0.1006558999999996</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="4">
-        <v>38035</v>
+        <v>38034</v>
       </c>
       <c r="B232">
-        <v>104913.9700000001</v>
+        <v>110836.59</v>
       </c>
       <c r="C232" s="1">
-        <v>-0.001393484527039024</v>
+        <v>0.007004914069874246</v>
       </c>
       <c r="D232" s="1">
-        <v>0.04913970000000023</v>
+        <v>0.1083658999999997</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="4">
-        <v>38036</v>
+        <v>38035</v>
       </c>
       <c r="B233">
-        <v>104776.1700000001</v>
+        <v>110523.63</v>
       </c>
       <c r="C233" s="1">
-        <v>-0.001313457111574379</v>
+        <v>-0.002823616280508201</v>
       </c>
       <c r="D233" s="1">
-        <v>0.04776170000000013</v>
+        <v>0.1052362999999996</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="4">
-        <v>38037</v>
+        <v>38036</v>
       </c>
       <c r="B234">
-        <v>104690.1700000001</v>
+        <v>110395.43</v>
       </c>
       <c r="C234" s="1">
-        <v>-0.0008207973244297451</v>
+        <v>-0.001159932948275433</v>
       </c>
       <c r="D234" s="1">
-        <v>0.04690170000000027</v>
+        <v>0.1039542999999996</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="4">
-        <v>38038</v>
+        <v>38037</v>
       </c>
       <c r="B235">
-        <v>104690.1700000001</v>
+        <v>110339.51</v>
       </c>
       <c r="C235" s="1">
-        <v>0</v>
+        <v>-0.000506542707429114</v>
       </c>
       <c r="D235" s="1">
-        <v>0.04690170000000027</v>
+        <v>0.1033950999999995</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="4">
-        <v>38039</v>
+        <v>38038</v>
       </c>
       <c r="B236">
-        <v>104690.1700000001</v>
+        <v>110339.51</v>
       </c>
       <c r="C236" s="1">
         <v>0</v>
       </c>
       <c r="D236" s="1">
-        <v>0.04690170000000027</v>
+        <v>0.1033950999999995</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="4">
-        <v>38040</v>
+        <v>38039</v>
       </c>
       <c r="B237">
-        <v>104599.9700000001</v>
+        <v>110339.51</v>
       </c>
       <c r="C237" s="1">
-        <v>-0.0008615899658964699</v>
+        <v>0</v>
       </c>
       <c r="D237" s="1">
-        <v>0.04599970000000031</v>
+        <v>0.1033950999999995</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="4">
-        <v>38041</v>
+        <v>38040</v>
       </c>
       <c r="B238">
-        <v>104544.3700000001</v>
+        <v>110287.31</v>
       </c>
       <c r="C238" s="1">
-        <v>-0.0005315489096221482</v>
+        <v>-0.0004730852982761657</v>
       </c>
       <c r="D238" s="1">
-        <v>0.04544370000000031</v>
+        <v>0.1028730999999996</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="4">
-        <v>38042</v>
+        <v>38041</v>
       </c>
       <c r="B239">
-        <v>104682.77</v>
+        <v>110161.51</v>
       </c>
       <c r="C239" s="1">
-        <v>0.001323839820355666</v>
+        <v>-0.001140657071063034</v>
       </c>
       <c r="D239" s="1">
-        <v>0.04682770000000036</v>
+        <v>0.1016150999999994</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="4">
-        <v>38043</v>
+        <v>38042</v>
       </c>
       <c r="B240">
-        <v>104728.5700000001</v>
+        <v>110473.03</v>
       </c>
       <c r="C240" s="1">
-        <v>0.0004375123050337493</v>
+        <v>0.002827847947981299</v>
       </c>
       <c r="D240" s="1">
-        <v>0.04728570000000043</v>
+        <v>0.1047302999999997</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="4">
-        <v>38044</v>
+        <v>38043</v>
       </c>
       <c r="B241">
-        <v>104729.9700000001</v>
+        <v>110532.87</v>
       </c>
       <c r="C241" s="1">
-        <v>1.336788996542104E-05</v>
+        <v>0.0005416706683973871</v>
       </c>
       <c r="D241" s="1">
-        <v>0.04729970000000039</v>
+        <v>0.1053286999999996</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="4">
-        <v>38045</v>
+        <v>38044</v>
       </c>
       <c r="B242">
-        <v>104729.9700000001</v>
+        <v>110579.7</v>
       </c>
       <c r="C242" s="1">
-        <v>0</v>
+        <v>0.0004236748760799713</v>
       </c>
       <c r="D242" s="1">
-        <v>0.04729970000000039</v>
+        <v>0.1057969999999997</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="4">
-        <v>38046</v>
+        <v>38045</v>
       </c>
       <c r="B243">
-        <v>104729.9700000001</v>
+        <v>110579.7</v>
       </c>
       <c r="C243" s="1">
         <v>0</v>
       </c>
       <c r="D243" s="1">
-        <v>0.04729970000000039</v>
+        <v>0.1057969999999997</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="4">
-        <v>38047</v>
+        <v>38046</v>
       </c>
       <c r="B244">
-        <v>105053.9700000001</v>
+        <v>110579.7</v>
       </c>
       <c r="C244" s="1">
-        <v>0.003093670321876241</v>
+        <v>0</v>
       </c>
       <c r="D244" s="1">
-        <v>0.0505397000000003</v>
+        <v>0.1057969999999997</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="4">
-        <v>38048</v>
+        <v>38047</v>
       </c>
       <c r="B245">
-        <v>104853.5700000001</v>
+        <v>111390.38</v>
       </c>
       <c r="C245" s="1">
-        <v>-0.001907590926835012</v>
+        <v>0.007331182848208107</v>
       </c>
       <c r="D245" s="1">
-        <v>0.0485357000000004</v>
+        <v>0.1139037999999997</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="4">
-        <v>38049</v>
+        <v>38048</v>
       </c>
       <c r="B246">
-        <v>104916.0800000001</v>
+        <v>110740.06</v>
       </c>
       <c r="C246" s="1">
-        <v>0.0005961647276293558</v>
+        <v>-0.005838206135933777</v>
       </c>
       <c r="D246" s="1">
-        <v>0.04916080000000056</v>
+        <v>0.1074005999999996</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="4">
-        <v>38050</v>
+        <v>38049</v>
       </c>
       <c r="B247">
-        <v>105023.6200000001</v>
+        <v>111049.37</v>
       </c>
       <c r="C247" s="1">
-        <v>0.001025009702992907</v>
+        <v>0.002793117504180653</v>
       </c>
       <c r="D247" s="1">
-        <v>0.05023620000000029</v>
+        <v>0.1104936999999997</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="4">
-        <v>38051</v>
+        <v>38050</v>
       </c>
       <c r="B248">
-        <v>105076.36</v>
+        <v>111276.92</v>
       </c>
       <c r="C248" s="1">
-        <v>0.0005021727493299544</v>
+        <v>0.00204908861707187</v>
       </c>
       <c r="D248" s="1">
-        <v>0.05076360000000002</v>
+        <v>0.1127691999999998</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="4">
-        <v>38052</v>
+        <v>38051</v>
       </c>
       <c r="B249">
-        <v>105076.36</v>
+        <v>111572.25</v>
       </c>
       <c r="C249" s="1">
-        <v>0</v>
+        <v>0.002654009474741148</v>
       </c>
       <c r="D249" s="1">
-        <v>0.05076360000000002</v>
+        <v>0.1157225</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="4">
-        <v>38053</v>
+        <v>38052</v>
       </c>
       <c r="B250">
-        <v>105076.36</v>
+        <v>111572.25</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
       </c>
       <c r="D250" s="1">
-        <v>0.05076360000000002</v>
+        <v>0.1157225</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="4">
-        <v>38054</v>
+        <v>38053</v>
       </c>
       <c r="B251">
-        <v>104824.0000000001</v>
+        <v>111572.25</v>
       </c>
       <c r="C251" s="1">
-        <v>-0.002401681976802239</v>
+        <v>0</v>
       </c>
       <c r="D251" s="1">
-        <v>0.04824000000000028</v>
+        <v>0.1157225</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="4">
-        <v>38055</v>
+        <v>38054</v>
       </c>
       <c r="B252">
-        <v>104649.94</v>
+        <v>111172.15</v>
       </c>
       <c r="C252" s="1">
-        <v>-0.001660497595970534</v>
+        <v>-0.003586017132396369</v>
       </c>
       <c r="D252" s="1">
-        <v>0.04649940000000008</v>
+        <v>0.1117214999999998</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="4">
-        <v>38056</v>
+        <v>38055</v>
       </c>
       <c r="B253">
-        <v>104212.9000000001</v>
+        <v>110721.5</v>
       </c>
       <c r="C253" s="1">
-        <v>-0.00417620879667957</v>
+        <v>-0.004053623142126983</v>
       </c>
       <c r="D253" s="1">
-        <v>0.04212900000000008</v>
+        <v>0.1072149999999996</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="4">
-        <v>38057</v>
+        <v>38056</v>
       </c>
       <c r="B254">
-        <v>103770.4600000001</v>
+        <v>109558.91</v>
       </c>
       <c r="C254" s="1">
-        <v>-0.004245539659677444</v>
+        <v>-0.01050012870129102</v>
       </c>
       <c r="D254" s="1">
-        <v>0.03770460000000009</v>
+        <v>0.09558909999999976</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="4">
-        <v>38058</v>
+        <v>38057</v>
       </c>
       <c r="B255">
-        <v>104134.24</v>
+        <v>107956.52</v>
       </c>
       <c r="C255" s="1">
-        <v>0.00350562192747339</v>
+        <v>-0.01462583006712992</v>
       </c>
       <c r="D255" s="1">
-        <v>0.0413424</v>
+        <v>0.0795652</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="4">
-        <v>38059</v>
+        <v>38058</v>
       </c>
       <c r="B256">
-        <v>104134.24</v>
+        <v>108683.9</v>
       </c>
       <c r="C256" s="1">
-        <v>0</v>
+        <v>0.00673771255316491</v>
       </c>
       <c r="D256" s="1">
-        <v>0.0413424</v>
+        <v>0.08683899999999989</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="4">
-        <v>38060</v>
+        <v>38059</v>
       </c>
       <c r="B257">
-        <v>104134.24</v>
+        <v>108683.9</v>
       </c>
       <c r="C257" s="1">
         <v>0</v>
       </c>
       <c r="D257" s="1">
-        <v>0.0413424</v>
+        <v>0.08683899999999989</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="4">
-        <v>38061</v>
+        <v>38060</v>
       </c>
       <c r="B258">
-        <v>103711.0600000001</v>
+        <v>108683.9</v>
       </c>
       <c r="C258" s="1">
-        <v>-0.004063793042518915</v>
+        <v>0</v>
       </c>
       <c r="D258" s="1">
-        <v>0.0371106000000001</v>
+        <v>0.08683899999999989</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="4">
-        <v>38062</v>
+        <v>38061</v>
       </c>
       <c r="B259">
-        <v>103875.2200000001</v>
+        <v>107632.42</v>
       </c>
       <c r="C259" s="1">
-        <v>0.001582859147327254</v>
+        <v>-0.009674662024458214</v>
       </c>
       <c r="D259" s="1">
-        <v>0.03875220000000024</v>
+        <v>0.07632419999999973</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="4">
-        <v>38063</v>
+        <v>38062</v>
       </c>
       <c r="B260">
-        <v>104221.9000000001</v>
+        <v>108072.71</v>
       </c>
       <c r="C260" s="1">
-        <v>0.003337465855667965</v>
+        <v>0.004090681971101295</v>
       </c>
       <c r="D260" s="1">
-        <v>0.04221900000000023</v>
+        <v>0.08072709999999983</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="4">
-        <v>38064</v>
+        <v>38063</v>
       </c>
       <c r="B261">
-        <v>104184.4600000001</v>
+        <v>109062.37</v>
       </c>
       <c r="C261" s="1">
-        <v>-0.0003592335200183205</v>
+        <v>0.009157353415121916</v>
       </c>
       <c r="D261" s="1">
-        <v>0.04184460000000034</v>
+        <v>0.09062369999999964</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="4">
-        <v>38065</v>
+        <v>38064</v>
       </c>
       <c r="B262">
-        <v>103853.8</v>
+        <v>108923.23</v>
       </c>
       <c r="C262" s="1">
-        <v>-0.003173793865227204</v>
+        <v>-0.001275783755661952</v>
       </c>
       <c r="D262" s="1">
-        <v>0.03853800000000018</v>
+        <v>0.08923229999999971</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="4">
-        <v>38066</v>
+        <v>38065</v>
       </c>
       <c r="B263">
-        <v>103853.8</v>
+        <v>108056.39</v>
       </c>
       <c r="C263" s="1">
-        <v>0</v>
+        <v>-0.007958265651872298</v>
       </c>
       <c r="D263" s="1">
-        <v>0.03853800000000018</v>
+        <v>0.0805638999999998</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="4">
-        <v>38067</v>
+        <v>38066</v>
       </c>
       <c r="B264">
-        <v>103853.8</v>
+        <v>108056.39</v>
       </c>
       <c r="C264" s="1">
         <v>0</v>
       </c>
       <c r="D264" s="1">
-        <v>0.03853800000000018</v>
+        <v>0.0805638999999998</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="4">
-        <v>38068</v>
+        <v>38067</v>
       </c>
       <c r="B265">
-        <v>103475.08</v>
+        <v>108056.39</v>
       </c>
       <c r="C265" s="1">
-        <v>-0.003646664830752488</v>
+        <v>0</v>
       </c>
       <c r="D265" s="1">
-        <v>0.03475080000000008</v>
+        <v>0.0805638999999998</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="4">
-        <v>38069</v>
+        <v>38068</v>
       </c>
       <c r="B266">
-        <v>103436.74</v>
+        <v>106923.63</v>
       </c>
       <c r="C266" s="1">
-        <v>-0.0003705239947627836</v>
+        <v>-0.01048304501010999</v>
       </c>
       <c r="D266" s="1">
-        <v>0.03436740000000005</v>
+        <v>0.06923629999999981</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="4">
-        <v>38070</v>
+        <v>38069</v>
       </c>
       <c r="B267">
-        <v>103367.9800000001</v>
+        <v>106887.69</v>
       </c>
       <c r="C267" s="1">
-        <v>-0.0006647541289487302</v>
+        <v>-0.0003361277577276223</v>
       </c>
       <c r="D267" s="1">
-        <v>0.03367980000000004</v>
+        <v>0.0688768999999998</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="4">
-        <v>38071</v>
+        <v>38070</v>
       </c>
       <c r="B268">
-        <v>103838.86</v>
+        <v>106652.88</v>
       </c>
       <c r="C268" s="1">
-        <v>0.004555375852367316</v>
+        <v>-0.002196791791459152</v>
       </c>
       <c r="D268" s="1">
-        <v>0.03838859999999999</v>
+        <v>0.0665287999999995</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="4">
-        <v>38072</v>
+        <v>38071</v>
       </c>
       <c r="B269">
-        <v>103809.16</v>
+        <v>107757.0100000001</v>
       </c>
       <c r="C269" s="1">
-        <v>-0.0002860200892035314</v>
+        <v>0.01035255681796898</v>
       </c>
       <c r="D269" s="1">
-        <v>0.0380916</v>
+        <v>0.07757009999999975</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="4">
-        <v>38073</v>
+        <v>38072</v>
       </c>
       <c r="B270">
-        <v>103809.16</v>
+        <v>107647.62</v>
       </c>
       <c r="C270" s="1">
-        <v>0</v>
+        <v>-0.001015154373715577</v>
       </c>
       <c r="D270" s="1">
-        <v>0.0380916</v>
+        <v>0.07647619999999966</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="4">
-        <v>38074</v>
+        <v>38073</v>
       </c>
       <c r="B271">
-        <v>103809.16</v>
+        <v>107647.62</v>
       </c>
       <c r="C271" s="1">
         <v>0</v>
       </c>
       <c r="D271" s="1">
-        <v>0.0380916</v>
+        <v>0.07647619999999966</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="4">
-        <v>38075</v>
+        <v>38074</v>
       </c>
       <c r="B272">
-        <v>104194.1800000001</v>
+        <v>107647.62</v>
       </c>
       <c r="C272" s="1">
-        <v>0.003708921255118458</v>
+        <v>0</v>
       </c>
       <c r="D272" s="1">
-        <v>0.04194180000000003</v>
+        <v>0.07647619999999966</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="4">
-        <v>38076</v>
+        <v>38075</v>
       </c>
       <c r="B273">
-        <v>104314.4200000001</v>
+        <v>108825.82</v>
       </c>
       <c r="C273" s="1">
-        <v>0.001153999196500166</v>
+        <v>0.01094497026501839</v>
       </c>
       <c r="D273" s="1">
-        <v>0.04314419999999997</v>
+        <v>0.08825819999999962</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="4">
-        <v>38077</v>
+        <v>38076</v>
       </c>
       <c r="B274">
-        <v>104296.24</v>
+        <v>109159.96</v>
       </c>
       <c r="C274" s="1">
-        <v>-0.0001742807945440683</v>
+        <v>0.00307041104767225</v>
       </c>
       <c r="D274" s="1">
-        <v>0.04296239999999996</v>
+        <v>0.09159959999999945</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="4">
-        <v>38078</v>
+        <v>38077</v>
       </c>
       <c r="B275">
-        <v>104453.5600000001</v>
+        <v>109212.28</v>
       </c>
       <c r="C275" s="1">
-        <v>0.00150839570055461</v>
+        <v>0.0004792966212154859</v>
       </c>
       <c r="D275" s="1">
-        <v>0.04453560000000012</v>
+        <v>0.09212279999999962</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="4">
-        <v>38079</v>
+        <v>38078</v>
       </c>
       <c r="B276">
-        <v>104710.0600000001</v>
+        <v>109659.8</v>
       </c>
       <c r="C276" s="1">
-        <v>0.00245563674421434</v>
+        <v>0.004097707693676789</v>
       </c>
       <c r="D276" s="1">
-        <v>0.04710060000000005</v>
+        <v>0.09659799999999952</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="4">
-        <v>38080</v>
+        <v>38079</v>
       </c>
       <c r="B277">
-        <v>104710.0600000001</v>
+        <v>110203.47</v>
       </c>
       <c r="C277" s="1">
-        <v>0</v>
+        <v>0.004957787630471611</v>
       </c>
       <c r="D277" s="1">
-        <v>0.04710060000000005</v>
+        <v>0.1020346999999995</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="4">
-        <v>38081</v>
+        <v>38080</v>
       </c>
       <c r="B278">
-        <v>104710.0600000001</v>
+        <v>110203.47</v>
       </c>
       <c r="C278" s="1">
         <v>0</v>
       </c>
       <c r="D278" s="1">
-        <v>0.04710060000000005</v>
+        <v>0.1020346999999995</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="4">
-        <v>38082</v>
+        <v>38081</v>
       </c>
       <c r="B279">
-        <v>104915.3400000001</v>
+        <v>110203.47</v>
       </c>
       <c r="C279" s="1">
-        <v>0.001960461105647404</v>
+        <v>0</v>
       </c>
       <c r="D279" s="1">
-        <v>0.04915340000000001</v>
+        <v>0.1020346999999995</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="4">
-        <v>38083</v>
+        <v>38082</v>
       </c>
       <c r="B280">
-        <v>104867.1800000001</v>
+        <v>110884.31</v>
       </c>
       <c r="C280" s="1">
-        <v>-0.0004590367814659713</v>
+        <v>0.006178026880641951</v>
       </c>
       <c r="D280" s="1">
-        <v>0.04867179999999993</v>
+        <v>0.1088430999999996</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="4">
-        <v>38084</v>
+        <v>38083</v>
       </c>
       <c r="B281">
-        <v>104689.7400000001</v>
+        <v>110875.43</v>
       </c>
       <c r="C281" s="1">
-        <v>-0.001692045118405816</v>
+        <v>-8.008346717403025E-05</v>
       </c>
       <c r="D281" s="1">
-        <v>0.0468974000000002</v>
+        <v>0.1087542999999997</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="4">
-        <v>38085</v>
+        <v>38084</v>
       </c>
       <c r="B282">
-        <v>104661.2600000001</v>
+        <v>110219.53</v>
       </c>
       <c r="C282" s="1">
-        <v>-0.0002720419403087204</v>
+        <v>-0.005915647858141249</v>
       </c>
       <c r="D282" s="1">
-        <v>0.0466126</v>
+        <v>0.1021952999999998</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="4">
-        <v>38086</v>
+        <v>38085</v>
       </c>
       <c r="B283">
-        <v>104661.2600000001</v>
+        <v>109830.5600000001</v>
       </c>
       <c r="C283" s="1">
-        <v>0</v>
+        <v>-0.003529047891966064</v>
       </c>
       <c r="D283" s="1">
-        <v>0.0466126</v>
+        <v>0.09830559999999977</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="4">
-        <v>38087</v>
+        <v>38086</v>
       </c>
       <c r="B284">
-        <v>104661.2600000001</v>
+        <v>109830.5600000001</v>
       </c>
       <c r="C284" s="1">
         <v>0</v>
       </c>
       <c r="D284" s="1">
-        <v>0.0466126</v>
+        <v>0.09830559999999977</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="4">
-        <v>38088</v>
+        <v>38087</v>
       </c>
       <c r="B285">
-        <v>104661.2600000001</v>
+        <v>109830.5600000001</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
       </c>
       <c r="D285" s="1">
-        <v>0.0466126</v>
+        <v>0.09830559999999977</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="4">
-        <v>38089</v>
+        <v>38088</v>
       </c>
       <c r="B286">
-        <v>104799.8200000001</v>
+        <v>109830.5600000001</v>
       </c>
       <c r="C286" s="1">
-        <v>0.001323890042982612</v>
+        <v>0</v>
       </c>
       <c r="D286" s="1">
-        <v>0.0479982000000001</v>
+        <v>0.09830559999999977</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="4">
-        <v>38090</v>
+        <v>38089</v>
       </c>
       <c r="B287">
-        <v>104431.3400000001</v>
+        <v>109927.38</v>
       </c>
       <c r="C287" s="1">
-        <v>-0.003516036573345316</v>
+        <v>0.0008815397098949074</v>
       </c>
       <c r="D287" s="1">
-        <v>0.04431340000000006</v>
+        <v>0.09927379999999975</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="4">
-        <v>38091</v>
+        <v>38090</v>
       </c>
       <c r="B288">
-        <v>104402.2200000001</v>
+        <v>108644.56</v>
       </c>
       <c r="C288" s="1">
-        <v>-0.0002788434965977915</v>
+        <v>-0.01166970412648793</v>
       </c>
       <c r="D288" s="1">
-        <v>0.04402220000000012</v>
+        <v>0.08644559999999957</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="4">
-        <v>38092</v>
+        <v>38091</v>
       </c>
       <c r="B289">
-        <v>104417.9000000001</v>
+        <v>108990.74</v>
       </c>
       <c r="C289" s="1">
-        <v>0.0001501883772203616</v>
+        <v>0.003186353739202508</v>
       </c>
       <c r="D289" s="1">
-        <v>0.04417900000000019</v>
+        <v>0.08990739999999975</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="4">
-        <v>38093</v>
+        <v>38092</v>
       </c>
       <c r="B290">
-        <v>104553.4200000001</v>
+        <v>109868.5500000001</v>
       </c>
       <c r="C290" s="1">
-        <v>0.00129786176508051</v>
+        <v>0.008053986971737315</v>
       </c>
       <c r="D290" s="1">
-        <v>0.0455342000000003</v>
+        <v>0.09868549999999976</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="4">
-        <v>38094</v>
+        <v>38093</v>
       </c>
       <c r="B291">
-        <v>104553.4200000001</v>
+        <v>110542.3100000001</v>
       </c>
       <c r="C291" s="1">
-        <v>0</v>
+        <v>0.006132419149974977</v>
       </c>
       <c r="D291" s="1">
-        <v>0.0455342000000003</v>
+        <v>0.1054230999999997</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="4">
-        <v>38095</v>
+        <v>38094</v>
       </c>
       <c r="B292">
-        <v>104553.4200000001</v>
+        <v>110542.3100000001</v>
       </c>
       <c r="C292" s="1">
         <v>0</v>
       </c>
       <c r="D292" s="1">
-        <v>0.0455342000000003</v>
+        <v>0.1054230999999997</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="4">
-        <v>38096</v>
+        <v>38095</v>
       </c>
       <c r="B293">
-        <v>104581.9000000001</v>
+        <v>110542.3100000001</v>
       </c>
       <c r="C293" s="1">
-        <v>0.0002723966370492548</v>
+        <v>0</v>
       </c>
       <c r="D293" s="1">
-        <v>0.04581900000000028</v>
+        <v>0.1054230999999997</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="4">
-        <v>38097</v>
+        <v>38096</v>
       </c>
       <c r="B294">
-        <v>104167.3400000001</v>
+        <v>110525.8400000001</v>
       </c>
       <c r="C294" s="1">
-        <v>-0.003963974645708301</v>
+        <v>-0.0001489927250479806</v>
       </c>
       <c r="D294" s="1">
-        <v>0.0416734000000003</v>
+        <v>0.1052583999999996</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="4">
-        <v>38098</v>
+        <v>38097</v>
       </c>
       <c r="B295">
-        <v>104308.4600000001</v>
+        <v>109124.8700000001</v>
       </c>
       <c r="C295" s="1">
-        <v>0.001354743242939715</v>
+        <v>-0.01267549742214125</v>
       </c>
       <c r="D295" s="1">
-        <v>0.04308460000000025</v>
+        <v>0.09124869999999974</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="4">
-        <v>38099</v>
+        <v>38098</v>
       </c>
       <c r="B296">
-        <v>104681.5800000001</v>
+        <v>109687.0900000001</v>
       </c>
       <c r="C296" s="1">
-        <v>0.003577082817635358</v>
+        <v>0.00515207944806706</v>
       </c>
       <c r="D296" s="1">
-        <v>0.0468158000000003</v>
+        <v>0.09687089999999965</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="4">
-        <v>38100</v>
+        <v>38099</v>
       </c>
       <c r="B297">
-        <v>104697.4200000001</v>
+        <v>110790.0600000001</v>
       </c>
       <c r="C297" s="1">
-        <v>0.0001513160194945851</v>
+        <v>0.01005560453832799</v>
       </c>
       <c r="D297" s="1">
-        <v>0.04697420000000041</v>
+        <v>0.1079005999999996</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="4">
-        <v>38101</v>
+        <v>38100</v>
       </c>
       <c r="B298">
-        <v>104697.4200000001</v>
+        <v>110798.9100000001</v>
       </c>
       <c r="C298" s="1">
-        <v>0</v>
+        <v>7.988081241228073E-05</v>
       </c>
       <c r="D298" s="1">
-        <v>0.04697420000000041</v>
+        <v>0.1079890999999997</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="4">
-        <v>38102</v>
+        <v>38101</v>
       </c>
       <c r="B299">
-        <v>104697.4200000001</v>
+        <v>110798.9100000001</v>
       </c>
       <c r="C299" s="1">
         <v>0</v>
       </c>
       <c r="D299" s="1">
-        <v>0.04697420000000041</v>
+        <v>0.1079890999999997</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="4">
-        <v>38103</v>
+        <v>38102</v>
       </c>
       <c r="B300">
-        <v>104578.7000000001</v>
+        <v>110798.9100000001</v>
       </c>
       <c r="C300" s="1">
-        <v>-0.001133934341457477</v>
+        <v>0</v>
       </c>
       <c r="D300" s="1">
-        <v>0.04578700000000047</v>
+        <v>0.1079890999999997</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="4">
-        <v>38104</v>
+        <v>38103</v>
       </c>
       <c r="B301">
-        <v>104639.1800000001</v>
+        <v>110577.5100000001</v>
       </c>
       <c r="C301" s="1">
-        <v>0.0005783204419254062</v>
+        <v>-0.001998214603374793</v>
       </c>
       <c r="D301" s="1">
-        <v>0.04639180000000032</v>
+        <v>0.1057750999999996</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="4">
-        <v>38105</v>
+        <v>38104</v>
       </c>
       <c r="B302">
-        <v>104274.7000000001</v>
+        <v>110857.26</v>
       </c>
       <c r="C302" s="1">
-        <v>-0.00348320772391375</v>
+        <v>0.002529899615210995</v>
       </c>
       <c r="D302" s="1">
-        <v>0.04274700000000031</v>
+        <v>0.1085725999999996</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="4">
-        <v>38106</v>
+        <v>38105</v>
       </c>
       <c r="B303">
-        <v>104082.0600000001</v>
+        <v>109854.6800000001</v>
       </c>
       <c r="C303" s="1">
-        <v>-0.001847427995477324</v>
+        <v>-0.009043882195897579</v>
       </c>
       <c r="D303" s="1">
-        <v>0.04082060000000043</v>
+        <v>0.0985467999999996</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="4">
-        <v>38107</v>
+        <v>38106</v>
       </c>
       <c r="B304">
-        <v>103927.6600000001</v>
+        <v>109360.7300000001</v>
       </c>
       <c r="C304" s="1">
-        <v>-0.001483444889541885</v>
+        <v>-0.004496394691605232</v>
       </c>
       <c r="D304" s="1">
-        <v>0.03927660000000044</v>
+        <v>0.09360729999999973</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="4">
-        <v>38108</v>
+        <v>38107</v>
       </c>
       <c r="B305">
-        <v>103927.6600000001</v>
+        <v>109183.24</v>
       </c>
       <c r="C305" s="1">
-        <v>0</v>
+        <v>-0.001622977461836705</v>
       </c>
       <c r="D305" s="1">
-        <v>0.03927660000000044</v>
+        <v>0.0918323999999997</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="4">
-        <v>38109</v>
+        <v>38108</v>
       </c>
       <c r="B306">
-        <v>103927.6600000001</v>
+        <v>109183.24</v>
       </c>
       <c r="C306" s="1">
         <v>0</v>
       </c>
       <c r="D306" s="1">
-        <v>0.03927660000000044</v>
+        <v>0.0918323999999997</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="4">
-        <v>38110</v>
+        <v>38109</v>
       </c>
       <c r="B307">
-        <v>104211.7100000001</v>
+        <v>109183.24</v>
       </c>
       <c r="C307" s="1">
-        <v>0.002733151116844246</v>
+        <v>0</v>
       </c>
       <c r="D307" s="1">
-        <v>0.04211710000000046</v>
+        <v>0.0918323999999997</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="4">
-        <v>38111</v>
+        <v>38110</v>
       </c>
       <c r="B308">
-        <v>104269.4700000001</v>
+        <v>110113.24</v>
       </c>
       <c r="C308" s="1">
-        <v>0.0005542563306943915</v>
+        <v>0.008517790825771199</v>
       </c>
       <c r="D308" s="1">
-        <v>0.04269470000000042</v>
+        <v>0.1011323999999993</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="4">
-        <v>38112</v>
+        <v>38111</v>
       </c>
       <c r="B309">
-        <v>104329.3200000001</v>
+        <v>110119.29</v>
       </c>
       <c r="C309" s="1">
-        <v>0.0005739935189084111</v>
+        <v>5.494343822776138E-05</v>
       </c>
       <c r="D309" s="1">
-        <v>0.04329320000000059</v>
+        <v>0.1011928999999994</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="4">
-        <v>38113</v>
+        <v>38112</v>
       </c>
       <c r="B310">
-        <v>104122.2200000001</v>
+        <v>110249.7200000001</v>
       </c>
       <c r="C310" s="1">
-        <v>-0.001985060383792425</v>
+        <v>0.001184442798350949</v>
       </c>
       <c r="D310" s="1">
-        <v>0.04122220000000065</v>
+        <v>0.1024971999999995</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="4">
-        <v>38114</v>
+        <v>38113</v>
       </c>
       <c r="B311">
-        <v>103695.8600000001</v>
+        <v>109936.4600000001</v>
       </c>
       <c r="C311" s="1">
-        <v>-0.004094803203389286</v>
+        <v>-0.002841367760389679</v>
       </c>
       <c r="D311" s="1">
-        <v>0.03695860000000062</v>
+        <v>0.09936459999999969</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="4">
-        <v>38115</v>
+        <v>38114</v>
       </c>
       <c r="B312">
-        <v>103695.8600000001</v>
+        <v>108688.52</v>
       </c>
       <c r="C312" s="1">
-        <v>0</v>
+        <v>-0.0113514661105153</v>
       </c>
       <c r="D312" s="1">
-        <v>0.03695860000000062</v>
+        <v>0.08688519999999955</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="4">
-        <v>38116</v>
+        <v>38115</v>
       </c>
       <c r="B313">
-        <v>103695.8600000001</v>
+        <v>108688.52</v>
       </c>
       <c r="C313" s="1">
         <v>0</v>
       </c>
       <c r="D313" s="1">
-        <v>0.03695860000000062</v>
+        <v>0.08688519999999955</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="4">
-        <v>38117</v>
+        <v>38116</v>
       </c>
       <c r="B314">
-        <v>103374.1900000001</v>
+        <v>108688.52</v>
       </c>
       <c r="C314" s="1">
-        <v>-0.003102052483098139</v>
+        <v>0</v>
       </c>
       <c r="D314" s="1">
-        <v>0.03374190000000055</v>
+        <v>0.08688519999999955</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="4">
-        <v>38118</v>
+        <v>38117</v>
       </c>
       <c r="B315">
-        <v>103625.3900000001</v>
+        <v>107617.2900000001</v>
       </c>
       <c r="C315" s="1">
-        <v>0.002430006948543006</v>
+        <v>-0.009855962708849031</v>
       </c>
       <c r="D315" s="1">
-        <v>0.03625390000000062</v>
+        <v>0.07617289999999954</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="4">
-        <v>38119</v>
+        <v>38118</v>
       </c>
       <c r="B316">
-        <v>103689.5900000001</v>
+        <v>107831.3100000001</v>
       </c>
       <c r="C316" s="1">
-        <v>0.0006195392847254677</v>
+        <v>0.00198871389532318</v>
       </c>
       <c r="D316" s="1">
-        <v>0.03689590000000065</v>
+        <v>0.07831309999999969</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="4">
-        <v>38120</v>
+        <v>38119</v>
       </c>
       <c r="B317">
-        <v>103667.5900000001</v>
+        <v>107940.49</v>
       </c>
       <c r="C317" s="1">
-        <v>-0.0002121717329579553</v>
+        <v>0.001012507406243923</v>
       </c>
       <c r="D317" s="1">
-        <v>0.03667590000000054</v>
+        <v>0.07940489999999945</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="4">
-        <v>38121</v>
+        <v>38120</v>
       </c>
       <c r="B318">
-        <v>103648.99</v>
+        <v>107809.02</v>
       </c>
       <c r="C318" s="1">
-        <v>-0.0001794196238188439</v>
+        <v>-0.001217985947627342</v>
       </c>
       <c r="D318" s="1">
-        <v>0.03648990000000052</v>
+        <v>0.07809019999999944</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="4">
-        <v>38122</v>
+        <v>38121</v>
       </c>
       <c r="B319">
-        <v>103648.99</v>
+        <v>108052.39</v>
       </c>
       <c r="C319" s="1">
-        <v>0</v>
+        <v>0.002257417793056771</v>
       </c>
       <c r="D319" s="1">
-        <v>0.03648990000000052</v>
+        <v>0.08052389999999954</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="4">
-        <v>38123</v>
+        <v>38122</v>
       </c>
       <c r="B320">
-        <v>103648.99</v>
+        <v>108052.39</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>
       </c>
       <c r="D320" s="1">
-        <v>0.03648990000000052</v>
+        <v>0.08052389999999954</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="4">
-        <v>38124</v>
+        <v>38123</v>
       </c>
       <c r="B321">
-        <v>103311.1900000001</v>
+        <v>108052.39</v>
       </c>
       <c r="C321" s="1">
-        <v>-0.003259076620042212</v>
+        <v>0</v>
       </c>
       <c r="D321" s="1">
-        <v>0.03311190000000064</v>
+        <v>0.08052389999999954</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="4">
-        <v>38125</v>
+        <v>38124</v>
       </c>
       <c r="B322">
-        <v>103529.3900000001</v>
+        <v>107263.7700000001</v>
       </c>
       <c r="C322" s="1">
-        <v>0.002112065498422799</v>
+        <v>-0.007298496590403825</v>
       </c>
       <c r="D322" s="1">
-        <v>0.03529390000000077</v>
+        <v>0.07263769999999981</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="4">
-        <v>38126</v>
+        <v>38125</v>
       </c>
       <c r="B323">
-        <v>103452.3900000001</v>
+        <v>107657.8200000001</v>
       </c>
       <c r="C323" s="1">
-        <v>-0.0007437501563565263</v>
+        <v>0.003673654207753341</v>
       </c>
       <c r="D323" s="1">
-        <v>0.03452390000000083</v>
+        <v>0.07657819999999971</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="4">
-        <v>38127</v>
+        <v>38126</v>
       </c>
       <c r="B324">
-        <v>103467.7900000001</v>
+        <v>107136.1000000001</v>
       </c>
       <c r="C324" s="1">
-        <v>0.0001488607464747993</v>
+        <v>-0.004846094784382471</v>
       </c>
       <c r="D324" s="1">
-        <v>0.03467790000000082</v>
+        <v>0.07136099999999979</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="4">
-        <v>38128</v>
+        <v>38127</v>
       </c>
       <c r="B325">
-        <v>103596.3900000001</v>
+        <v>107110.45</v>
       </c>
       <c r="C325" s="1">
-        <v>0.001242898877032328</v>
+        <v>-0.0002394150991125166</v>
       </c>
       <c r="D325" s="1">
-        <v>0.03596390000000094</v>
+        <v>0.07110449999999946</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="4">
-        <v>38129</v>
+        <v>38128</v>
       </c>
       <c r="B326">
-        <v>103596.3900000001</v>
+        <v>107302.1600000001</v>
       </c>
       <c r="C326" s="1">
-        <v>0</v>
+        <v>0.001789834698668891</v>
       </c>
       <c r="D326" s="1">
-        <v>0.03596390000000094</v>
+        <v>0.07302159999999991</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="4">
-        <v>38130</v>
+        <v>38129</v>
       </c>
       <c r="B327">
-        <v>103596.3900000001</v>
+        <v>107302.1600000001</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
       </c>
       <c r="D327" s="1">
-        <v>0.03596390000000094</v>
+        <v>0.07302159999999991</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="4">
-        <v>38131</v>
+        <v>38130</v>
       </c>
       <c r="B328">
-        <v>103650.99</v>
+        <v>107302.1600000001</v>
       </c>
       <c r="C328" s="1">
-        <v>0.0005270453922185947</v>
+        <v>0</v>
       </c>
       <c r="D328" s="1">
-        <v>0.03650990000000065</v>
+        <v>0.07302159999999991</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="4">
-        <v>38132</v>
+        <v>38131</v>
       </c>
       <c r="B329">
-        <v>104169.3900000001</v>
+        <v>107285.3500000001</v>
       </c>
       <c r="C329" s="1">
-        <v>0.005001399407762674</v>
+        <v>-0.0001566604064635602</v>
       </c>
       <c r="D329" s="1">
-        <v>0.04169390000000073</v>
+        <v>0.07285349999999968</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="4">
-        <v>38133</v>
+        <v>38132</v>
       </c>
       <c r="B330">
-        <v>104229.7900000001</v>
+        <v>108635.58</v>
       </c>
       <c r="C330" s="1">
-        <v>0.0005798248410593398</v>
+        <v>0.0125854089118409</v>
       </c>
       <c r="D330" s="1">
-        <v>0.04229790000000078</v>
+        <v>0.08635579999999932</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="4">
-        <v>38134</v>
+        <v>38133</v>
       </c>
       <c r="B331">
-        <v>104419.5900000001</v>
+        <v>108855.4000000001</v>
       </c>
       <c r="C331" s="1">
-        <v>0.001820976517366235</v>
+        <v>0.002023462294765688</v>
       </c>
       <c r="D331" s="1">
-        <v>0.04419590000000095</v>
+        <v>0.08855399999999936</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="4">
-        <v>38135</v>
+        <v>38134</v>
       </c>
       <c r="B332">
-        <v>104402.5900000001</v>
+        <v>109719.7100000001</v>
       </c>
       <c r="C332" s="1">
-        <v>-0.000162804699769481</v>
+        <v>0.007939982766128173</v>
       </c>
       <c r="D332" s="1">
-        <v>0.04402590000000095</v>
+        <v>0.09719709999999915</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="4">
-        <v>38136</v>
+        <v>38135</v>
       </c>
       <c r="B333">
-        <v>104402.5900000001</v>
+        <v>109655.87</v>
       </c>
       <c r="C333" s="1">
-        <v>0</v>
+        <v>-0.0005818462334616914</v>
       </c>
       <c r="D333" s="1">
-        <v>0.04402590000000095</v>
+        <v>0.096558699999999</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="4">
-        <v>38137</v>
+        <v>38136</v>
       </c>
       <c r="B334">
-        <v>104402.5900000001</v>
+        <v>109655.87</v>
       </c>
       <c r="C334" s="1">
         <v>0</v>
       </c>
       <c r="D334" s="1">
-        <v>0.04402590000000095</v>
+        <v>0.096558699999999</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="4">
-        <v>38138</v>
+        <v>38137</v>
       </c>
       <c r="B335">
-        <v>104402.5900000001</v>
+        <v>109655.87</v>
       </c>
       <c r="C335" s="1">
         <v>0</v>
       </c>
       <c r="D335" s="1">
-        <v>0.04402590000000095</v>
+        <v>0.096558699999999</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="4">
-        <v>38139</v>
+        <v>38138</v>
       </c>
       <c r="B336">
-        <v>104417.99</v>
+        <v>109655.87</v>
       </c>
       <c r="C336" s="1">
-        <v>0.0001475059191538008</v>
+        <v>0</v>
       </c>
       <c r="D336" s="1">
-        <v>0.04417990000000072</v>
+        <v>0.096558699999999</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="4">
-        <v>38140</v>
+        <v>38139</v>
       </c>
       <c r="B337">
-        <v>104539.99</v>
+        <v>109849.5400000001</v>
       </c>
       <c r="C337" s="1">
-        <v>0.00116838104238548</v>
+        <v>0.00176616172029842</v>
       </c>
       <c r="D337" s="1">
-        <v>0.04539990000000071</v>
+        <v>0.09849539999999912</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="4">
-        <v>38141</v>
+        <v>38140</v>
       </c>
       <c r="B338">
-        <v>104295.1900000001</v>
+        <v>110277.9400000001</v>
       </c>
       <c r="C338" s="1">
-        <v>-0.002341687616384758</v>
+        <v>0.003899879781016802</v>
       </c>
       <c r="D338" s="1">
-        <v>0.04295190000000093</v>
+        <v>0.1027793999999991</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="4">
-        <v>38142</v>
+        <v>38141</v>
       </c>
       <c r="B339">
-        <v>104468.1900000001</v>
+        <v>109826.3300000001</v>
       </c>
       <c r="C339" s="1">
-        <v>0.001658753390257006</v>
+        <v>-0.004095198006056178</v>
       </c>
       <c r="D339" s="1">
-        <v>0.04468190000000094</v>
+        <v>0.09826329999999928</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="4">
-        <v>38143</v>
+        <v>38142</v>
       </c>
       <c r="B340">
-        <v>104468.1900000001</v>
+        <v>110142.7600000001</v>
       </c>
       <c r="C340" s="1">
-        <v>0</v>
+        <v>0.002881185231264682</v>
       </c>
       <c r="D340" s="1">
-        <v>0.04468190000000094</v>
+        <v>0.1014275999999994</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="4">
-        <v>38144</v>
+        <v>38143</v>
       </c>
       <c r="B341">
-        <v>104468.1900000001</v>
+        <v>110142.7600000001</v>
       </c>
       <c r="C341" s="1">
         <v>0</v>
       </c>
       <c r="D341" s="1">
-        <v>0.04468190000000094</v>
+        <v>0.1014275999999994</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="4">
-        <v>38145</v>
+        <v>38144</v>
       </c>
       <c r="B342">
-        <v>104996.1900000001</v>
+        <v>110142.7600000001</v>
       </c>
       <c r="C342" s="1">
-        <v>0.005054170077992248</v>
+        <v>0</v>
       </c>
       <c r="D342" s="1">
-        <v>0.04996190000000111</v>
+        <v>0.1014275999999994</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="4">
-        <v>38146</v>
+        <v>38145</v>
       </c>
       <c r="B343">
-        <v>105050.7900000001</v>
+        <v>111245.1100000001</v>
       </c>
       <c r="C343" s="1">
-        <v>0.0005200188692560115</v>
+        <v>0.01000837458585568</v>
       </c>
       <c r="D343" s="1">
-        <v>0.05050790000000105</v>
+        <v>0.1124510999999995</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="4">
-        <v>38147</v>
+        <v>38146</v>
       </c>
       <c r="B344">
-        <v>104734.1900000001</v>
+        <v>111398.1200000001</v>
       </c>
       <c r="C344" s="1">
-        <v>-0.003013780286659329</v>
+        <v>0.001375431243674452</v>
       </c>
       <c r="D344" s="1">
-        <v>0.04734190000000105</v>
+        <v>0.1139811999999996</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="4">
-        <v>38148</v>
+        <v>38147</v>
       </c>
       <c r="B345">
-        <v>104886.99</v>
+        <v>110594.8900000001</v>
       </c>
       <c r="C345" s="1">
-        <v>0.001458931414851206</v>
+        <v>-0.007210444844132136</v>
       </c>
       <c r="D345" s="1">
-        <v>0.04886990000000102</v>
+        <v>0.1059488999999993</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="4">
-        <v>38149</v>
+        <v>38148</v>
       </c>
       <c r="B346">
-        <v>104886.99</v>
+        <v>110809.1500000001</v>
       </c>
       <c r="C346" s="1">
-        <v>0</v>
+        <v>0.001937340866291493</v>
       </c>
       <c r="D346" s="1">
-        <v>0.04886990000000102</v>
+        <v>0.1080914999999996</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="4">
-        <v>38150</v>
+        <v>38149</v>
       </c>
       <c r="B347">
-        <v>104886.99</v>
+        <v>110809.1500000001</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
       </c>
       <c r="D347" s="1">
-        <v>0.04886990000000102</v>
+        <v>0.1080914999999996</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="4">
-        <v>38151</v>
+        <v>38150</v>
       </c>
       <c r="B348">
-        <v>104886.99</v>
+        <v>110809.1500000001</v>
       </c>
       <c r="C348" s="1">
         <v>0</v>
       </c>
       <c r="D348" s="1">
-        <v>0.04886990000000102</v>
+        <v>0.1080914999999996</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="4">
-        <v>38152</v>
+        <v>38151</v>
       </c>
       <c r="B349">
-        <v>104566.5900000001</v>
+        <v>110809.1500000001</v>
       </c>
       <c r="C349" s="1">
-        <v>-0.003054716318963813</v>
+        <v>0</v>
       </c>
       <c r="D349" s="1">
-        <v>0.04566590000000104</v>
+        <v>0.1080914999999996</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="4">
-        <v>38153</v>
+        <v>38152</v>
       </c>
       <c r="B350">
-        <v>104764.99</v>
+        <v>110145.2600000001</v>
       </c>
       <c r="C350" s="1">
-        <v>0.001897355551137236</v>
+        <v>-0.005991292235343226</v>
       </c>
       <c r="D350" s="1">
-        <v>0.04764990000000102</v>
+        <v>0.1014525999999998</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="4">
-        <v>38154</v>
+        <v>38153</v>
       </c>
       <c r="B351">
-        <v>104811.1900000001</v>
+        <v>110496.1800000001</v>
       </c>
       <c r="C351" s="1">
-        <v>0.0004409870129324922</v>
+        <v>0.003185974593913343</v>
       </c>
       <c r="D351" s="1">
-        <v>0.04811190000000098</v>
+        <v>0.1049617999999997</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="4">
-        <v>38155</v>
+        <v>38154</v>
       </c>
       <c r="B352">
-        <v>104766.99</v>
+        <v>110591.9500000001</v>
       </c>
       <c r="C352" s="1">
-        <v>-0.0004217106971117213</v>
+        <v>0.0008667267954423075</v>
       </c>
       <c r="D352" s="1">
-        <v>0.04766990000000093</v>
+        <v>0.1059194999999997</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="4">
-        <v>38156</v>
+        <v>38155</v>
       </c>
       <c r="B353">
-        <v>104854.3900000001</v>
+        <v>110486.7500000001</v>
       </c>
       <c r="C353" s="1">
-        <v>0.0008342322328818152</v>
+        <v>-0.0009512446430325339</v>
       </c>
       <c r="D353" s="1">
-        <v>0.04854390000000097</v>
+        <v>0.1048674999999994</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="4">
-        <v>38157</v>
+        <v>38156</v>
       </c>
       <c r="B354">
-        <v>104854.3900000001</v>
+        <v>110611.6600000001</v>
       </c>
       <c r="C354" s="1">
-        <v>0</v>
+        <v>0.001130542802643797</v>
       </c>
       <c r="D354" s="1">
-        <v>0.04854390000000097</v>
+        <v>0.1061165999999996</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="4">
-        <v>38158</v>
+        <v>38157</v>
       </c>
       <c r="B355">
-        <v>104854.3900000001</v>
+        <v>110611.6600000001</v>
       </c>
       <c r="C355" s="1">
         <v>0</v>
       </c>
       <c r="D355" s="1">
-        <v>0.04854390000000097</v>
+        <v>0.1061165999999996</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="4">
-        <v>38159</v>
+        <v>38158</v>
       </c>
       <c r="B356">
-        <v>104715.7900000001</v>
+        <v>110611.6600000001</v>
       </c>
       <c r="C356" s="1">
-        <v>-0.001321833067742806</v>
+        <v>0</v>
       </c>
       <c r="D356" s="1">
-        <v>0.04715790000000086</v>
+        <v>0.1061165999999996</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="4">
+        <v>38159</v>
+      </c>
+      <c r="B357">
+        <v>110289.5500000001</v>
+      </c>
+      <c r="C357" s="1">
+        <v>-0.002912079974208837</v>
+      </c>
+      <c r="D357" s="1">
+        <v>0.1028954999999996</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="4">
         <v>38160</v>
       </c>
-      <c r="B357">
-        <v>104837.5900000001</v>
-      </c>
-      <c r="C357" s="1">
-        <v>0.001163148365685762</v>
-      </c>
-      <c r="D357" s="1">
-        <v>0.0483759000000008</v>
+      <c r="B358">
+        <v>110381.0500000001</v>
+      </c>
+      <c r="C358" s="1">
+        <v>0.0008296343579241583</v>
+      </c>
+      <c r="D358" s="1">
+        <v>0.1038104999999996</v>
       </c>
     </row>
   </sheetData>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Transaction Cost</t>
   </si>
@@ -26,16 +26,16 @@
     <t>Total Return</t>
   </si>
   <si>
-    <t>Annualised Return</t>
+    <t>Return (Ann.)</t>
   </si>
   <si>
     <t>Sharpe Ratio</t>
   </si>
   <si>
-    <t>Sharpe Ratio (Ann)</t>
+    <t>Sharpe Ratio (Ann.)</t>
   </si>
   <si>
-    <t>Volatility</t>
+    <t>Volatility (Ann.)</t>
   </si>
   <si>
     <t>Max Drawdown</t>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Longest Drawdown (Days)</t>
+  </si>
+  <si>
+    <t>2003-08-05</t>
   </si>
   <si>
     <t>NAV</t>
@@ -116,13 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -466,31 +468,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1038105000000007</v>
+        <v>0.1039192000000007</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07220662267557376</v>
+        <v>0.07228115412102953</v>
       </c>
       <c r="E2">
-        <v>1.161593006811779</v>
+        <v>0.9229974308412767</v>
       </c>
       <c r="F2">
-        <v>0.9773030635770681</v>
+        <v>0.7765613356357848</v>
       </c>
       <c r="G2" s="1">
-        <v>0.08839460052926004</v>
+        <v>0.07436912627128299</v>
       </c>
       <c r="H2" s="1">
         <v>0.044239754036693</v>
       </c>
-      <c r="I2" s="3">
-        <v>37838</v>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
       <c r="J2">
         <v>107</v>
@@ -514,17 +516,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>37804</v>
       </c>
       <c r="B2">
@@ -538,7 +540,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>37805</v>
       </c>
       <c r="B3">
@@ -552,7 +554,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>37806</v>
       </c>
       <c r="B4">
@@ -566,7 +568,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>37807</v>
       </c>
       <c r="B5">
@@ -580,7 +582,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>37808</v>
       </c>
       <c r="B6">
@@ -594,7 +596,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>37809</v>
       </c>
       <c r="B7">
@@ -608,7 +610,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>37810</v>
       </c>
       <c r="B8">
@@ -622,7 +624,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>37811</v>
       </c>
       <c r="B9">
@@ -636,7 +638,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>37812</v>
       </c>
       <c r="B10">
@@ -650,7 +652,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>37813</v>
       </c>
       <c r="B11">
@@ -664,7 +666,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>37814</v>
       </c>
       <c r="B12">
@@ -678,7 +680,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>37815</v>
       </c>
       <c r="B13">
@@ -692,7 +694,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>37816</v>
       </c>
       <c r="B14">
@@ -706,7 +708,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>37817</v>
       </c>
       <c r="B15">
@@ -720,7 +722,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>37818</v>
       </c>
       <c r="B16">
@@ -734,7 +736,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>37819</v>
       </c>
       <c r="B17">
@@ -748,7 +750,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>37820</v>
       </c>
       <c r="B18">
@@ -762,7 +764,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>37821</v>
       </c>
       <c r="B19">
@@ -776,7 +778,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>37822</v>
       </c>
       <c r="B20">
@@ -790,7 +792,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>37823</v>
       </c>
       <c r="B21">
@@ -804,7 +806,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>37824</v>
       </c>
       <c r="B22">
@@ -818,7 +820,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>37825</v>
       </c>
       <c r="B23">
@@ -832,7 +834,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>37826</v>
       </c>
       <c r="B24">
@@ -846,7 +848,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>37827</v>
       </c>
       <c r="B25">
@@ -860,7 +862,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>37828</v>
       </c>
       <c r="B26">
@@ -874,7 +876,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>37829</v>
       </c>
       <c r="B27">
@@ -888,7 +890,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>37830</v>
       </c>
       <c r="B28">
@@ -902,7 +904,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>37831</v>
       </c>
       <c r="B29">
@@ -916,7 +918,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>37832</v>
       </c>
       <c r="B30">
@@ -930,7 +932,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>37833</v>
       </c>
       <c r="B31">
@@ -944,7 +946,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>37834</v>
       </c>
       <c r="B32">
@@ -958,7 +960,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>37835</v>
       </c>
       <c r="B33">
@@ -972,7 +974,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>37836</v>
       </c>
       <c r="B34">
@@ -986,7 +988,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>37837</v>
       </c>
       <c r="B35">
@@ -1000,7 +1002,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>37838</v>
       </c>
       <c r="B36">
@@ -1014,7 +1016,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>37839</v>
       </c>
       <c r="B37">
@@ -1028,7 +1030,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37840</v>
       </c>
       <c r="B38">
@@ -1042,7 +1044,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>37841</v>
       </c>
       <c r="B39">
@@ -1056,7 +1058,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>37842</v>
       </c>
       <c r="B40">
@@ -1070,7 +1072,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>37843</v>
       </c>
       <c r="B41">
@@ -1084,7 +1086,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>37844</v>
       </c>
       <c r="B42">
@@ -1098,7 +1100,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>37845</v>
       </c>
       <c r="B43">
@@ -1112,7 +1114,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>37846</v>
       </c>
       <c r="B44">
@@ -1126,7 +1128,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>37847</v>
       </c>
       <c r="B45">
@@ -1140,7 +1142,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>37848</v>
       </c>
       <c r="B46">
@@ -1154,7 +1156,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>37849</v>
       </c>
       <c r="B47">
@@ -1168,7 +1170,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>37850</v>
       </c>
       <c r="B48">
@@ -1182,7 +1184,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>37851</v>
       </c>
       <c r="B49">
@@ -1196,7 +1198,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>37852</v>
       </c>
       <c r="B50">
@@ -1210,7 +1212,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>37853</v>
       </c>
       <c r="B51">
@@ -1224,7 +1226,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>37854</v>
       </c>
       <c r="B52">
@@ -1238,7 +1240,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>37855</v>
       </c>
       <c r="B53">
@@ -1252,7 +1254,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>37856</v>
       </c>
       <c r="B54">
@@ -1266,7 +1268,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>37857</v>
       </c>
       <c r="B55">
@@ -1280,7 +1282,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>37858</v>
       </c>
       <c r="B56">
@@ -1294,7 +1296,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>37859</v>
       </c>
       <c r="B57">
@@ -1308,7 +1310,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>37860</v>
       </c>
       <c r="B58">
@@ -1322,7 +1324,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>37861</v>
       </c>
       <c r="B59">
@@ -1336,7 +1338,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>37862</v>
       </c>
       <c r="B60">
@@ -1350,7 +1352,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>37863</v>
       </c>
       <c r="B61">
@@ -1364,7 +1366,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>37864</v>
       </c>
       <c r="B62">
@@ -1378,7 +1380,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>37865</v>
       </c>
       <c r="B63">
@@ -1392,7 +1394,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>37866</v>
       </c>
       <c r="B64">
@@ -1406,7 +1408,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>37867</v>
       </c>
       <c r="B65">
@@ -1420,7 +1422,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>37868</v>
       </c>
       <c r="B66">
@@ -1434,7 +1436,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>37869</v>
       </c>
       <c r="B67">
@@ -1448,7 +1450,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>37870</v>
       </c>
       <c r="B68">
@@ -1462,7 +1464,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>37871</v>
       </c>
       <c r="B69">
@@ -1476,7 +1478,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>37872</v>
       </c>
       <c r="B70">
@@ -1490,7 +1492,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>37873</v>
       </c>
       <c r="B71">
@@ -1504,7 +1506,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>37874</v>
       </c>
       <c r="B72">
@@ -1518,7 +1520,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>37875</v>
       </c>
       <c r="B73">
@@ -1532,7 +1534,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>37876</v>
       </c>
       <c r="B74">
@@ -1546,7 +1548,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>37877</v>
       </c>
       <c r="B75">
@@ -1560,7 +1562,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>37878</v>
       </c>
       <c r="B76">
@@ -1574,7 +1576,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>37879</v>
       </c>
       <c r="B77">
@@ -1588,7 +1590,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>37880</v>
       </c>
       <c r="B78">
@@ -1602,7 +1604,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>37881</v>
       </c>
       <c r="B79">
@@ -1616,7 +1618,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>37882</v>
       </c>
       <c r="B80">
@@ -1630,7 +1632,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>37883</v>
       </c>
       <c r="B81">
@@ -1644,7 +1646,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>37884</v>
       </c>
       <c r="B82">
@@ -1658,7 +1660,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>37885</v>
       </c>
       <c r="B83">
@@ -1672,7 +1674,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>37886</v>
       </c>
       <c r="B84">
@@ -1686,7 +1688,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>37887</v>
       </c>
       <c r="B85">
@@ -1700,7 +1702,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>37888</v>
       </c>
       <c r="B86">
@@ -1714,7 +1716,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>37889</v>
       </c>
       <c r="B87">
@@ -1728,7 +1730,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>37890</v>
       </c>
       <c r="B88">
@@ -1742,7 +1744,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>37891</v>
       </c>
       <c r="B89">
@@ -1756,7 +1758,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>37892</v>
       </c>
       <c r="B90">
@@ -1770,7 +1772,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>37893</v>
       </c>
       <c r="B91">
@@ -1784,7 +1786,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>37894</v>
       </c>
       <c r="B92">
@@ -1798,7 +1800,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>37895</v>
       </c>
       <c r="B93">
@@ -1812,7 +1814,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>37896</v>
       </c>
       <c r="B94">
@@ -1826,7 +1828,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>37897</v>
       </c>
       <c r="B95">
@@ -1840,7 +1842,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>37898</v>
       </c>
       <c r="B96">
@@ -1854,7 +1856,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>37899</v>
       </c>
       <c r="B97">
@@ -1868,7 +1870,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>37900</v>
       </c>
       <c r="B98">
@@ -1882,7 +1884,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>37901</v>
       </c>
       <c r="B99">
@@ -1896,7 +1898,7 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>37902</v>
       </c>
       <c r="B100">
@@ -1910,7 +1912,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>37903</v>
       </c>
       <c r="B101">
@@ -1924,7 +1926,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>37904</v>
       </c>
       <c r="B102">
@@ -1938,7 +1940,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>37905</v>
       </c>
       <c r="B103">
@@ -1952,7 +1954,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>37906</v>
       </c>
       <c r="B104">
@@ -1966,7 +1968,7 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>37907</v>
       </c>
       <c r="B105">
@@ -1980,7 +1982,7 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>37908</v>
       </c>
       <c r="B106">
@@ -1994,7 +1996,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>37909</v>
       </c>
       <c r="B107">
@@ -2008,7 +2010,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>37910</v>
       </c>
       <c r="B108">
@@ -2022,7 +2024,7 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>37911</v>
       </c>
       <c r="B109">
@@ -2036,7 +2038,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>37912</v>
       </c>
       <c r="B110">
@@ -2050,7 +2052,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>37913</v>
       </c>
       <c r="B111">
@@ -2064,7 +2066,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>37914</v>
       </c>
       <c r="B112">
@@ -2078,7 +2080,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>37915</v>
       </c>
       <c r="B113">
@@ -2092,7 +2094,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>37916</v>
       </c>
       <c r="B114">
@@ -2106,7 +2108,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>37917</v>
       </c>
       <c r="B115">
@@ -2120,7 +2122,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>37918</v>
       </c>
       <c r="B116">
@@ -2134,7 +2136,7 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>37919</v>
       </c>
       <c r="B117">
@@ -2148,7 +2150,7 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>37920</v>
       </c>
       <c r="B118">
@@ -2162,7 +2164,7 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>37921</v>
       </c>
       <c r="B119">
@@ -2176,7 +2178,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>37922</v>
       </c>
       <c r="B120">
@@ -2190,7 +2192,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>37923</v>
       </c>
       <c r="B121">
@@ -2204,7 +2206,7 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>37924</v>
       </c>
       <c r="B122">
@@ -2218,7 +2220,7 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>37925</v>
       </c>
       <c r="B123">
@@ -2232,7 +2234,7 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>37926</v>
       </c>
       <c r="B124">
@@ -2246,7 +2248,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>37927</v>
       </c>
       <c r="B125">
@@ -2260,7 +2262,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>37928</v>
       </c>
       <c r="B126">
@@ -2274,7 +2276,7 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>37929</v>
       </c>
       <c r="B127">
@@ -2288,7 +2290,7 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>37930</v>
       </c>
       <c r="B128">
@@ -2302,7 +2304,7 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>37931</v>
       </c>
       <c r="B129">
@@ -2316,7 +2318,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>37932</v>
       </c>
       <c r="B130">
@@ -2330,7 +2332,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>37933</v>
       </c>
       <c r="B131">
@@ -2344,7 +2346,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>37934</v>
       </c>
       <c r="B132">
@@ -2358,7 +2360,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>37935</v>
       </c>
       <c r="B133">
@@ -2372,7 +2374,7 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>37936</v>
       </c>
       <c r="B134">
@@ -2386,7 +2388,7 @@
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>37937</v>
       </c>
       <c r="B135">
@@ -2400,7 +2402,7 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>37938</v>
       </c>
       <c r="B136">
@@ -2414,7 +2416,7 @@
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>37939</v>
       </c>
       <c r="B137">
@@ -2428,7 +2430,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>37940</v>
       </c>
       <c r="B138">
@@ -2442,7 +2444,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>37941</v>
       </c>
       <c r="B139">
@@ -2456,7 +2458,7 @@
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>37942</v>
       </c>
       <c r="B140">
@@ -2470,7 +2472,7 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>37943</v>
       </c>
       <c r="B141">
@@ -2484,7 +2486,7 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>37944</v>
       </c>
       <c r="B142">
@@ -2498,7 +2500,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>37945</v>
       </c>
       <c r="B143">
@@ -2512,7 +2514,7 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>37946</v>
       </c>
       <c r="B144">
@@ -2526,7 +2528,7 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>37947</v>
       </c>
       <c r="B145">
@@ -2540,7 +2542,7 @@
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>37948</v>
       </c>
       <c r="B146">
@@ -2554,7 +2556,7 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>37949</v>
       </c>
       <c r="B147">
@@ -2568,7 +2570,7 @@
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>37950</v>
       </c>
       <c r="B148">
@@ -2582,7 +2584,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>37951</v>
       </c>
       <c r="B149">
@@ -2596,7 +2598,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>37952</v>
       </c>
       <c r="B150">
@@ -2610,7 +2612,7 @@
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>37953</v>
       </c>
       <c r="B151">
@@ -2624,7 +2626,7 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>37954</v>
       </c>
       <c r="B152">
@@ -2638,7 +2640,7 @@
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>37955</v>
       </c>
       <c r="B153">
@@ -2652,7 +2654,7 @@
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>37956</v>
       </c>
       <c r="B154">
@@ -2666,7 +2668,7 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>37957</v>
       </c>
       <c r="B155">
@@ -2680,7 +2682,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>37958</v>
       </c>
       <c r="B156">
@@ -2694,7 +2696,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>37959</v>
       </c>
       <c r="B157">
@@ -2708,7 +2710,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>37960</v>
       </c>
       <c r="B158">
@@ -2722,7 +2724,7 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>37961</v>
       </c>
       <c r="B159">
@@ -2736,7 +2738,7 @@
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>37962</v>
       </c>
       <c r="B160">
@@ -2750,7 +2752,7 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>37963</v>
       </c>
       <c r="B161">
@@ -2764,7 +2766,7 @@
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>37964</v>
       </c>
       <c r="B162">
@@ -2778,7 +2780,7 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>37965</v>
       </c>
       <c r="B163">
@@ -2792,7 +2794,7 @@
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>37966</v>
       </c>
       <c r="B164">
@@ -2806,7 +2808,7 @@
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>37967</v>
       </c>
       <c r="B165">
@@ -2820,7 +2822,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>37968</v>
       </c>
       <c r="B166">
@@ -2834,7 +2836,7 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>37969</v>
       </c>
       <c r="B167">
@@ -2848,7 +2850,7 @@
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>37970</v>
       </c>
       <c r="B168">
@@ -2862,7 +2864,7 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>37971</v>
       </c>
       <c r="B169">
@@ -2876,7 +2878,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>37972</v>
       </c>
       <c r="B170">
@@ -2890,7 +2892,7 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>37973</v>
       </c>
       <c r="B171">
@@ -2904,7 +2906,7 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>37974</v>
       </c>
       <c r="B172">
@@ -2918,7 +2920,7 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>37975</v>
       </c>
       <c r="B173">
@@ -2932,7 +2934,7 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>37976</v>
       </c>
       <c r="B174">
@@ -2946,7 +2948,7 @@
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>37977</v>
       </c>
       <c r="B175">
@@ -2960,7 +2962,7 @@
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>37978</v>
       </c>
       <c r="B176">
@@ -2974,7 +2976,7 @@
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>37979</v>
       </c>
       <c r="B177">
@@ -2988,7 +2990,7 @@
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>37980</v>
       </c>
       <c r="B178">
@@ -3002,7 +3004,7 @@
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>37981</v>
       </c>
       <c r="B179">
@@ -3016,7 +3018,7 @@
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>37982</v>
       </c>
       <c r="B180">
@@ -3030,7 +3032,7 @@
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>37983</v>
       </c>
       <c r="B181">
@@ -3044,7 +3046,7 @@
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>37984</v>
       </c>
       <c r="B182">
@@ -3058,7 +3060,7 @@
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>37985</v>
       </c>
       <c r="B183">
@@ -3072,7 +3074,7 @@
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>37986</v>
       </c>
       <c r="B184">
@@ -3086,7 +3088,7 @@
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>37987</v>
       </c>
       <c r="B185">
@@ -3100,7 +3102,7 @@
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>37988</v>
       </c>
       <c r="B186">
@@ -3114,7 +3116,7 @@
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>37989</v>
       </c>
       <c r="B187">
@@ -3128,7 +3130,7 @@
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>37990</v>
       </c>
       <c r="B188">
@@ -3142,7 +3144,7 @@
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>37991</v>
       </c>
       <c r="B189">
@@ -3156,7 +3158,7 @@
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>37992</v>
       </c>
       <c r="B190">
@@ -3170,7 +3172,7 @@
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>37993</v>
       </c>
       <c r="B191">
@@ -3184,7 +3186,7 @@
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>37994</v>
       </c>
       <c r="B192">
@@ -3198,7 +3200,7 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>37995</v>
       </c>
       <c r="B193">
@@ -3212,7 +3214,7 @@
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="4">
+      <c r="A194" s="3">
         <v>37996</v>
       </c>
       <c r="B194">
@@ -3226,7 +3228,7 @@
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="4">
+      <c r="A195" s="3">
         <v>37997</v>
       </c>
       <c r="B195">
@@ -3240,7 +3242,7 @@
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="4">
+      <c r="A196" s="3">
         <v>37998</v>
       </c>
       <c r="B196">
@@ -3254,7 +3256,7 @@
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="4">
+      <c r="A197" s="3">
         <v>37999</v>
       </c>
       <c r="B197">
@@ -3268,7 +3270,7 @@
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="4">
+      <c r="A198" s="3">
         <v>38000</v>
       </c>
       <c r="B198">
@@ -3282,7 +3284,7 @@
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="4">
+      <c r="A199" s="3">
         <v>38001</v>
       </c>
       <c r="B199">
@@ -3296,7 +3298,7 @@
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="4">
+      <c r="A200" s="3">
         <v>38002</v>
       </c>
       <c r="B200">
@@ -3310,7 +3312,7 @@
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="4">
+      <c r="A201" s="3">
         <v>38003</v>
       </c>
       <c r="B201">
@@ -3324,7 +3326,7 @@
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="4">
+      <c r="A202" s="3">
         <v>38004</v>
       </c>
       <c r="B202">
@@ -3338,7 +3340,7 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="4">
+      <c r="A203" s="3">
         <v>38005</v>
       </c>
       <c r="B203">
@@ -3352,7 +3354,7 @@
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="4">
+      <c r="A204" s="3">
         <v>38006</v>
       </c>
       <c r="B204">
@@ -3366,7 +3368,7 @@
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="4">
+      <c r="A205" s="3">
         <v>38007</v>
       </c>
       <c r="B205">
@@ -3380,7 +3382,7 @@
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="4">
+      <c r="A206" s="3">
         <v>38008</v>
       </c>
       <c r="B206">
@@ -3394,7 +3396,7 @@
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="4">
+      <c r="A207" s="3">
         <v>38009</v>
       </c>
       <c r="B207">
@@ -3408,7 +3410,7 @@
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="4">
+      <c r="A208" s="3">
         <v>38010</v>
       </c>
       <c r="B208">
@@ -3422,7 +3424,7 @@
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="4">
+      <c r="A209" s="3">
         <v>38011</v>
       </c>
       <c r="B209">
@@ -3436,7 +3438,7 @@
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="4">
+      <c r="A210" s="3">
         <v>38012</v>
       </c>
       <c r="B210">
@@ -3450,7 +3452,7 @@
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="4">
+      <c r="A211" s="3">
         <v>38013</v>
       </c>
       <c r="B211">
@@ -3464,7 +3466,7 @@
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="4">
+      <c r="A212" s="3">
         <v>38014</v>
       </c>
       <c r="B212">
@@ -3478,7 +3480,7 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="4">
+      <c r="A213" s="3">
         <v>38015</v>
       </c>
       <c r="B213">
@@ -3492,7 +3494,7 @@
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="4">
+      <c r="A214" s="3">
         <v>38016</v>
       </c>
       <c r="B214">
@@ -3506,7 +3508,7 @@
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="4">
+      <c r="A215" s="3">
         <v>38017</v>
       </c>
       <c r="B215">
@@ -3520,7 +3522,7 @@
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="4">
+      <c r="A216" s="3">
         <v>38018</v>
       </c>
       <c r="B216">
@@ -3534,7 +3536,7 @@
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="4">
+      <c r="A217" s="3">
         <v>38019</v>
       </c>
       <c r="B217">
@@ -3548,7 +3550,7 @@
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="4">
+      <c r="A218" s="3">
         <v>38020</v>
       </c>
       <c r="B218">
@@ -3562,7 +3564,7 @@
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="4">
+      <c r="A219" s="3">
         <v>38021</v>
       </c>
       <c r="B219">
@@ -3576,7 +3578,7 @@
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="4">
+      <c r="A220" s="3">
         <v>38022</v>
       </c>
       <c r="B220">
@@ -3590,7 +3592,7 @@
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="4">
+      <c r="A221" s="3">
         <v>38023</v>
       </c>
       <c r="B221">
@@ -3604,7 +3606,7 @@
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="4">
+      <c r="A222" s="3">
         <v>38024</v>
       </c>
       <c r="B222">
@@ -3618,7 +3620,7 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="4">
+      <c r="A223" s="3">
         <v>38025</v>
       </c>
       <c r="B223">
@@ -3632,7 +3634,7 @@
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="4">
+      <c r="A224" s="3">
         <v>38026</v>
       </c>
       <c r="B224">
@@ -3646,7 +3648,7 @@
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="4">
+      <c r="A225" s="3">
         <v>38027</v>
       </c>
       <c r="B225">
@@ -3660,7 +3662,7 @@
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="4">
+      <c r="A226" s="3">
         <v>38028</v>
       </c>
       <c r="B226">
@@ -3674,7 +3676,7 @@
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="4">
+      <c r="A227" s="3">
         <v>38029</v>
       </c>
       <c r="B227">
@@ -3688,7 +3690,7 @@
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="4">
+      <c r="A228" s="3">
         <v>38030</v>
       </c>
       <c r="B228">
@@ -3702,7 +3704,7 @@
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="4">
+      <c r="A229" s="3">
         <v>38031</v>
       </c>
       <c r="B229">
@@ -3716,7 +3718,7 @@
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="4">
+      <c r="A230" s="3">
         <v>38032</v>
       </c>
       <c r="B230">
@@ -3730,7 +3732,7 @@
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="4">
+      <c r="A231" s="3">
         <v>38033</v>
       </c>
       <c r="B231">
@@ -3744,7 +3746,7 @@
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="4">
+      <c r="A232" s="3">
         <v>38034</v>
       </c>
       <c r="B232">
@@ -3758,7 +3760,7 @@
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="4">
+      <c r="A233" s="3">
         <v>38035</v>
       </c>
       <c r="B233">
@@ -3772,7 +3774,7 @@
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="4">
+      <c r="A234" s="3">
         <v>38036</v>
       </c>
       <c r="B234">
@@ -3786,7 +3788,7 @@
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="4">
+      <c r="A235" s="3">
         <v>38037</v>
       </c>
       <c r="B235">
@@ -3800,7 +3802,7 @@
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="4">
+      <c r="A236" s="3">
         <v>38038</v>
       </c>
       <c r="B236">
@@ -3814,7 +3816,7 @@
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="4">
+      <c r="A237" s="3">
         <v>38039</v>
       </c>
       <c r="B237">
@@ -3828,7 +3830,7 @@
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="4">
+      <c r="A238" s="3">
         <v>38040</v>
       </c>
       <c r="B238">
@@ -3842,7 +3844,7 @@
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="4">
+      <c r="A239" s="3">
         <v>38041</v>
       </c>
       <c r="B239">
@@ -3856,7 +3858,7 @@
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="4">
+      <c r="A240" s="3">
         <v>38042</v>
       </c>
       <c r="B240">
@@ -3870,7 +3872,7 @@
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="4">
+      <c r="A241" s="3">
         <v>38043</v>
       </c>
       <c r="B241">
@@ -3884,7 +3886,7 @@
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="4">
+      <c r="A242" s="3">
         <v>38044</v>
       </c>
       <c r="B242">
@@ -3898,7 +3900,7 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="4">
+      <c r="A243" s="3">
         <v>38045</v>
       </c>
       <c r="B243">
@@ -3912,7 +3914,7 @@
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="4">
+      <c r="A244" s="3">
         <v>38046</v>
       </c>
       <c r="B244">
@@ -3926,7 +3928,7 @@
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="4">
+      <c r="A245" s="3">
         <v>38047</v>
       </c>
       <c r="B245">
@@ -3940,7 +3942,7 @@
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="4">
+      <c r="A246" s="3">
         <v>38048</v>
       </c>
       <c r="B246">
@@ -3954,1571 +3956,1571 @@
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="4">
+      <c r="A247" s="3">
         <v>38049</v>
       </c>
       <c r="B247">
-        <v>111049.37</v>
+        <v>111049.22</v>
       </c>
       <c r="C247" s="1">
-        <v>0.002793117504180653</v>
+        <v>0.002791762980803858</v>
       </c>
       <c r="D247" s="1">
-        <v>0.1104936999999997</v>
+        <v>0.1104921999999997</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="4">
+      <c r="A248" s="3">
         <v>38050</v>
       </c>
       <c r="B248">
-        <v>111276.92</v>
+        <v>111276.77</v>
       </c>
       <c r="C248" s="1">
-        <v>0.00204908861707187</v>
+        <v>0.002049091384883184</v>
       </c>
       <c r="D248" s="1">
-        <v>0.1127691999999998</v>
+        <v>0.1127676999999996</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="4">
+      <c r="A249" s="3">
         <v>38051</v>
       </c>
       <c r="B249">
-        <v>111572.25</v>
+        <v>111572.1</v>
       </c>
       <c r="C249" s="1">
-        <v>0.002654009474741148</v>
+        <v>0.002654013052319826</v>
       </c>
       <c r="D249" s="1">
-        <v>0.1157225</v>
+        <v>0.1157209999999995</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="4">
+      <c r="A250" s="3">
         <v>38052</v>
       </c>
       <c r="B250">
-        <v>111572.25</v>
+        <v>111572.1</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
       </c>
       <c r="D250" s="1">
-        <v>0.1157225</v>
+        <v>0.1157209999999995</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="4">
+      <c r="A251" s="3">
         <v>38053</v>
       </c>
       <c r="B251">
-        <v>111572.25</v>
+        <v>111572.1</v>
       </c>
       <c r="C251" s="1">
         <v>0</v>
       </c>
       <c r="D251" s="1">
-        <v>0.1157225</v>
+        <v>0.1157209999999995</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="4">
+      <c r="A252" s="3">
         <v>38054</v>
       </c>
       <c r="B252">
-        <v>111172.15</v>
+        <v>111172</v>
       </c>
       <c r="C252" s="1">
-        <v>-0.003586017132396369</v>
+        <v>-0.003586021953517093</v>
       </c>
       <c r="D252" s="1">
-        <v>0.1117214999999998</v>
+        <v>0.1117199999999994</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="4">
+      <c r="A253" s="3">
         <v>38055</v>
       </c>
       <c r="B253">
-        <v>110721.5</v>
+        <v>110721.35</v>
       </c>
       <c r="C253" s="1">
-        <v>-0.004053623142126983</v>
+        <v>-0.004053628611520921</v>
       </c>
       <c r="D253" s="1">
-        <v>0.1072149999999996</v>
+        <v>0.1072134999999994</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="4">
+      <c r="A254" s="3">
         <v>38056</v>
       </c>
       <c r="B254">
-        <v>109558.91</v>
+        <v>109558.76</v>
       </c>
       <c r="C254" s="1">
-        <v>-0.01050012870129102</v>
+        <v>-0.01050014292636425</v>
       </c>
       <c r="D254" s="1">
-        <v>0.09558909999999976</v>
+        <v>0.09558759999999933</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="4">
+      <c r="A255" s="3">
         <v>38057</v>
       </c>
       <c r="B255">
-        <v>107956.52</v>
+        <v>107956.37</v>
       </c>
       <c r="C255" s="1">
-        <v>-0.01462583006712992</v>
+        <v>-0.01462585009176798</v>
       </c>
       <c r="D255" s="1">
-        <v>0.0795652</v>
+        <v>0.07956369999999957</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="4">
+      <c r="A256" s="3">
         <v>38058</v>
       </c>
       <c r="B256">
-        <v>108683.9</v>
+        <v>108683.75</v>
       </c>
       <c r="C256" s="1">
-        <v>0.00673771255316491</v>
+        <v>0.006737721914880979</v>
       </c>
       <c r="D256" s="1">
-        <v>0.08683899999999989</v>
+        <v>0.08683749999999946</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="4">
+      <c r="A257" s="3">
         <v>38059</v>
       </c>
       <c r="B257">
-        <v>108683.9</v>
+        <v>108683.75</v>
       </c>
       <c r="C257" s="1">
         <v>0</v>
       </c>
       <c r="D257" s="1">
-        <v>0.08683899999999989</v>
+        <v>0.08683749999999946</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="4">
+      <c r="A258" s="3">
         <v>38060</v>
       </c>
       <c r="B258">
-        <v>108683.9</v>
+        <v>108683.75</v>
       </c>
       <c r="C258" s="1">
         <v>0</v>
       </c>
       <c r="D258" s="1">
-        <v>0.08683899999999989</v>
+        <v>0.08683749999999946</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="4">
+      <c r="A259" s="3">
         <v>38061</v>
       </c>
       <c r="B259">
-        <v>107632.42</v>
+        <v>107632.27</v>
       </c>
       <c r="C259" s="1">
-        <v>-0.009674662024458214</v>
+        <v>-0.009674675376953878</v>
       </c>
       <c r="D259" s="1">
-        <v>0.07632419999999973</v>
+        <v>0.0763226999999993</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="4">
+      <c r="A260" s="3">
         <v>38062</v>
       </c>
       <c r="B260">
-        <v>108072.71</v>
+        <v>108072.56</v>
       </c>
       <c r="C260" s="1">
-        <v>0.004090681971101295</v>
+        <v>0.004090687672015259</v>
       </c>
       <c r="D260" s="1">
-        <v>0.08072709999999983</v>
+        <v>0.0807255999999994</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="4">
+      <c r="A261" s="3">
         <v>38063</v>
       </c>
       <c r="B261">
-        <v>109062.37</v>
+        <v>109062.22</v>
       </c>
       <c r="C261" s="1">
-        <v>0.009157353415121916</v>
+        <v>0.009157366125129185</v>
       </c>
       <c r="D261" s="1">
-        <v>0.09062369999999964</v>
+        <v>0.09062219999999921</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="4">
+      <c r="A262" s="3">
         <v>38064</v>
       </c>
       <c r="B262">
-        <v>108923.23</v>
+        <v>108923.08</v>
       </c>
       <c r="C262" s="1">
-        <v>-0.001275783755661952</v>
+        <v>-0.001275785510326144</v>
       </c>
       <c r="D262" s="1">
-        <v>0.08923229999999971</v>
+        <v>0.08923079999999928</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="4">
+      <c r="A263" s="3">
         <v>38065</v>
       </c>
       <c r="B263">
-        <v>108056.39</v>
+        <v>108056.24</v>
       </c>
       <c r="C263" s="1">
-        <v>-0.007958265651872298</v>
+        <v>-0.007958276611347959</v>
       </c>
       <c r="D263" s="1">
-        <v>0.0805638999999998</v>
+        <v>0.08056239999999937</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="4">
+      <c r="A264" s="3">
         <v>38066</v>
       </c>
       <c r="B264">
-        <v>108056.39</v>
+        <v>108056.24</v>
       </c>
       <c r="C264" s="1">
         <v>0</v>
       </c>
       <c r="D264" s="1">
-        <v>0.0805638999999998</v>
+        <v>0.08056239999999937</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="4">
+      <c r="A265" s="3">
         <v>38067</v>
       </c>
       <c r="B265">
-        <v>108056.39</v>
+        <v>108056.24</v>
       </c>
       <c r="C265" s="1">
         <v>0</v>
       </c>
       <c r="D265" s="1">
-        <v>0.0805638999999998</v>
+        <v>0.08056239999999937</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="4">
+      <c r="A266" s="3">
         <v>38068</v>
       </c>
       <c r="B266">
-        <v>106923.63</v>
+        <v>106923.48</v>
       </c>
       <c r="C266" s="1">
-        <v>-0.01048304501010999</v>
+        <v>-0.01048305956231677</v>
       </c>
       <c r="D266" s="1">
-        <v>0.06923629999999981</v>
+        <v>0.06923479999999937</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="4">
+      <c r="A267" s="3">
         <v>38069</v>
       </c>
       <c r="B267">
-        <v>106887.69</v>
+        <v>106887.54</v>
       </c>
       <c r="C267" s="1">
-        <v>-0.0003361277577276223</v>
+        <v>-0.0003361282292719814</v>
       </c>
       <c r="D267" s="1">
-        <v>0.0688768999999998</v>
+        <v>0.06887539999999936</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="4">
+      <c r="A268" s="3">
         <v>38070</v>
       </c>
       <c r="B268">
-        <v>106652.88</v>
+        <v>106652.73</v>
       </c>
       <c r="C268" s="1">
-        <v>-0.002196791791459152</v>
+        <v>-0.002196794874313901</v>
       </c>
       <c r="D268" s="1">
-        <v>0.0665287999999995</v>
+        <v>0.06652729999999907</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="4">
+      <c r="A269" s="3">
         <v>38071</v>
       </c>
       <c r="B269">
-        <v>107757.0100000001</v>
+        <v>107756.86</v>
       </c>
       <c r="C269" s="1">
-        <v>0.01035255681796898</v>
+        <v>0.01035257137815448</v>
       </c>
       <c r="D269" s="1">
-        <v>0.07757009999999975</v>
+        <v>0.07756859999999954</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="4">
+      <c r="A270" s="3">
         <v>38072</v>
       </c>
       <c r="B270">
-        <v>107647.62</v>
+        <v>107647.47</v>
       </c>
       <c r="C270" s="1">
-        <v>-0.001015154373715577</v>
+        <v>-0.001015155786833533</v>
       </c>
       <c r="D270" s="1">
-        <v>0.07647619999999966</v>
+        <v>0.07647469999999945</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="4">
+      <c r="A271" s="3">
         <v>38073</v>
       </c>
       <c r="B271">
-        <v>107647.62</v>
+        <v>107647.47</v>
       </c>
       <c r="C271" s="1">
         <v>0</v>
       </c>
       <c r="D271" s="1">
-        <v>0.07647619999999966</v>
+        <v>0.07647469999999945</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="4">
+      <c r="A272" s="3">
         <v>38074</v>
       </c>
       <c r="B272">
-        <v>107647.62</v>
+        <v>107647.47</v>
       </c>
       <c r="C272" s="1">
         <v>0</v>
       </c>
       <c r="D272" s="1">
-        <v>0.07647619999999966</v>
+        <v>0.07647469999999945</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="4">
+      <c r="A273" s="3">
         <v>38075</v>
       </c>
       <c r="B273">
-        <v>108825.82</v>
+        <v>108825.67</v>
       </c>
       <c r="C273" s="1">
-        <v>0.01094497026501839</v>
+        <v>0.01094498551614809</v>
       </c>
       <c r="D273" s="1">
-        <v>0.08825819999999962</v>
+        <v>0.08825669999999941</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="4">
+      <c r="A274" s="3">
         <v>38076</v>
       </c>
       <c r="B274">
-        <v>109159.96</v>
+        <v>109159.81</v>
       </c>
       <c r="C274" s="1">
-        <v>0.00307041104767225</v>
+        <v>0.003070415279777361</v>
       </c>
       <c r="D274" s="1">
-        <v>0.09159959999999945</v>
+        <v>0.09159809999999946</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="4">
+      <c r="A275" s="3">
         <v>38077</v>
       </c>
       <c r="B275">
-        <v>109212.28</v>
+        <v>109212.13</v>
       </c>
       <c r="C275" s="1">
-        <v>0.0004792966212154859</v>
+        <v>0.0004792972798322026</v>
       </c>
       <c r="D275" s="1">
-        <v>0.09212279999999962</v>
+        <v>0.09212129999999941</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="4">
+      <c r="A276" s="3">
         <v>38078</v>
       </c>
       <c r="B276">
-        <v>109659.8</v>
+        <v>109659.65</v>
       </c>
       <c r="C276" s="1">
-        <v>0.004097707693676789</v>
+        <v>0.004097713321771002</v>
       </c>
       <c r="D276" s="1">
-        <v>0.09659799999999952</v>
+        <v>0.09659649999999931</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="4">
+      <c r="A277" s="3">
         <v>38079</v>
       </c>
       <c r="B277">
-        <v>110203.47</v>
+        <v>110203.32</v>
       </c>
       <c r="C277" s="1">
-        <v>0.004957787630471611</v>
+        <v>0.004957794412074001</v>
       </c>
       <c r="D277" s="1">
-        <v>0.1020346999999995</v>
+        <v>0.1020331999999993</v>
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="4">
+      <c r="A278" s="3">
         <v>38080</v>
       </c>
       <c r="B278">
-        <v>110203.47</v>
+        <v>110203.32</v>
       </c>
       <c r="C278" s="1">
         <v>0</v>
       </c>
       <c r="D278" s="1">
-        <v>0.1020346999999995</v>
+        <v>0.1020331999999993</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="4">
+      <c r="A279" s="3">
         <v>38081</v>
       </c>
       <c r="B279">
-        <v>110203.47</v>
+        <v>110203.32</v>
       </c>
       <c r="C279" s="1">
         <v>0</v>
       </c>
       <c r="D279" s="1">
-        <v>0.1020346999999995</v>
+        <v>0.1020331999999993</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="4">
+      <c r="A280" s="3">
         <v>38082</v>
       </c>
       <c r="B280">
-        <v>110884.31</v>
+        <v>110884.16</v>
       </c>
       <c r="C280" s="1">
-        <v>0.006178026880641951</v>
+        <v>0.006178035289680972</v>
       </c>
       <c r="D280" s="1">
-        <v>0.1088430999999996</v>
+        <v>0.1088415999999992</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="4">
+      <c r="A281" s="3">
         <v>38083</v>
       </c>
       <c r="B281">
-        <v>110875.43</v>
+        <v>110875.28</v>
       </c>
       <c r="C281" s="1">
-        <v>-8.008346717403025E-05</v>
+        <v>-8.008357550803868E-05</v>
       </c>
       <c r="D281" s="1">
-        <v>0.1087542999999997</v>
+        <v>0.1087527999999991</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="4">
+      <c r="A282" s="3">
         <v>38084</v>
       </c>
       <c r="B282">
-        <v>110219.53</v>
+        <v>110219.38</v>
       </c>
       <c r="C282" s="1">
-        <v>-0.005915647858141249</v>
+        <v>-0.005915655861252311</v>
       </c>
       <c r="D282" s="1">
-        <v>0.1021952999999998</v>
+        <v>0.1021937999999991</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="4">
+      <c r="A283" s="3">
         <v>38085</v>
       </c>
       <c r="B283">
-        <v>109830.5600000001</v>
+        <v>109831.84</v>
       </c>
       <c r="C283" s="1">
-        <v>-0.003529047891966064</v>
+        <v>-0.003516078569848591</v>
       </c>
       <c r="D283" s="1">
-        <v>0.09830559999999977</v>
+        <v>0.09831839999999903</v>
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="4">
+      <c r="A284" s="3">
         <v>38086</v>
       </c>
       <c r="B284">
-        <v>109830.5600000001</v>
+        <v>109831.84</v>
       </c>
       <c r="C284" s="1">
         <v>0</v>
       </c>
       <c r="D284" s="1">
-        <v>0.09830559999999977</v>
+        <v>0.09831839999999903</v>
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="4">
+      <c r="A285" s="3">
         <v>38087</v>
       </c>
       <c r="B285">
-        <v>109830.5600000001</v>
+        <v>109831.84</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
       </c>
       <c r="D285" s="1">
-        <v>0.09830559999999977</v>
+        <v>0.09831839999999903</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="4">
+      <c r="A286" s="3">
         <v>38088</v>
       </c>
       <c r="B286">
-        <v>109830.5600000001</v>
+        <v>109831.84</v>
       </c>
       <c r="C286" s="1">
         <v>0</v>
       </c>
       <c r="D286" s="1">
-        <v>0.09830559999999977</v>
+        <v>0.09831839999999903</v>
       </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="4">
+      <c r="A287" s="3">
         <v>38089</v>
       </c>
       <c r="B287">
-        <v>109927.38</v>
+        <v>109938.25</v>
       </c>
       <c r="C287" s="1">
-        <v>0.0008815397098949074</v>
+        <v>0.0009688447357343311</v>
       </c>
       <c r="D287" s="1">
-        <v>0.09927379999999975</v>
+        <v>0.09938249999999926</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="4">
+      <c r="A288" s="3">
         <v>38090</v>
       </c>
       <c r="B288">
-        <v>108644.56</v>
+        <v>108655.43</v>
       </c>
       <c r="C288" s="1">
-        <v>-0.01166970412648793</v>
+        <v>-0.0116685502998275</v>
       </c>
       <c r="D288" s="1">
-        <v>0.08644559999999957</v>
+        <v>0.08655429999999908</v>
       </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="4">
+      <c r="A289" s="3">
         <v>38091</v>
       </c>
       <c r="B289">
-        <v>108990.74</v>
+        <v>109001.61</v>
       </c>
       <c r="C289" s="1">
-        <v>0.003186353739202508</v>
+        <v>0.00318603497312564</v>
       </c>
       <c r="D289" s="1">
-        <v>0.08990739999999975</v>
+        <v>0.09001609999999904</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="4">
+      <c r="A290" s="3">
         <v>38092</v>
       </c>
       <c r="B290">
-        <v>109868.5500000001</v>
+        <v>109879.4200000001</v>
       </c>
       <c r="C290" s="1">
-        <v>0.008053986971737315</v>
+        <v>0.008053183801597141</v>
       </c>
       <c r="D290" s="1">
-        <v>0.09868549999999976</v>
+        <v>0.09879419999999905</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="4">
+      <c r="A291" s="3">
         <v>38093</v>
       </c>
       <c r="B291">
-        <v>110542.3100000001</v>
+        <v>110553.1800000001</v>
       </c>
       <c r="C291" s="1">
-        <v>0.006132419149974977</v>
+        <v>0.006131812490455468</v>
       </c>
       <c r="D291" s="1">
-        <v>0.1054230999999997</v>
+        <v>0.1055317999999992</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="4">
+      <c r="A292" s="3">
         <v>38094</v>
       </c>
       <c r="B292">
-        <v>110542.3100000001</v>
+        <v>110553.1800000001</v>
       </c>
       <c r="C292" s="1">
         <v>0</v>
       </c>
       <c r="D292" s="1">
-        <v>0.1054230999999997</v>
+        <v>0.1055317999999992</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="4">
+      <c r="A293" s="3">
         <v>38095</v>
       </c>
       <c r="B293">
-        <v>110542.3100000001</v>
+        <v>110553.1800000001</v>
       </c>
       <c r="C293" s="1">
         <v>0</v>
       </c>
       <c r="D293" s="1">
-        <v>0.1054230999999997</v>
+        <v>0.1055317999999992</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="4">
+      <c r="A294" s="3">
         <v>38096</v>
       </c>
       <c r="B294">
-        <v>110525.8400000001</v>
+        <v>110536.7100000001</v>
       </c>
       <c r="C294" s="1">
-        <v>-0.0001489927250479806</v>
+        <v>-0.0001489780755289383</v>
       </c>
       <c r="D294" s="1">
-        <v>0.1052583999999996</v>
+        <v>0.1053670999999992</v>
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="4">
+      <c r="A295" s="3">
         <v>38097</v>
       </c>
       <c r="B295">
-        <v>109124.8700000001</v>
+        <v>109135.74</v>
       </c>
       <c r="C295" s="1">
-        <v>-0.01267549742214125</v>
+        <v>-0.0126742509343728</v>
       </c>
       <c r="D295" s="1">
-        <v>0.09124869999999974</v>
+        <v>0.09135739999999926</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="4">
+      <c r="A296" s="3">
         <v>38098</v>
       </c>
       <c r="B296">
-        <v>109687.0900000001</v>
+        <v>109697.9600000001</v>
       </c>
       <c r="C296" s="1">
-        <v>0.00515207944806706</v>
+        <v>0.005151566297163512</v>
       </c>
       <c r="D296" s="1">
-        <v>0.09687089999999965</v>
+        <v>0.09697959999999917</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="4">
+      <c r="A297" s="3">
         <v>38099</v>
       </c>
       <c r="B297">
-        <v>110790.0600000001</v>
+        <v>110800.9300000001</v>
       </c>
       <c r="C297" s="1">
-        <v>0.01005560453832799</v>
+        <v>0.01005460812580283</v>
       </c>
       <c r="D297" s="1">
-        <v>0.1079005999999996</v>
+        <v>0.1080092999999991</v>
       </c>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="4">
+      <c r="A298" s="3">
         <v>38100</v>
       </c>
       <c r="B298">
-        <v>110798.9100000001</v>
+        <v>110809.7800000001</v>
       </c>
       <c r="C298" s="1">
-        <v>7.988081241228073E-05</v>
+        <v>7.987297579536978E-05</v>
       </c>
       <c r="D298" s="1">
-        <v>0.1079890999999997</v>
+        <v>0.108097799999999</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="4">
+      <c r="A299" s="3">
         <v>38101</v>
       </c>
       <c r="B299">
-        <v>110798.9100000001</v>
+        <v>110809.7800000001</v>
       </c>
       <c r="C299" s="1">
         <v>0</v>
       </c>
       <c r="D299" s="1">
-        <v>0.1079890999999997</v>
+        <v>0.108097799999999</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="4">
+      <c r="A300" s="3">
         <v>38102</v>
       </c>
       <c r="B300">
-        <v>110798.9100000001</v>
+        <v>110809.7800000001</v>
       </c>
       <c r="C300" s="1">
         <v>0</v>
       </c>
       <c r="D300" s="1">
-        <v>0.1079890999999997</v>
+        <v>0.108097799999999</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="4">
+      <c r="A301" s="3">
         <v>38103</v>
       </c>
       <c r="B301">
-        <v>110577.5100000001</v>
+        <v>110588.38</v>
       </c>
       <c r="C301" s="1">
-        <v>-0.001998214603374793</v>
+        <v>-0.001998018586446104</v>
       </c>
       <c r="D301" s="1">
-        <v>0.1057750999999996</v>
+        <v>0.1058837999999991</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="4">
+      <c r="A302" s="3">
         <v>38104</v>
       </c>
       <c r="B302">
-        <v>110857.26</v>
+        <v>110868.13</v>
       </c>
       <c r="C302" s="1">
-        <v>0.002529899615210995</v>
+        <v>0.002529650945243933</v>
       </c>
       <c r="D302" s="1">
-        <v>0.1085725999999996</v>
+        <v>0.1086812999999991</v>
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="4">
+      <c r="A303" s="3">
         <v>38105</v>
       </c>
       <c r="B303">
-        <v>109854.6800000001</v>
+        <v>109865.55</v>
       </c>
       <c r="C303" s="1">
-        <v>-0.009043882195897579</v>
+        <v>-0.009042995493835693</v>
       </c>
       <c r="D303" s="1">
-        <v>0.0985467999999996</v>
+        <v>0.09865549999999912</v>
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="4">
+      <c r="A304" s="3">
         <v>38106</v>
       </c>
       <c r="B304">
-        <v>109360.7300000001</v>
+        <v>109371.6</v>
       </c>
       <c r="C304" s="1">
-        <v>-0.004496394691605232</v>
+        <v>-0.004495949822305501</v>
       </c>
       <c r="D304" s="1">
-        <v>0.09360729999999973</v>
+        <v>0.09371599999999924</v>
       </c>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="4">
+      <c r="A305" s="3">
         <v>38107</v>
       </c>
       <c r="B305">
-        <v>109183.24</v>
+        <v>109194.11</v>
       </c>
       <c r="C305" s="1">
-        <v>-0.001622977461836705</v>
+        <v>-0.00162281616068527</v>
       </c>
       <c r="D305" s="1">
-        <v>0.0918323999999997</v>
+        <v>0.09194109999999922</v>
       </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="4">
+      <c r="A306" s="3">
         <v>38108</v>
       </c>
       <c r="B306">
-        <v>109183.24</v>
+        <v>109194.11</v>
       </c>
       <c r="C306" s="1">
         <v>0</v>
       </c>
       <c r="D306" s="1">
-        <v>0.0918323999999997</v>
+        <v>0.09194109999999922</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="4">
+      <c r="A307" s="3">
         <v>38109</v>
       </c>
       <c r="B307">
-        <v>109183.24</v>
+        <v>109194.11</v>
       </c>
       <c r="C307" s="1">
         <v>0</v>
       </c>
       <c r="D307" s="1">
-        <v>0.0918323999999997</v>
+        <v>0.09194109999999922</v>
       </c>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="4">
+      <c r="A308" s="3">
         <v>38110</v>
       </c>
       <c r="B308">
-        <v>110113.24</v>
+        <v>110124.11</v>
       </c>
       <c r="C308" s="1">
-        <v>0.008517790825771199</v>
+        <v>0.008516942901040991</v>
       </c>
       <c r="D308" s="1">
-        <v>0.1011323999999993</v>
+        <v>0.1012410999999991</v>
       </c>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="4">
+      <c r="A309" s="3">
         <v>38111</v>
       </c>
       <c r="B309">
-        <v>110119.29</v>
+        <v>110130.16</v>
       </c>
       <c r="C309" s="1">
-        <v>5.494343822776138E-05</v>
+        <v>5.493801493616779E-05</v>
       </c>
       <c r="D309" s="1">
-        <v>0.1011928999999994</v>
+        <v>0.1013015999999991</v>
       </c>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="4">
+      <c r="A310" s="3">
         <v>38112</v>
       </c>
       <c r="B310">
-        <v>110249.7200000001</v>
+        <v>110260.5900000001</v>
       </c>
       <c r="C310" s="1">
-        <v>0.001184442798350949</v>
+        <v>0.001184325892199078</v>
       </c>
       <c r="D310" s="1">
-        <v>0.1024971999999995</v>
+        <v>0.1026058999999995</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="4">
+      <c r="A311" s="3">
         <v>38113</v>
       </c>
       <c r="B311">
-        <v>109936.4600000001</v>
+        <v>109947.3300000001</v>
       </c>
       <c r="C311" s="1">
-        <v>-0.002841367760389679</v>
+        <v>-0.002841087645186646</v>
       </c>
       <c r="D311" s="1">
-        <v>0.09936459999999969</v>
+        <v>0.09947329999999965</v>
       </c>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="4">
+      <c r="A312" s="3">
         <v>38114</v>
       </c>
       <c r="B312">
-        <v>108688.52</v>
+        <v>108699.39</v>
       </c>
       <c r="C312" s="1">
-        <v>-0.0113514661105153</v>
+        <v>-0.01135034384191058</v>
       </c>
       <c r="D312" s="1">
-        <v>0.08688519999999955</v>
+        <v>0.08699389999999951</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="4">
+      <c r="A313" s="3">
         <v>38115</v>
       </c>
       <c r="B313">
-        <v>108688.52</v>
+        <v>108699.39</v>
       </c>
       <c r="C313" s="1">
         <v>0</v>
       </c>
       <c r="D313" s="1">
-        <v>0.08688519999999955</v>
+        <v>0.08699389999999951</v>
       </c>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="4">
+      <c r="A314" s="3">
         <v>38116</v>
       </c>
       <c r="B314">
-        <v>108688.52</v>
+        <v>108699.39</v>
       </c>
       <c r="C314" s="1">
         <v>0</v>
       </c>
       <c r="D314" s="1">
-        <v>0.08688519999999955</v>
+        <v>0.08699389999999951</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="4">
+      <c r="A315" s="3">
         <v>38117</v>
       </c>
       <c r="B315">
-        <v>107617.2900000001</v>
+        <v>107628.16</v>
       </c>
       <c r="C315" s="1">
-        <v>-0.009855962708849031</v>
+        <v>-0.009854977107047191</v>
       </c>
       <c r="D315" s="1">
-        <v>0.07617289999999954</v>
+        <v>0.07628159999999951</v>
       </c>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="4">
+      <c r="A316" s="3">
         <v>38118</v>
       </c>
       <c r="B316">
-        <v>107831.3100000001</v>
+        <v>107842.1800000001</v>
       </c>
       <c r="C316" s="1">
-        <v>0.00198871389532318</v>
+        <v>0.001988513043426732</v>
       </c>
       <c r="D316" s="1">
-        <v>0.07831309999999969</v>
+        <v>0.07842179999999965</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="4">
+      <c r="A317" s="3">
         <v>38119</v>
       </c>
       <c r="B317">
-        <v>107940.49</v>
+        <v>107951.36</v>
       </c>
       <c r="C317" s="1">
-        <v>0.001012507406243923</v>
+        <v>0.001012405350114154</v>
       </c>
       <c r="D317" s="1">
-        <v>0.07940489999999945</v>
+        <v>0.07951359999999941</v>
       </c>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="4">
+      <c r="A318" s="3">
         <v>38120</v>
       </c>
       <c r="B318">
-        <v>107809.02</v>
+        <v>107819.89</v>
       </c>
       <c r="C318" s="1">
-        <v>-0.001217985947627342</v>
+        <v>-0.001217863304362354</v>
       </c>
       <c r="D318" s="1">
-        <v>0.07809019999999944</v>
+        <v>0.0781988999999994</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="4">
+      <c r="A319" s="3">
         <v>38121</v>
       </c>
       <c r="B319">
-        <v>108052.39</v>
+        <v>108063.26</v>
       </c>
       <c r="C319" s="1">
-        <v>0.002257417793056771</v>
+        <v>0.002257190208597049</v>
       </c>
       <c r="D319" s="1">
-        <v>0.08052389999999954</v>
+        <v>0.0806325999999995</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="4">
+      <c r="A320" s="3">
         <v>38122</v>
       </c>
       <c r="B320">
-        <v>108052.39</v>
+        <v>108063.26</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>
       </c>
       <c r="D320" s="1">
-        <v>0.08052389999999954</v>
+        <v>0.0806325999999995</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="4">
+      <c r="A321" s="3">
         <v>38123</v>
       </c>
       <c r="B321">
-        <v>108052.39</v>
+        <v>108063.26</v>
       </c>
       <c r="C321" s="1">
         <v>0</v>
       </c>
       <c r="D321" s="1">
-        <v>0.08052389999999954</v>
+        <v>0.0806325999999995</v>
       </c>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="4">
+      <c r="A322" s="3">
         <v>38124</v>
       </c>
       <c r="B322">
-        <v>107263.7700000001</v>
+        <v>107274.6400000001</v>
       </c>
       <c r="C322" s="1">
-        <v>-0.007298496590403825</v>
+        <v>-0.00729776244025937</v>
       </c>
       <c r="D322" s="1">
-        <v>0.07263769999999981</v>
+        <v>0.07274639999999977</v>
       </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="4">
+      <c r="A323" s="3">
         <v>38125</v>
       </c>
       <c r="B323">
-        <v>107657.8200000001</v>
+        <v>107668.69</v>
       </c>
       <c r="C323" s="1">
-        <v>0.003673654207753341</v>
+        <v>0.003673281961141805</v>
       </c>
       <c r="D323" s="1">
-        <v>0.07657819999999971</v>
+        <v>0.07668689999999967</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="4">
+      <c r="A324" s="3">
         <v>38126</v>
       </c>
       <c r="B324">
-        <v>107136.1000000001</v>
+        <v>107146.9700000001</v>
       </c>
       <c r="C324" s="1">
-        <v>-0.004846094784382471</v>
+        <v>-0.004845605533047581</v>
       </c>
       <c r="D324" s="1">
-        <v>0.07136099999999979</v>
+        <v>0.07146969999999975</v>
       </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="4">
+      <c r="A325" s="3">
         <v>38127</v>
       </c>
       <c r="B325">
-        <v>107110.45</v>
+        <v>107121.32</v>
       </c>
       <c r="C325" s="1">
-        <v>-0.0002394150991125166</v>
+        <v>-0.000239390810584994</v>
       </c>
       <c r="D325" s="1">
-        <v>0.07110449999999946</v>
+        <v>0.07121319999999942</v>
       </c>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="4">
+      <c r="A326" s="3">
         <v>38128</v>
       </c>
       <c r="B326">
-        <v>107302.1600000001</v>
+        <v>107313.0300000001</v>
       </c>
       <c r="C326" s="1">
-        <v>0.001789834698668891</v>
+        <v>0.00178965307746437</v>
       </c>
       <c r="D326" s="1">
-        <v>0.07302159999999991</v>
+        <v>0.07313029999999987</v>
       </c>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="4">
+      <c r="A327" s="3">
         <v>38129</v>
       </c>
       <c r="B327">
-        <v>107302.1600000001</v>
+        <v>107313.0300000001</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
       </c>
       <c r="D327" s="1">
-        <v>0.07302159999999991</v>
+        <v>0.07313029999999987</v>
       </c>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="4">
+      <c r="A328" s="3">
         <v>38130</v>
       </c>
       <c r="B328">
-        <v>107302.1600000001</v>
+        <v>107313.0300000001</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
       </c>
       <c r="D328" s="1">
-        <v>0.07302159999999991</v>
+        <v>0.07313029999999987</v>
       </c>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="4">
+      <c r="A329" s="3">
         <v>38131</v>
       </c>
       <c r="B329">
-        <v>107285.3500000001</v>
+        <v>107296.2200000001</v>
       </c>
       <c r="C329" s="1">
-        <v>-0.0001566604064635602</v>
+        <v>-0.0001566445379467263</v>
       </c>
       <c r="D329" s="1">
-        <v>0.07285349999999968</v>
+        <v>0.07296219999999964</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="4">
+      <c r="A330" s="3">
         <v>38132</v>
       </c>
       <c r="B330">
-        <v>108635.58</v>
+        <v>108646.45</v>
       </c>
       <c r="C330" s="1">
-        <v>0.0125854089118409</v>
+        <v>0.01258413390518309</v>
       </c>
       <c r="D330" s="1">
-        <v>0.08635579999999932</v>
+        <v>0.0864644999999995</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="4">
+      <c r="A331" s="3">
         <v>38133</v>
       </c>
       <c r="B331">
-        <v>108855.4000000001</v>
+        <v>108866.27</v>
       </c>
       <c r="C331" s="1">
-        <v>0.002023462294765688</v>
+        <v>0.002023259848803249</v>
       </c>
       <c r="D331" s="1">
-        <v>0.08855399999999936</v>
+        <v>0.08866269999999954</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="4">
+      <c r="A332" s="3">
         <v>38134</v>
       </c>
       <c r="B332">
-        <v>109719.7100000001</v>
+        <v>109730.58</v>
       </c>
       <c r="C332" s="1">
-        <v>0.007939982766128173</v>
+        <v>0.007939189980514572</v>
       </c>
       <c r="D332" s="1">
-        <v>0.09719709999999915</v>
+        <v>0.09730579999999955</v>
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="4">
+      <c r="A333" s="3">
         <v>38135</v>
       </c>
       <c r="B333">
-        <v>109655.87</v>
+        <v>109666.74</v>
       </c>
       <c r="C333" s="1">
-        <v>-0.0005818462334616914</v>
+        <v>-0.0005817885953032231</v>
       </c>
       <c r="D333" s="1">
-        <v>0.096558699999999</v>
+        <v>0.0966673999999994</v>
       </c>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="4">
+      <c r="A334" s="3">
         <v>38136</v>
       </c>
       <c r="B334">
-        <v>109655.87</v>
+        <v>109666.74</v>
       </c>
       <c r="C334" s="1">
         <v>0</v>
       </c>
       <c r="D334" s="1">
-        <v>0.096558699999999</v>
+        <v>0.0966673999999994</v>
       </c>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="4">
+      <c r="A335" s="3">
         <v>38137</v>
       </c>
       <c r="B335">
-        <v>109655.87</v>
+        <v>109666.74</v>
       </c>
       <c r="C335" s="1">
         <v>0</v>
       </c>
       <c r="D335" s="1">
-        <v>0.096558699999999</v>
+        <v>0.0966673999999994</v>
       </c>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="4">
+      <c r="A336" s="3">
         <v>38138</v>
       </c>
       <c r="B336">
-        <v>109655.87</v>
+        <v>109666.74</v>
       </c>
       <c r="C336" s="1">
         <v>0</v>
       </c>
       <c r="D336" s="1">
-        <v>0.096558699999999</v>
+        <v>0.0966673999999994</v>
       </c>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="4">
+      <c r="A337" s="3">
         <v>38139</v>
       </c>
       <c r="B337">
-        <v>109849.5400000001</v>
+        <v>109860.41</v>
       </c>
       <c r="C337" s="1">
-        <v>0.00176616172029842</v>
+        <v>0.00176598666104244</v>
       </c>
       <c r="D337" s="1">
-        <v>0.09849539999999912</v>
+        <v>0.09860409999999953</v>
       </c>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="4">
+      <c r="A338" s="3">
         <v>38140</v>
       </c>
       <c r="B338">
-        <v>110277.9400000001</v>
+        <v>110288.8100000001</v>
       </c>
       <c r="C338" s="1">
-        <v>0.003899879781016802</v>
+        <v>0.003899493912320251</v>
       </c>
       <c r="D338" s="1">
-        <v>0.1027793999999991</v>
+        <v>0.1028880999999997</v>
       </c>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="4">
+      <c r="A339" s="3">
         <v>38141</v>
       </c>
       <c r="B339">
-        <v>109826.3300000001</v>
+        <v>109837.2000000001</v>
       </c>
       <c r="C339" s="1">
-        <v>-0.004095198006056178</v>
+        <v>-0.004094794385758549</v>
       </c>
       <c r="D339" s="1">
-        <v>0.09826329999999928</v>
+        <v>0.09837199999999968</v>
       </c>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="4">
+      <c r="A340" s="3">
         <v>38142</v>
       </c>
       <c r="B340">
-        <v>110142.7600000001</v>
+        <v>110153.6300000001</v>
       </c>
       <c r="C340" s="1">
-        <v>0.002881185231264682</v>
+        <v>0.002880900095778127</v>
       </c>
       <c r="D340" s="1">
-        <v>0.1014275999999994</v>
+        <v>0.1015362999999998</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="4">
+      <c r="A341" s="3">
         <v>38143</v>
       </c>
       <c r="B341">
-        <v>110142.7600000001</v>
+        <v>110153.6300000001</v>
       </c>
       <c r="C341" s="1">
         <v>0</v>
       </c>
       <c r="D341" s="1">
-        <v>0.1014275999999994</v>
+        <v>0.1015362999999998</v>
       </c>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="4">
+      <c r="A342" s="3">
         <v>38144</v>
       </c>
       <c r="B342">
-        <v>110142.7600000001</v>
+        <v>110153.6300000001</v>
       </c>
       <c r="C342" s="1">
         <v>0</v>
       </c>
       <c r="D342" s="1">
-        <v>0.1014275999999994</v>
+        <v>0.1015362999999998</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="4">
+      <c r="A343" s="3">
         <v>38145</v>
       </c>
       <c r="B343">
-        <v>111245.1100000001</v>
+        <v>111255.9800000001</v>
       </c>
       <c r="C343" s="1">
-        <v>0.01000837458585568</v>
+        <v>0.01000738695583614</v>
       </c>
       <c r="D343" s="1">
-        <v>0.1124510999999995</v>
+        <v>0.1125597999999999</v>
       </c>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="4">
+      <c r="A344" s="3">
         <v>38146</v>
       </c>
       <c r="B344">
-        <v>111398.1200000001</v>
+        <v>111408.9900000001</v>
       </c>
       <c r="C344" s="1">
-        <v>0.001375431243674452</v>
+        <v>0.001375296860447461</v>
       </c>
       <c r="D344" s="1">
-        <v>0.1139811999999996</v>
+        <v>0.1140899</v>
       </c>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="4">
+      <c r="A345" s="3">
         <v>38147</v>
       </c>
       <c r="B345">
-        <v>110594.8900000001</v>
+        <v>110605.7600000001</v>
       </c>
       <c r="C345" s="1">
-        <v>-0.007210444844132136</v>
+        <v>-0.007209741332364739</v>
       </c>
       <c r="D345" s="1">
-        <v>0.1059488999999993</v>
+        <v>0.1060576</v>
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="4">
+      <c r="A346" s="3">
         <v>38148</v>
       </c>
       <c r="B346">
-        <v>110809.1500000001</v>
+        <v>110820.0200000001</v>
       </c>
       <c r="C346" s="1">
-        <v>0.001937340866291493</v>
+        <v>0.001937150470282978</v>
       </c>
       <c r="D346" s="1">
-        <v>0.1080914999999996</v>
+        <v>0.1082002</v>
       </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="4">
+      <c r="A347" s="3">
         <v>38149</v>
       </c>
       <c r="B347">
-        <v>110809.1500000001</v>
+        <v>110820.0200000001</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
       </c>
       <c r="D347" s="1">
-        <v>0.1080914999999996</v>
+        <v>0.1082002</v>
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="4">
+      <c r="A348" s="3">
         <v>38150</v>
       </c>
       <c r="B348">
-        <v>110809.1500000001</v>
+        <v>110820.0200000001</v>
       </c>
       <c r="C348" s="1">
         <v>0</v>
       </c>
       <c r="D348" s="1">
-        <v>0.1080914999999996</v>
+        <v>0.1082002</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="4">
+      <c r="A349" s="3">
         <v>38151</v>
       </c>
       <c r="B349">
-        <v>110809.1500000001</v>
+        <v>110820.0200000001</v>
       </c>
       <c r="C349" s="1">
         <v>0</v>
       </c>
       <c r="D349" s="1">
-        <v>0.1080914999999996</v>
+        <v>0.1082002</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="4">
+      <c r="A350" s="3">
         <v>38152</v>
       </c>
       <c r="B350">
-        <v>110145.2600000001</v>
+        <v>110156.1300000001</v>
       </c>
       <c r="C350" s="1">
-        <v>-0.005991292235343226</v>
+        <v>-0.005990704567640281</v>
       </c>
       <c r="D350" s="1">
-        <v>0.1014525999999998</v>
+        <v>0.1015613000000002</v>
       </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="4">
+      <c r="A351" s="3">
         <v>38153</v>
       </c>
       <c r="B351">
-        <v>110496.1800000001</v>
+        <v>110507.0500000001</v>
       </c>
       <c r="C351" s="1">
-        <v>0.003185974593913343</v>
+        <v>0.003185660207924768</v>
       </c>
       <c r="D351" s="1">
-        <v>0.1049617999999997</v>
+        <v>0.1050705000000001</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="4">
+      <c r="A352" s="3">
         <v>38154</v>
       </c>
       <c r="B352">
-        <v>110591.9500000001</v>
+        <v>110602.8200000001</v>
       </c>
       <c r="C352" s="1">
-        <v>0.0008667267954423075</v>
+        <v>0.000866641540064883</v>
       </c>
       <c r="D352" s="1">
-        <v>0.1059194999999997</v>
+        <v>0.1060282000000003</v>
       </c>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="4">
+      <c r="A353" s="3">
         <v>38155</v>
       </c>
       <c r="B353">
-        <v>110486.7500000001</v>
+        <v>110497.6200000001</v>
       </c>
       <c r="C353" s="1">
-        <v>-0.0009512446430325339</v>
+        <v>-0.0009511511550973628</v>
       </c>
       <c r="D353" s="1">
-        <v>0.1048674999999994</v>
+        <v>0.1049762000000001</v>
       </c>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="4">
+      <c r="A354" s="3">
         <v>38156</v>
       </c>
       <c r="B354">
-        <v>110611.6600000001</v>
+        <v>110622.5300000001</v>
       </c>
       <c r="C354" s="1">
-        <v>0.001130542802643797</v>
+        <v>0.001130431587576197</v>
       </c>
       <c r="D354" s="1">
-        <v>0.1061165999999996</v>
+        <v>0.1062253</v>
       </c>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="4">
+      <c r="A355" s="3">
         <v>38157</v>
       </c>
       <c r="B355">
-        <v>110611.6600000001</v>
+        <v>110622.5300000001</v>
       </c>
       <c r="C355" s="1">
         <v>0</v>
       </c>
       <c r="D355" s="1">
-        <v>0.1061165999999996</v>
+        <v>0.1062253</v>
       </c>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="4">
+      <c r="A356" s="3">
         <v>38158</v>
       </c>
       <c r="B356">
-        <v>110611.6600000001</v>
+        <v>110622.5300000001</v>
       </c>
       <c r="C356" s="1">
         <v>0</v>
       </c>
       <c r="D356" s="1">
-        <v>0.1061165999999996</v>
+        <v>0.1062253</v>
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="4">
+      <c r="A357" s="3">
         <v>38159</v>
       </c>
       <c r="B357">
-        <v>110289.5500000001</v>
+        <v>110300.4200000001</v>
       </c>
       <c r="C357" s="1">
-        <v>-0.002912079974208837</v>
+        <v>-0.002911793827170661</v>
       </c>
       <c r="D357" s="1">
-        <v>0.1028954999999996</v>
+        <v>0.1030042</v>
       </c>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="4">
+      <c r="A358" s="3">
         <v>38160</v>
       </c>
       <c r="B358">
-        <v>110381.0500000001</v>
+        <v>110391.9200000001</v>
       </c>
       <c r="C358" s="1">
-        <v>0.0008296343579241583</v>
+        <v>0.000829552598258454</v>
       </c>
       <c r="D358" s="1">
-        <v>0.1038104999999996</v>
+        <v>0.1039192</v>
       </c>
     </row>
   </sheetData>
